--- a/Examples/Historical Prices.xlsx
+++ b/Examples/Historical Prices.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23519"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\others\data\xlquote\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\others\Data\XLQuote\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E8CDEF-F8F0-4F1D-90A5-1677F316840E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C1CF12-05FF-4F9F-9EF9-AB95F94002D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>AAPL</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>volume</t>
+  </si>
+  <si>
+    <t>Period</t>
   </si>
 </sst>
 </file>
@@ -436,7 +439,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,14 +447,15 @@
   <cols>
     <col min="1" max="1" width="9.9296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.06640625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -470,785 +474,878 @@
       <c r="F3" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="str">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,A$3)</f>
-        <v>2020-12-01</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,G4,A$3)</f>
+        <v>2021-09-03</v>
       </c>
       <c r="B4" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,B$3)</f>
-        <v>121.01</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G4,B$3)</f>
+        <v>153.76</v>
       </c>
       <c r="C4" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,C$3)</f>
-        <v>123.4693</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G4,C$3)</f>
+        <v>154.63</v>
       </c>
       <c r="D4" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,D$3)</f>
-        <v>120.01</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G4,D$3)</f>
+        <v>153.09</v>
       </c>
       <c r="E4" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,E$3)</f>
-        <v>122.72</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G4,E$3)</f>
+        <v>154.30000000000001</v>
       </c>
       <c r="F4" s="2">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,F$3)</f>
-        <v>128166803</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G4,F$3)</f>
+        <v>57866066</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="str">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,A$3)</f>
-        <v>2020-11-30</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,G5,A$3)</f>
+        <v>2021-09-02</v>
       </c>
       <c r="B5" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,B$3)</f>
-        <v>116.97</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G5,B$3)</f>
+        <v>153.87</v>
       </c>
       <c r="C5" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,C$3)</f>
-        <v>120.97</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G5,C$3)</f>
+        <v>154.72</v>
       </c>
       <c r="D5" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,D$3)</f>
-        <v>116.81</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G5,D$3)</f>
+        <v>152.4</v>
       </c>
       <c r="E5" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,E$3)</f>
-        <v>119.05</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G5,E$3)</f>
+        <v>153.65</v>
       </c>
       <c r="F5" s="2">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,F$3)</f>
-        <v>169410176</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G5,F$3)</f>
+        <v>71171317</v>
+      </c>
+      <c r="G5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="str">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,A$3)</f>
-        <v>2020-11-27</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,G6,A$3)</f>
+        <v>2021-09-01</v>
       </c>
       <c r="B6" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,B$3)</f>
-        <v>116.57</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G6,B$3)</f>
+        <v>152.83000000000001</v>
       </c>
       <c r="C6" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,C$3)</f>
-        <v>117.49</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G6,C$3)</f>
+        <v>154.97999999999999</v>
       </c>
       <c r="D6" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,D$3)</f>
-        <v>116.22</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G6,D$3)</f>
+        <v>152.34</v>
       </c>
       <c r="E6" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,E$3)</f>
-        <v>116.59</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G6,E$3)</f>
+        <v>152.51</v>
       </c>
       <c r="F6" s="2">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,F$3)</f>
-        <v>46691331</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G6,F$3)</f>
+        <v>80313711</v>
+      </c>
+      <c r="G6">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="str">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,A$3)</f>
-        <v>2020-11-25</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,G7,A$3)</f>
+        <v>2021-08-31</v>
       </c>
       <c r="B7" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,B$3)</f>
-        <v>115.55</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G7,B$3)</f>
+        <v>152.66</v>
       </c>
       <c r="C7" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,C$3)</f>
-        <v>116.75</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G7,C$3)</f>
+        <v>152.80000000000001</v>
       </c>
       <c r="D7" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,D$3)</f>
-        <v>115.17</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G7,D$3)</f>
+        <v>151.29</v>
       </c>
       <c r="E7" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,E$3)</f>
-        <v>116.03</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G7,E$3)</f>
+        <v>151.83000000000001</v>
       </c>
       <c r="F7" s="2">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,F$3)</f>
-        <v>76499234</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G7,F$3)</f>
+        <v>86453117</v>
+      </c>
+      <c r="G7">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="str">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,A$3)</f>
-        <v>2020-11-24</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,G8,A$3)</f>
+        <v>2021-08-30</v>
       </c>
       <c r="B8" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,B$3)</f>
-        <v>113.91</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G8,B$3)</f>
+        <v>149</v>
       </c>
       <c r="C8" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,C$3)</f>
-        <v>115.85</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G8,C$3)</f>
+        <v>153.49</v>
       </c>
       <c r="D8" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,D$3)</f>
-        <v>112.59</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G8,D$3)</f>
+        <v>148.61000000000001</v>
       </c>
       <c r="E8" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,E$3)</f>
-        <v>115.17</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G8,E$3)</f>
+        <v>153.12</v>
       </c>
       <c r="F8" s="2">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,F$3)</f>
-        <v>113874218</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G8,F$3)</f>
+        <v>90956723</v>
+      </c>
+      <c r="G8">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="str">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,A$3)</f>
-        <v>2020-11-23</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,G9,A$3)</f>
+        <v>2021-08-27</v>
       </c>
       <c r="B9" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,B$3)</f>
-        <v>117.18</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G9,B$3)</f>
+        <v>147.47999999999999</v>
       </c>
       <c r="C9" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,C$3)</f>
-        <v>117.6202</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G9,C$3)</f>
+        <v>148.75</v>
       </c>
       <c r="D9" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,D$3)</f>
-        <v>113.75</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G9,D$3)</f>
+        <v>146.83000000000001</v>
       </c>
       <c r="E9" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,E$3)</f>
-        <v>113.85</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G9,E$3)</f>
+        <v>148.6</v>
       </c>
       <c r="F9" s="2">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,F$3)</f>
-        <v>127959318</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G9,F$3)</f>
+        <v>55802388</v>
+      </c>
+      <c r="G9">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="str">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,A$3)</f>
-        <v>2020-11-20</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,G10,A$3)</f>
+        <v>2021-08-26</v>
       </c>
       <c r="B10" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,B$3)</f>
-        <v>118.64</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G10,B$3)</f>
+        <v>148.35</v>
       </c>
       <c r="C10" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,C$3)</f>
-        <v>118.77</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G10,C$3)</f>
+        <v>149.12</v>
       </c>
       <c r="D10" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,D$3)</f>
-        <v>117.29</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G10,D$3)</f>
+        <v>147.51</v>
       </c>
       <c r="E10" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,E$3)</f>
-        <v>117.34</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G10,E$3)</f>
+        <v>147.54</v>
       </c>
       <c r="F10" s="2">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,F$3)</f>
-        <v>73604287</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G10,F$3)</f>
+        <v>48597195</v>
+      </c>
+      <c r="G10">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" t="str">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,A$3)</f>
-        <v>2020-11-19</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,G11,A$3)</f>
+        <v>2021-08-25</v>
       </c>
       <c r="B11" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,B$3)</f>
-        <v>117.59</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G11,B$3)</f>
+        <v>149.81</v>
       </c>
       <c r="C11" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,C$3)</f>
-        <v>119.06</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G11,C$3)</f>
+        <v>150.32</v>
       </c>
       <c r="D11" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,D$3)</f>
-        <v>116.81</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G11,D$3)</f>
+        <v>147.80000000000001</v>
       </c>
       <c r="E11" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,E$3)</f>
-        <v>118.64</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G11,E$3)</f>
+        <v>148.36000000000001</v>
       </c>
       <c r="F11" s="2">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,F$3)</f>
-        <v>74112972</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G11,F$3)</f>
+        <v>58991297</v>
+      </c>
+      <c r="G11">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="str">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,A$3)</f>
-        <v>2020-11-18</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,G12,A$3)</f>
+        <v>2021-08-24</v>
       </c>
       <c r="B12" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,B$3)</f>
-        <v>118.61</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G12,B$3)</f>
+        <v>149.44999999999999</v>
       </c>
       <c r="C12" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,C$3)</f>
-        <v>119.82</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G12,C$3)</f>
+        <v>150.86000000000001</v>
       </c>
       <c r="D12" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,D$3)</f>
-        <v>118</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G12,D$3)</f>
+        <v>149.15</v>
       </c>
       <c r="E12" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,E$3)</f>
-        <v>118.03</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G12,E$3)</f>
+        <v>149.62</v>
       </c>
       <c r="F12" s="2">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,F$3)</f>
-        <v>76322111</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G12,F$3)</f>
+        <v>48606428</v>
+      </c>
+      <c r="G12">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="str">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,A$3)</f>
-        <v>2020-11-17</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,G13,A$3)</f>
+        <v>2021-08-23</v>
       </c>
       <c r="B13" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,B$3)</f>
-        <v>119.55</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G13,B$3)</f>
+        <v>148.31</v>
       </c>
       <c r="C13" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,C$3)</f>
-        <v>120.6741</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G13,C$3)</f>
+        <v>150.19</v>
       </c>
       <c r="D13" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,D$3)</f>
-        <v>118.96</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G13,D$3)</f>
+        <v>147.88999999999999</v>
       </c>
       <c r="E13" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,E$3)</f>
-        <v>119.39</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G13,E$3)</f>
+        <v>149.71</v>
       </c>
       <c r="F13" s="2">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,F$3)</f>
-        <v>74270973</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G13,F$3)</f>
+        <v>60131810</v>
+      </c>
+      <c r="G13">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" t="str">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,A$3)</f>
-        <v>2020-11-16</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,G14,A$3)</f>
+        <v>2021-08-20</v>
       </c>
       <c r="B14" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,B$3)</f>
-        <v>118.92</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G14,B$3)</f>
+        <v>147.44</v>
       </c>
       <c r="C14" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,C$3)</f>
-        <v>120.99</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G14,C$3)</f>
+        <v>148.5</v>
       </c>
       <c r="D14" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,D$3)</f>
-        <v>118.146</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G14,D$3)</f>
+        <v>146.78</v>
       </c>
       <c r="E14" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,E$3)</f>
-        <v>120.3</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G14,E$3)</f>
+        <v>148.19</v>
       </c>
       <c r="F14" s="2">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,F$3)</f>
-        <v>91183018</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G14,F$3)</f>
+        <v>60549630</v>
+      </c>
+      <c r="G14">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="str">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,A$3)</f>
-        <v>2020-11-13</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,G15,A$3)</f>
+        <v>2021-08-19</v>
       </c>
       <c r="B15" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,B$3)</f>
-        <v>119.44</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G15,B$3)</f>
+        <v>145.03</v>
       </c>
       <c r="C15" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,C$3)</f>
-        <v>119.6717</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G15,C$3)</f>
+        <v>148</v>
       </c>
       <c r="D15" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,D$3)</f>
-        <v>117.87</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G15,D$3)</f>
+        <v>144.5</v>
       </c>
       <c r="E15" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,E$3)</f>
-        <v>119.26</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G15,E$3)</f>
+        <v>146.69999999999999</v>
       </c>
       <c r="F15" s="2">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,F$3)</f>
-        <v>81688586</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G15,F$3)</f>
+        <v>86960310</v>
+      </c>
+      <c r="G15">
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" t="str">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,A$3)</f>
-        <v>2020-11-12</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,G16,A$3)</f>
+        <v>2021-08-18</v>
       </c>
       <c r="B16" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,B$3)</f>
-        <v>119.62</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G16,B$3)</f>
+        <v>149.80000000000001</v>
       </c>
       <c r="C16" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,C$3)</f>
-        <v>120.53</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G16,C$3)</f>
+        <v>150.72</v>
       </c>
       <c r="D16" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,D$3)</f>
-        <v>118.57</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G16,D$3)</f>
+        <v>146.15</v>
       </c>
       <c r="E16" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,E$3)</f>
-        <v>119.21</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G16,E$3)</f>
+        <v>146.36000000000001</v>
       </c>
       <c r="F16" s="2">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,F$3)</f>
-        <v>103350674</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G16,F$3)</f>
+        <v>86325990</v>
+      </c>
+      <c r="G16">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" t="str">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,A$3)</f>
-        <v>2020-11-11</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,G17,A$3)</f>
+        <v>2021-08-17</v>
       </c>
       <c r="B17" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,B$3)</f>
-        <v>117.19</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G17,B$3)</f>
+        <v>150.22999999999999</v>
       </c>
       <c r="C17" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,C$3)</f>
-        <v>119.63</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G17,C$3)</f>
+        <v>151.68</v>
       </c>
       <c r="D17" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,D$3)</f>
-        <v>116.44</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G17,D$3)</f>
+        <v>149.09</v>
       </c>
       <c r="E17" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,E$3)</f>
-        <v>119.49</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G17,E$3)</f>
+        <v>150.19</v>
       </c>
       <c r="F17" s="2">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,F$3)</f>
-        <v>112294954</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G17,F$3)</f>
+        <v>92229735</v>
+      </c>
+      <c r="G17">
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" t="str">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,A$3)</f>
-        <v>2020-11-10</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,G18,A$3)</f>
+        <v>2021-08-16</v>
       </c>
       <c r="B18" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,B$3)</f>
-        <v>115.55</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G18,B$3)</f>
+        <v>148.535</v>
       </c>
       <c r="C18" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,C$3)</f>
-        <v>117.59</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G18,C$3)</f>
+        <v>151.19</v>
       </c>
       <c r="D18" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,D$3)</f>
-        <v>114.13</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G18,D$3)</f>
+        <v>146.47</v>
       </c>
       <c r="E18" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,E$3)</f>
-        <v>115.97</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G18,E$3)</f>
+        <v>151.12</v>
       </c>
       <c r="F18" s="2">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,F$3)</f>
-        <v>138023390</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G18,F$3)</f>
+        <v>103558782</v>
+      </c>
+      <c r="G18">
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" t="str">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,A$3)</f>
-        <v>2020-11-09</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,G19,A$3)</f>
+        <v>2021-08-13</v>
       </c>
       <c r="B19" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,B$3)</f>
-        <v>120.5</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G19,B$3)</f>
+        <v>148.97</v>
       </c>
       <c r="C19" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,C$3)</f>
-        <v>121.99</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G19,C$3)</f>
+        <v>149.4444</v>
       </c>
       <c r="D19" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,D$3)</f>
-        <v>116.05</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G19,D$3)</f>
+        <v>148.27000000000001</v>
       </c>
       <c r="E19" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,E$3)</f>
-        <v>116.32</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G19,E$3)</f>
+        <v>149.1</v>
       </c>
       <c r="F19" s="2">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,F$3)</f>
-        <v>154515315</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G19,F$3)</f>
+        <v>59375009</v>
+      </c>
+      <c r="G19">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" t="str">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,A$3)</f>
-        <v>2020-11-06</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,G20,A$3)</f>
+        <v>2021-08-12</v>
       </c>
       <c r="B20" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,B$3)</f>
-        <v>118.32</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G20,B$3)</f>
+        <v>146.19</v>
       </c>
       <c r="C20" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,C$3)</f>
-        <v>119.2</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G20,C$3)</f>
+        <v>149.05000000000001</v>
       </c>
       <c r="D20" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,D$3)</f>
-        <v>116.13</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G20,D$3)</f>
+        <v>145.84</v>
       </c>
       <c r="E20" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,E$3)</f>
-        <v>118.69</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G20,E$3)</f>
+        <v>148.88999999999999</v>
       </c>
       <c r="F20" s="2">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,F$3)</f>
-        <v>114457922</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G20,F$3)</f>
+        <v>73779113</v>
+      </c>
+      <c r="G20">
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" t="str">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,A$3)</f>
-        <v>2020-11-05</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,G21,A$3)</f>
+        <v>2021-08-11</v>
       </c>
       <c r="B21" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,B$3)</f>
-        <v>117.95</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G21,B$3)</f>
+        <v>146.05000000000001</v>
       </c>
       <c r="C21" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,C$3)</f>
-        <v>119.62</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G21,C$3)</f>
+        <v>146.72</v>
       </c>
       <c r="D21" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,D$3)</f>
-        <v>116.8686</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G21,D$3)</f>
+        <v>145.53</v>
       </c>
       <c r="E21" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,E$3)</f>
-        <v>119.03</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G21,E$3)</f>
+        <v>145.86000000000001</v>
       </c>
       <c r="F21" s="2">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,F$3)</f>
-        <v>126387074</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G21,F$3)</f>
+        <v>48493463</v>
+      </c>
+      <c r="G21">
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" t="str">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,A$3)</f>
-        <v>2020-11-04</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,G22,A$3)</f>
+        <v>2021-08-10</v>
       </c>
       <c r="B22" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,B$3)</f>
-        <v>114.14</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G22,B$3)</f>
+        <v>146.44</v>
       </c>
       <c r="C22" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,C$3)</f>
-        <v>115.59</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G22,C$3)</f>
+        <v>147.71</v>
       </c>
       <c r="D22" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,D$3)</f>
-        <v>112.35</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G22,D$3)</f>
+        <v>145.30000000000001</v>
       </c>
       <c r="E22" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,E$3)</f>
-        <v>114.95</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G22,E$3)</f>
+        <v>145.6</v>
       </c>
       <c r="F22" s="2">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,F$3)</f>
-        <v>138235482</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G22,F$3)</f>
+        <v>69023081</v>
+      </c>
+      <c r="G22">
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" t="str">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,A$3)</f>
-        <v>2020-11-03</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,G23,A$3)</f>
+        <v>2021-08-09</v>
       </c>
       <c r="B23" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,B$3)</f>
-        <v>109.66</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G23,B$3)</f>
+        <v>146.19999999999999</v>
       </c>
       <c r="C23" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,C$3)</f>
-        <v>111.49</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G23,C$3)</f>
+        <v>146.69999999999999</v>
       </c>
       <c r="D23" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,D$3)</f>
-        <v>108.73</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G23,D$3)</f>
+        <v>145.52000000000001</v>
       </c>
       <c r="E23" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,E$3)</f>
-        <v>110.44</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G23,E$3)</f>
+        <v>146.09</v>
       </c>
       <c r="F23" s="2">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,F$3)</f>
-        <v>107624448</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G23,F$3)</f>
+        <v>48908689</v>
+      </c>
+      <c r="G23">
+        <v>-19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" t="str">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,A$3)</f>
-        <v>2020-11-02</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,G24,A$3)</f>
+        <v>2021-08-06</v>
       </c>
       <c r="B24" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,B$3)</f>
-        <v>109.11</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G24,B$3)</f>
+        <v>146.35</v>
       </c>
       <c r="C24" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,C$3)</f>
-        <v>110.68</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G24,C$3)</f>
+        <v>147.11000000000001</v>
       </c>
       <c r="D24" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,D$3)</f>
-        <v>107.32</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G24,D$3)</f>
+        <v>145.63</v>
       </c>
       <c r="E24" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,E$3)</f>
-        <v>108.77</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G24,E$3)</f>
+        <v>146.13999999999999</v>
       </c>
       <c r="F24" s="2">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,F$3)</f>
-        <v>122866899</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G24,F$3)</f>
+        <v>54126813</v>
+      </c>
+      <c r="G24">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" t="str">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,A$3)</f>
-        <v>2020-10-30</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,G25,A$3)</f>
+        <v>2021-08-05</v>
       </c>
       <c r="B25" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,B$3)</f>
-        <v>111.06</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G25,B$3)</f>
+        <v>146.97999999999999</v>
       </c>
       <c r="C25" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,C$3)</f>
-        <v>111.99</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G25,C$3)</f>
+        <v>147.84</v>
       </c>
       <c r="D25" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,D$3)</f>
-        <v>107.72</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G25,D$3)</f>
+        <v>146.16999999999999</v>
       </c>
       <c r="E25" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,E$3)</f>
-        <v>108.86</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G25,E$3)</f>
+        <v>147.06</v>
       </c>
       <c r="F25" s="2">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,F$3)</f>
-        <v>190573476</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G25,F$3)</f>
+        <v>46397674</v>
+      </c>
+      <c r="G25">
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" t="str">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,A$3)</f>
-        <v>2020-10-29</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,G26,A$3)</f>
+        <v>2021-08-04</v>
       </c>
       <c r="B26" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,B$3)</f>
-        <v>112.37</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G26,B$3)</f>
+        <v>147.27000000000001</v>
       </c>
       <c r="C26" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,C$3)</f>
-        <v>116.93</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G26,C$3)</f>
+        <v>147.79</v>
       </c>
       <c r="D26" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,D$3)</f>
-        <v>112.2</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G26,D$3)</f>
+        <v>146.28</v>
       </c>
       <c r="E26" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,E$3)</f>
-        <v>115.32</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G26,E$3)</f>
+        <v>146.94999999999999</v>
       </c>
       <c r="F26" s="2">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,F$3)</f>
-        <v>146129173</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G26,F$3)</f>
+        <v>56368271</v>
+      </c>
+      <c r="G26">
+        <v>-22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" t="str">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,A$3)</f>
-        <v>2020-10-28</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,G27,A$3)</f>
+        <v>2021-08-03</v>
       </c>
       <c r="B27" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,B$3)</f>
-        <v>115.05</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G27,B$3)</f>
+        <v>145.81</v>
       </c>
       <c r="C27" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,C$3)</f>
-        <v>115.43</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G27,C$3)</f>
+        <v>148.04499999999999</v>
       </c>
       <c r="D27" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,D$3)</f>
-        <v>111.1</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G27,D$3)</f>
+        <v>145.18</v>
       </c>
       <c r="E27" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,E$3)</f>
-        <v>111.2</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G27,E$3)</f>
+        <v>147.36000000000001</v>
       </c>
       <c r="F27" s="2">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,F$3)</f>
-        <v>143937823</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G27,F$3)</f>
+        <v>64786618</v>
+      </c>
+      <c r="G27">
+        <v>-23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" t="str">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,A$3)</f>
-        <v>2020-10-27</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,G28,A$3)</f>
+        <v>2021-08-02</v>
       </c>
       <c r="B28" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,B$3)</f>
-        <v>115.49</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G28,B$3)</f>
+        <v>146.36000000000001</v>
       </c>
       <c r="C28" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,C$3)</f>
-        <v>117.28</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G28,C$3)</f>
+        <v>146.94999999999999</v>
       </c>
       <c r="D28" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,D$3)</f>
-        <v>114.5399</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G28,D$3)</f>
+        <v>145.25</v>
       </c>
       <c r="E28" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,E$3)</f>
-        <v>116.6</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G28,E$3)</f>
+        <v>145.52000000000001</v>
       </c>
       <c r="F28" s="2">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,F$3)</f>
-        <v>92276772</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G28,F$3)</f>
+        <v>62879961</v>
+      </c>
+      <c r="G28">
+        <v>-24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" t="str">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,A$3)</f>
-        <v>2020-10-26</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,G29,A$3)</f>
+        <v>2021-07-30</v>
       </c>
       <c r="B29" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,B$3)</f>
-        <v>114.01</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G29,B$3)</f>
+        <v>144.38</v>
       </c>
       <c r="C29" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,C$3)</f>
-        <v>116.55</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G29,C$3)</f>
+        <v>146.33000000000001</v>
       </c>
       <c r="D29" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,D$3)</f>
-        <v>112.88</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G29,D$3)</f>
+        <v>144.11000000000001</v>
       </c>
       <c r="E29" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,E$3)</f>
-        <v>115.05</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G29,E$3)</f>
+        <v>145.86000000000001</v>
       </c>
       <c r="F29" s="2">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,F$3)</f>
-        <v>111850657</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G29,F$3)</f>
+        <v>70440626</v>
+      </c>
+      <c r="G29">
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" t="str">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,A$3)</f>
-        <v>2020-10-23</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,G30,A$3)</f>
+        <v>2021-07-29</v>
       </c>
       <c r="B30" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,B$3)</f>
-        <v>116.39</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G30,B$3)</f>
+        <v>144.685</v>
       </c>
       <c r="C30" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,C$3)</f>
-        <v>116.55</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G30,C$3)</f>
+        <v>146.55000000000001</v>
       </c>
       <c r="D30" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,D$3)</f>
-        <v>114.28</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G30,D$3)</f>
+        <v>144.58000000000001</v>
       </c>
       <c r="E30" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,E$3)</f>
-        <v>115.04</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G30,E$3)</f>
+        <v>145.63999999999999</v>
       </c>
       <c r="F30" s="2">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,F$3)</f>
-        <v>82572645</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G30,F$3)</f>
+        <v>56699475</v>
+      </c>
+      <c r="G30">
+        <v>-26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" t="str">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,A$3)</f>
-        <v>2020-10-22</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,G31,A$3)</f>
+        <v>2021-07-28</v>
       </c>
       <c r="B31" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,B$3)</f>
-        <v>117.45</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G31,B$3)</f>
+        <v>144.81</v>
       </c>
       <c r="C31" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,C$3)</f>
-        <v>118.04</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G31,C$3)</f>
+        <v>146.97</v>
       </c>
       <c r="D31" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,D$3)</f>
-        <v>114.59</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G31,D$3)</f>
+        <v>142.54</v>
       </c>
       <c r="E31" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,E$3)</f>
-        <v>115.75</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G31,E$3)</f>
+        <v>144.97999999999999</v>
       </c>
       <c r="F31" s="2">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,F$3)</f>
-        <v>101987954</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G31,F$3)</f>
+        <v>118931191</v>
+      </c>
+      <c r="G31">
+        <v>-27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" t="str">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,A$3)</f>
-        <v>2020-10-21</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,G32,A$3)</f>
+        <v>2021-07-27</v>
       </c>
       <c r="B32" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,B$3)</f>
-        <v>116.67</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G32,B$3)</f>
+        <v>149.12</v>
       </c>
       <c r="C32" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,C$3)</f>
-        <v>118.705</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G32,C$3)</f>
+        <v>149.21</v>
       </c>
       <c r="D32" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,D$3)</f>
-        <v>116.45</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G32,D$3)</f>
+        <v>145.55000000000001</v>
       </c>
       <c r="E32" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,E$3)</f>
-        <v>116.87</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G32,E$3)</f>
+        <v>146.77000000000001</v>
       </c>
       <c r="F32" s="2">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,F$3)</f>
-        <v>89945980</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G32,F$3)</f>
+        <v>104818578</v>
+      </c>
+      <c r="G32">
+        <v>-28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" t="str">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,A$3)</f>
-        <v>2020-10-20</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,G33,A$3)</f>
+        <v>2021-07-26</v>
       </c>
       <c r="B33" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,B$3)</f>
-        <v>116.2</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G33,B$3)</f>
+        <v>148.27000000000001</v>
       </c>
       <c r="C33" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,C$3)</f>
-        <v>118.98</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G33,C$3)</f>
+        <v>149.83000000000001</v>
       </c>
       <c r="D33" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,D$3)</f>
-        <v>115.63</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G33,D$3)</f>
+        <v>147.69999999999999</v>
       </c>
       <c r="E33" s="1">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,E$3)</f>
-        <v>117.51</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G33,E$3)</f>
+        <v>148.99</v>
       </c>
       <c r="F33" s="2">
-        <f>_xll.xlquoteHistoricalPrices(Symbol,ROW()-4,F$3)</f>
-        <v>124423728</v>
+        <f>_xll.xlquoteHistoricalPrices(Symbol,$G33,F$3)</f>
+        <v>72434089</v>
+      </c>
+      <c r="G33">
+        <v>-29</v>
       </c>
     </row>
   </sheetData>

--- a/Examples/Historical Prices.xlsx
+++ b/Examples/Historical Prices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\others\Data\XLQuote\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2776E4D-44EF-43AB-9208-1B77E0B8E789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD97C3CC-CE86-4A08-8CA7-3690BDD7F32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Date</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>Close</t>
-  </si>
-  <si>
-    <t>Adj Close</t>
   </si>
   <si>
     <t>Volume</t>
@@ -450,7 +447,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G255"/>
+  <dimension ref="A1:F255"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -458,16 +455,15 @@
   <cols>
     <col min="1" max="1" width="10.59765625" customWidth="1"/>
     <col min="2" max="5" width="8.86328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.86328125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="11.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -486,14 +482,11 @@
       <c r="F3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="3" cm="1">
-        <f t="array" ref="A4:G255">_xll.xlquoteOHLCV(Symbol)*1</f>
-        <v>44449</v>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" s="3" t="str" cm="1">
+        <f t="array" ref="A4:F255">_xll.xlquoteOHLCV(Symbol)</f>
+        <v>2021-09-10</v>
       </c>
       <c r="B4" s="1">
         <v>155</v>
@@ -507,16 +500,13 @@
       <c r="E4" s="1">
         <v>148.970001</v>
       </c>
-      <c r="F4" s="1">
-        <v>148.970001</v>
-      </c>
-      <c r="G4" s="2">
+      <c r="F4" s="2">
         <v>140646400</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" s="3">
-        <v>44448</v>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" s="3" t="str">
+        <v>2021-09-09</v>
       </c>
       <c r="B5" s="1">
         <v>155.490005</v>
@@ -530,16 +520,13 @@
       <c r="E5" s="1">
         <v>154.070007</v>
       </c>
-      <c r="F5" s="1">
-        <v>154.070007</v>
-      </c>
-      <c r="G5" s="2">
+      <c r="F5" s="2">
         <v>57305700</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" s="3">
-        <v>44447</v>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" s="3" t="str">
+        <v>2021-09-08</v>
       </c>
       <c r="B6" s="1">
         <v>156.979996</v>
@@ -553,16 +540,13 @@
       <c r="E6" s="1">
         <v>155.11000100000001</v>
       </c>
-      <c r="F6" s="1">
-        <v>155.11000100000001</v>
-      </c>
-      <c r="G6" s="2">
+      <c r="F6" s="2">
         <v>74420200</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" s="3">
-        <v>44446</v>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" s="3" t="str">
+        <v>2021-09-07</v>
       </c>
       <c r="B7" s="1">
         <v>154.970001</v>
@@ -576,16 +560,13 @@
       <c r="E7" s="1">
         <v>156.69000199999999</v>
       </c>
-      <c r="F7" s="1">
-        <v>156.69000199999999</v>
-      </c>
-      <c r="G7" s="2">
+      <c r="F7" s="2">
         <v>82278300</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8" s="3">
-        <v>44442</v>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" s="3" t="str">
+        <v>2021-09-03</v>
       </c>
       <c r="B8" s="1">
         <v>153.759995</v>
@@ -599,16 +580,13 @@
       <c r="E8" s="1">
         <v>154.300003</v>
       </c>
-      <c r="F8" s="1">
-        <v>154.300003</v>
-      </c>
-      <c r="G8" s="2">
+      <c r="F8" s="2">
         <v>57808700</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" s="3">
-        <v>44441</v>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" s="3" t="str">
+        <v>2021-09-02</v>
       </c>
       <c r="B9" s="1">
         <v>153.86999499999999</v>
@@ -622,16 +600,13 @@
       <c r="E9" s="1">
         <v>153.64999399999999</v>
       </c>
-      <c r="F9" s="1">
-        <v>153.64999399999999</v>
-      </c>
-      <c r="G9" s="2">
+      <c r="F9" s="2">
         <v>71115500</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10" s="3">
-        <v>44440</v>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" s="3" t="str">
+        <v>2021-09-01</v>
       </c>
       <c r="B10" s="1">
         <v>152.83000200000001</v>
@@ -645,16 +620,13 @@
       <c r="E10" s="1">
         <v>152.509995</v>
       </c>
-      <c r="F10" s="1">
-        <v>152.509995</v>
-      </c>
-      <c r="G10" s="2">
+      <c r="F10" s="2">
         <v>80313700</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" s="3">
-        <v>44439</v>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" s="3" t="str">
+        <v>2021-08-31</v>
       </c>
       <c r="B11" s="1">
         <v>152.66000399999999</v>
@@ -668,16 +640,13 @@
       <c r="E11" s="1">
         <v>151.83000200000001</v>
       </c>
-      <c r="F11" s="1">
-        <v>151.83000200000001</v>
-      </c>
-      <c r="G11" s="2">
+      <c r="F11" s="2">
         <v>86453100</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" s="3">
-        <v>44438</v>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" s="3" t="str">
+        <v>2021-08-30</v>
       </c>
       <c r="B12" s="1">
         <v>149</v>
@@ -691,16 +660,13 @@
       <c r="E12" s="1">
         <v>153.11999499999999</v>
       </c>
-      <c r="F12" s="1">
-        <v>153.11999499999999</v>
-      </c>
-      <c r="G12" s="2">
+      <c r="F12" s="2">
         <v>90956700</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" s="3">
-        <v>44435</v>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" s="3" t="str">
+        <v>2021-08-27</v>
       </c>
       <c r="B13" s="1">
         <v>147.479996</v>
@@ -714,16 +680,13 @@
       <c r="E13" s="1">
         <v>148.60000600000001</v>
       </c>
-      <c r="F13" s="1">
-        <v>148.60000600000001</v>
-      </c>
-      <c r="G13" s="2">
+      <c r="F13" s="2">
         <v>55721500</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" s="3">
-        <v>44434</v>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14" s="3" t="str">
+        <v>2021-08-26</v>
       </c>
       <c r="B14" s="1">
         <v>148.35000600000001</v>
@@ -737,16 +700,13 @@
       <c r="E14" s="1">
         <v>147.53999300000001</v>
       </c>
-      <c r="F14" s="1">
-        <v>147.53999300000001</v>
-      </c>
-      <c r="G14" s="2">
+      <c r="F14" s="2">
         <v>48597200</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" s="3">
-        <v>44433</v>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15" s="3" t="str">
+        <v>2021-08-25</v>
       </c>
       <c r="B15" s="1">
         <v>149.80999800000001</v>
@@ -760,16 +720,13 @@
       <c r="E15" s="1">
         <v>148.36000100000001</v>
       </c>
-      <c r="F15" s="1">
-        <v>148.36000100000001</v>
-      </c>
-      <c r="G15" s="2">
+      <c r="F15" s="2">
         <v>58991300</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16" s="3">
-        <v>44432</v>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16" s="3" t="str">
+        <v>2021-08-24</v>
       </c>
       <c r="B16" s="1">
         <v>149.449997</v>
@@ -783,16 +740,13 @@
       <c r="E16" s="1">
         <v>149.61999499999999</v>
       </c>
-      <c r="F16" s="1">
-        <v>149.61999499999999</v>
-      </c>
-      <c r="G16" s="2">
+      <c r="F16" s="2">
         <v>48606400</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A17" s="3">
-        <v>44431</v>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17" s="3" t="str">
+        <v>2021-08-23</v>
       </c>
       <c r="B17" s="1">
         <v>148.30999800000001</v>
@@ -806,16 +760,13 @@
       <c r="E17" s="1">
         <v>149.71000699999999</v>
       </c>
-      <c r="F17" s="1">
-        <v>149.71000699999999</v>
-      </c>
-      <c r="G17" s="2">
+      <c r="F17" s="2">
         <v>60131800</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A18" s="3">
-        <v>44428</v>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A18" s="3" t="str">
+        <v>2021-08-20</v>
       </c>
       <c r="B18" s="1">
         <v>147.44000199999999</v>
@@ -829,16 +780,13 @@
       <c r="E18" s="1">
         <v>148.19000199999999</v>
       </c>
-      <c r="F18" s="1">
-        <v>148.19000199999999</v>
-      </c>
-      <c r="G18" s="2">
+      <c r="F18" s="2">
         <v>59947400</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A19" s="3">
-        <v>44427</v>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A19" s="3" t="str">
+        <v>2021-08-19</v>
       </c>
       <c r="B19" s="1">
         <v>145.029999</v>
@@ -852,16 +800,13 @@
       <c r="E19" s="1">
         <v>146.699997</v>
       </c>
-      <c r="F19" s="1">
-        <v>146.699997</v>
-      </c>
-      <c r="G19" s="2">
+      <c r="F19" s="2">
         <v>86960300</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A20" s="3">
-        <v>44426</v>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A20" s="3" t="str">
+        <v>2021-08-18</v>
       </c>
       <c r="B20" s="1">
         <v>149.800003</v>
@@ -875,16 +820,13 @@
       <c r="E20" s="1">
         <v>146.36000100000001</v>
       </c>
-      <c r="F20" s="1">
-        <v>146.36000100000001</v>
-      </c>
-      <c r="G20" s="2">
+      <c r="F20" s="2">
         <v>86326000</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A21" s="3">
-        <v>44425</v>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A21" s="3" t="str">
+        <v>2021-08-17</v>
       </c>
       <c r="B21" s="1">
         <v>150.229996</v>
@@ -898,16 +840,13 @@
       <c r="E21" s="1">
         <v>150.19000199999999</v>
       </c>
-      <c r="F21" s="1">
-        <v>150.19000199999999</v>
-      </c>
-      <c r="G21" s="2">
+      <c r="F21" s="2">
         <v>92229700</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A22" s="3">
-        <v>44424</v>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A22" s="3" t="str">
+        <v>2021-08-16</v>
       </c>
       <c r="B22" s="1">
         <v>148.53999300000001</v>
@@ -921,16 +860,13 @@
       <c r="E22" s="1">
         <v>151.11999499999999</v>
       </c>
-      <c r="F22" s="1">
-        <v>151.11999499999999</v>
-      </c>
-      <c r="G22" s="2">
+      <c r="F22" s="2">
         <v>103296000</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A23" s="3">
-        <v>44421</v>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A23" s="3" t="str">
+        <v>2021-08-13</v>
       </c>
       <c r="B23" s="1">
         <v>148.970001</v>
@@ -944,16 +880,13 @@
       <c r="E23" s="1">
         <v>149.10000600000001</v>
       </c>
-      <c r="F23" s="1">
-        <v>149.10000600000001</v>
-      </c>
-      <c r="G23" s="2">
+      <c r="F23" s="2">
         <v>59318800</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A24" s="3">
-        <v>44420</v>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A24" s="3" t="str">
+        <v>2021-08-12</v>
       </c>
       <c r="B24" s="1">
         <v>146.19000199999999</v>
@@ -967,16 +900,13 @@
       <c r="E24" s="1">
         <v>148.88999899999999</v>
       </c>
-      <c r="F24" s="1">
-        <v>148.88999899999999</v>
-      </c>
-      <c r="G24" s="2">
+      <c r="F24" s="2">
         <v>72282600</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A25" s="3">
-        <v>44419</v>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A25" s="3" t="str">
+        <v>2021-08-11</v>
       </c>
       <c r="B25" s="1">
         <v>146.050003</v>
@@ -990,16 +920,13 @@
       <c r="E25" s="1">
         <v>145.86000100000001</v>
       </c>
-      <c r="F25" s="1">
-        <v>145.86000100000001</v>
-      </c>
-      <c r="G25" s="2">
+      <c r="F25" s="2">
         <v>48493500</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A26" s="3">
-        <v>44418</v>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A26" s="3" t="str">
+        <v>2021-08-10</v>
       </c>
       <c r="B26" s="1">
         <v>146.44000199999999</v>
@@ -1013,16 +940,13 @@
       <c r="E26" s="1">
         <v>145.60000600000001</v>
       </c>
-      <c r="F26" s="1">
-        <v>145.60000600000001</v>
-      </c>
-      <c r="G26" s="2">
+      <c r="F26" s="2">
         <v>69023100</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A27" s="3">
-        <v>44417</v>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A27" s="3" t="str">
+        <v>2021-08-09</v>
       </c>
       <c r="B27" s="1">
         <v>146.199997</v>
@@ -1036,16 +960,13 @@
       <c r="E27" s="1">
         <v>146.08999600000001</v>
       </c>
-      <c r="F27" s="1">
-        <v>146.08999600000001</v>
-      </c>
-      <c r="G27" s="2">
+      <c r="F27" s="2">
         <v>48908700</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A28" s="3">
-        <v>44414</v>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A28" s="3" t="str">
+        <v>2021-08-06</v>
       </c>
       <c r="B28" s="1">
         <v>146.35000600000001</v>
@@ -1059,16 +980,13 @@
       <c r="E28" s="1">
         <v>146.13999899999999</v>
       </c>
-      <c r="F28" s="1">
-        <v>146.13999899999999</v>
-      </c>
-      <c r="G28" s="2">
+      <c r="F28" s="2">
         <v>54067400</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A29" s="3">
-        <v>44413</v>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A29" s="3" t="str">
+        <v>2021-08-05</v>
       </c>
       <c r="B29" s="1">
         <v>146.979996</v>
@@ -1082,16 +1000,13 @@
       <c r="E29" s="1">
         <v>147.05999800000001</v>
       </c>
-      <c r="F29" s="1">
-        <v>146.83999600000001</v>
-      </c>
-      <c r="G29" s="2">
+      <c r="F29" s="2">
         <v>46397700</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A30" s="3">
-        <v>44412</v>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A30" s="3" t="str">
+        <v>2021-08-04</v>
       </c>
       <c r="B30" s="1">
         <v>147.270004</v>
@@ -1105,16 +1020,13 @@
       <c r="E30" s="1">
         <v>146.949997</v>
       </c>
-      <c r="F30" s="1">
-        <v>146.730164</v>
-      </c>
-      <c r="G30" s="2">
+      <c r="F30" s="2">
         <v>56368300</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A31" s="3">
-        <v>44411</v>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A31" s="3" t="str">
+        <v>2021-08-03</v>
       </c>
       <c r="B31" s="1">
         <v>145.80999800000001</v>
@@ -1128,16 +1040,13 @@
       <c r="E31" s="1">
         <v>147.36000100000001</v>
       </c>
-      <c r="F31" s="1">
-        <v>147.13954200000001</v>
-      </c>
-      <c r="G31" s="2">
+      <c r="F31" s="2">
         <v>64786600</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A32" s="3">
-        <v>44410</v>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A32" s="3" t="str">
+        <v>2021-08-02</v>
       </c>
       <c r="B32" s="1">
         <v>146.36000100000001</v>
@@ -1151,16 +1060,13 @@
       <c r="E32" s="1">
         <v>145.520004</v>
       </c>
-      <c r="F32" s="1">
-        <v>145.30230700000001</v>
-      </c>
-      <c r="G32" s="2">
+      <c r="F32" s="2">
         <v>62880000</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A33" s="3">
-        <v>44407</v>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A33" s="3" t="str">
+        <v>2021-07-30</v>
       </c>
       <c r="B33" s="1">
         <v>144.38000500000001</v>
@@ -1174,16 +1080,13 @@
       <c r="E33" s="1">
         <v>145.86000100000001</v>
       </c>
-      <c r="F33" s="1">
-        <v>145.641785</v>
-      </c>
-      <c r="G33" s="2">
+      <c r="F33" s="2">
         <v>70382000</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A34" s="3">
-        <v>44406</v>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A34" s="3" t="str">
+        <v>2021-07-29</v>
       </c>
       <c r="B34" s="1">
         <v>144.69000199999999</v>
@@ -1197,16 +1100,13 @@
       <c r="E34" s="1">
         <v>145.63999899999999</v>
       </c>
-      <c r="F34" s="1">
-        <v>145.42211900000001</v>
-      </c>
-      <c r="G34" s="2">
+      <c r="F34" s="2">
         <v>56699500</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A35" s="3">
-        <v>44405</v>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A35" s="3" t="str">
+        <v>2021-07-28</v>
       </c>
       <c r="B35" s="1">
         <v>144.80999800000001</v>
@@ -1220,16 +1120,13 @@
       <c r="E35" s="1">
         <v>144.979996</v>
       </c>
-      <c r="F35" s="1">
-        <v>144.76310699999999</v>
-      </c>
-      <c r="G35" s="2">
+      <c r="F35" s="2">
         <v>118931200</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A36" s="3">
-        <v>44404</v>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A36" s="3" t="str">
+        <v>2021-07-27</v>
       </c>
       <c r="B36" s="1">
         <v>149.11999499999999</v>
@@ -1243,16 +1140,13 @@
       <c r="E36" s="1">
         <v>146.770004</v>
       </c>
-      <c r="F36" s="1">
-        <v>146.55043000000001</v>
-      </c>
-      <c r="G36" s="2">
+      <c r="F36" s="2">
         <v>104818600</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A37" s="3">
-        <v>44403</v>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A37" s="3" t="str">
+        <v>2021-07-26</v>
       </c>
       <c r="B37" s="1">
         <v>148.270004</v>
@@ -1266,16 +1160,13 @@
       <c r="E37" s="1">
         <v>148.990005</v>
       </c>
-      <c r="F37" s="1">
-        <v>148.76712000000001</v>
-      </c>
-      <c r="G37" s="2">
+      <c r="F37" s="2">
         <v>72434100</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A38" s="3">
-        <v>44400</v>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A38" s="3" t="str">
+        <v>2021-07-23</v>
       </c>
       <c r="B38" s="1">
         <v>147.550003</v>
@@ -1289,16 +1180,13 @@
       <c r="E38" s="1">
         <v>148.55999800000001</v>
       </c>
-      <c r="F38" s="1">
-        <v>148.33775299999999</v>
-      </c>
-      <c r="G38" s="2">
+      <c r="F38" s="2">
         <v>71447400</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A39" s="3">
-        <v>44399</v>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A39" s="3" t="str">
+        <v>2021-07-22</v>
       </c>
       <c r="B39" s="1">
         <v>145.94000199999999</v>
@@ -1312,16 +1200,13 @@
       <c r="E39" s="1">
         <v>146.800003</v>
       </c>
-      <c r="F39" s="1">
-        <v>146.58038300000001</v>
-      </c>
-      <c r="G39" s="2">
+      <c r="F39" s="2">
         <v>77338200</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A40" s="3">
-        <v>44398</v>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A40" s="3" t="str">
+        <v>2021-07-21</v>
       </c>
       <c r="B40" s="1">
         <v>145.529999</v>
@@ -1335,16 +1220,13 @@
       <c r="E40" s="1">
         <v>145.39999399999999</v>
       </c>
-      <c r="F40" s="1">
-        <v>145.18248</v>
-      </c>
-      <c r="G40" s="2">
+      <c r="F40" s="2">
         <v>74993500</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A41" s="3">
-        <v>44397</v>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A41" s="3" t="str">
+        <v>2021-07-20</v>
       </c>
       <c r="B41" s="1">
         <v>143.46000699999999</v>
@@ -1358,16 +1240,13 @@
       <c r="E41" s="1">
         <v>146.14999399999999</v>
       </c>
-      <c r="F41" s="1">
-        <v>145.93135100000001</v>
-      </c>
-      <c r="G41" s="2">
+      <c r="F41" s="2">
         <v>96350000</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A42" s="3">
-        <v>44396</v>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A42" s="3" t="str">
+        <v>2021-07-19</v>
       </c>
       <c r="B42" s="1">
         <v>143.75</v>
@@ -1381,16 +1260,13 @@
       <c r="E42" s="1">
         <v>142.449997</v>
       </c>
-      <c r="F42" s="1">
-        <v>142.23689300000001</v>
-      </c>
-      <c r="G42" s="2">
+      <c r="F42" s="2">
         <v>121434600</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A43" s="3">
-        <v>44393</v>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A43" s="3" t="str">
+        <v>2021-07-16</v>
       </c>
       <c r="B43" s="1">
         <v>148.46000699999999</v>
@@ -1404,16 +1280,13 @@
       <c r="E43" s="1">
         <v>146.38999899999999</v>
       </c>
-      <c r="F43" s="1">
-        <v>146.17098999999999</v>
-      </c>
-      <c r="G43" s="2">
+      <c r="F43" s="2">
         <v>93251400</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A44" s="3">
-        <v>44392</v>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A44" s="3" t="str">
+        <v>2021-07-15</v>
       </c>
       <c r="B44" s="1">
         <v>149.240005</v>
@@ -1427,16 +1300,13 @@
       <c r="E44" s="1">
         <v>148.479996</v>
       </c>
-      <c r="F44" s="1">
-        <v>148.25787399999999</v>
-      </c>
-      <c r="G44" s="2">
+      <c r="F44" s="2">
         <v>106820300</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A45" s="3">
-        <v>44391</v>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A45" s="3" t="str">
+        <v>2021-07-14</v>
       </c>
       <c r="B45" s="1">
         <v>148.10000600000001</v>
@@ -1450,16 +1320,13 @@
       <c r="E45" s="1">
         <v>149.14999399999999</v>
       </c>
-      <c r="F45" s="1">
-        <v>148.92686499999999</v>
-      </c>
-      <c r="G45" s="2">
+      <c r="F45" s="2">
         <v>127050800</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A46" s="3">
-        <v>44390</v>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A46" s="3" t="str">
+        <v>2021-07-13</v>
       </c>
       <c r="B46" s="1">
         <v>144.029999</v>
@@ -1473,16 +1340,13 @@
       <c r="E46" s="1">
         <v>145.63999899999999</v>
       </c>
-      <c r="F46" s="1">
-        <v>145.42211900000001</v>
-      </c>
-      <c r="G46" s="2">
+      <c r="F46" s="2">
         <v>100827100</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A47" s="3">
-        <v>44389</v>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A47" s="3" t="str">
+        <v>2021-07-12</v>
       </c>
       <c r="B47" s="1">
         <v>146.21000699999999</v>
@@ -1496,16 +1360,13 @@
       <c r="E47" s="1">
         <v>144.5</v>
       </c>
-      <c r="F47" s="1">
-        <v>144.283829</v>
-      </c>
-      <c r="G47" s="2">
+      <c r="F47" s="2">
         <v>76299700</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A48" s="3">
-        <v>44386</v>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A48" s="3" t="str">
+        <v>2021-07-09</v>
       </c>
       <c r="B48" s="1">
         <v>142.75</v>
@@ -1519,16 +1380,13 @@
       <c r="E48" s="1">
         <v>145.11000100000001</v>
       </c>
-      <c r="F48" s="1">
-        <v>144.89291399999999</v>
-      </c>
-      <c r="G48" s="2">
+      <c r="F48" s="2">
         <v>99890800</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A49" s="3">
-        <v>44385</v>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A49" s="3" t="str">
+        <v>2021-07-08</v>
       </c>
       <c r="B49" s="1">
         <v>141.58000200000001</v>
@@ -1542,16 +1400,13 @@
       <c r="E49" s="1">
         <v>143.240005</v>
       </c>
-      <c r="F49" s="1">
-        <v>143.025711</v>
-      </c>
-      <c r="G49" s="2">
+      <c r="F49" s="2">
         <v>105575500</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A50" s="3">
-        <v>44384</v>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A50" s="3" t="str">
+        <v>2021-07-07</v>
       </c>
       <c r="B50" s="1">
         <v>143.53999300000001</v>
@@ -1565,16 +1420,13 @@
       <c r="E50" s="1">
         <v>144.570007</v>
       </c>
-      <c r="F50" s="1">
-        <v>144.35372899999999</v>
-      </c>
-      <c r="G50" s="2">
+      <c r="F50" s="2">
         <v>104911600</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A51" s="3">
-        <v>44383</v>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A51" s="3" t="str">
+        <v>2021-07-06</v>
       </c>
       <c r="B51" s="1">
         <v>140.070007</v>
@@ -1588,16 +1440,13 @@
       <c r="E51" s="1">
         <v>142.020004</v>
       </c>
-      <c r="F51" s="1">
-        <v>141.80754099999999</v>
-      </c>
-      <c r="G51" s="2">
+      <c r="F51" s="2">
         <v>108181800</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A52" s="3">
-        <v>44379</v>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A52" s="3" t="str">
+        <v>2021-07-02</v>
       </c>
       <c r="B52" s="1">
         <v>137.89999399999999</v>
@@ -1611,16 +1460,13 @@
       <c r="E52" s="1">
         <v>139.96000699999999</v>
       </c>
-      <c r="F52" s="1">
-        <v>139.75062600000001</v>
-      </c>
-      <c r="G52" s="2">
+      <c r="F52" s="2">
         <v>78852600</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A53" s="3">
-        <v>44378</v>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A53" s="3" t="str">
+        <v>2021-07-01</v>
       </c>
       <c r="B53" s="1">
         <v>136.60000600000001</v>
@@ -1634,16 +1480,13 @@
       <c r="E53" s="1">
         <v>137.270004</v>
       </c>
-      <c r="F53" s="1">
-        <v>137.064651</v>
-      </c>
-      <c r="G53" s="2">
+      <c r="F53" s="2">
         <v>52485800</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A54" s="3">
-        <v>44377</v>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A54" s="3" t="str">
+        <v>2021-06-30</v>
       </c>
       <c r="B54" s="1">
         <v>136.16999799999999</v>
@@ -1657,16 +1500,13 @@
       <c r="E54" s="1">
         <v>136.96000699999999</v>
       </c>
-      <c r="F54" s="1">
-        <v>136.755112</v>
-      </c>
-      <c r="G54" s="2">
+      <c r="F54" s="2">
         <v>63261400</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A55" s="3">
-        <v>44376</v>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A55" s="3" t="str">
+        <v>2021-06-29</v>
       </c>
       <c r="B55" s="1">
         <v>134.800003</v>
@@ -1680,16 +1520,13 @@
       <c r="E55" s="1">
         <v>136.33000200000001</v>
       </c>
-      <c r="F55" s="1">
-        <v>136.12605300000001</v>
-      </c>
-      <c r="G55" s="2">
+      <c r="F55" s="2">
         <v>64556100</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A56" s="3">
-        <v>44375</v>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A56" s="3" t="str">
+        <v>2021-06-28</v>
       </c>
       <c r="B56" s="1">
         <v>133.41000399999999</v>
@@ -1703,16 +1540,13 @@
       <c r="E56" s="1">
         <v>134.779999</v>
       </c>
-      <c r="F56" s="1">
-        <v>134.57836900000001</v>
-      </c>
-      <c r="G56" s="2">
+      <c r="F56" s="2">
         <v>62111300</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A57" s="3">
-        <v>44372</v>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A57" s="3" t="str">
+        <v>2021-06-25</v>
       </c>
       <c r="B57" s="1">
         <v>133.46000699999999</v>
@@ -1726,16 +1560,13 @@
       <c r="E57" s="1">
         <v>133.11000100000001</v>
       </c>
-      <c r="F57" s="1">
-        <v>132.91087300000001</v>
-      </c>
-      <c r="G57" s="2">
+      <c r="F57" s="2">
         <v>70783700</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A58" s="3">
-        <v>44371</v>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A58" s="3" t="str">
+        <v>2021-06-24</v>
       </c>
       <c r="B58" s="1">
         <v>134.449997</v>
@@ -1749,16 +1580,13 @@
       <c r="E58" s="1">
         <v>133.41000399999999</v>
       </c>
-      <c r="F58" s="1">
-        <v>133.210419</v>
-      </c>
-      <c r="G58" s="2">
+      <c r="F58" s="2">
         <v>68711000</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A59" s="3">
-        <v>44370</v>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A59" s="3" t="str">
+        <v>2021-06-23</v>
       </c>
       <c r="B59" s="1">
         <v>133.770004</v>
@@ -1772,16 +1600,13 @@
       <c r="E59" s="1">
         <v>133.699997</v>
       </c>
-      <c r="F59" s="1">
-        <v>133.49998500000001</v>
-      </c>
-      <c r="G59" s="2">
+      <c r="F59" s="2">
         <v>60214200</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A60" s="3">
-        <v>44369</v>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A60" s="3" t="str">
+        <v>2021-06-22</v>
       </c>
       <c r="B60" s="1">
         <v>132.13000500000001</v>
@@ -1795,16 +1620,13 @@
       <c r="E60" s="1">
         <v>133.979996</v>
       </c>
-      <c r="F60" s="1">
-        <v>133.77955600000001</v>
-      </c>
-      <c r="G60" s="2">
+      <c r="F60" s="2">
         <v>74783600</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A61" s="3">
-        <v>44368</v>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A61" s="3" t="str">
+        <v>2021-06-21</v>
       </c>
       <c r="B61" s="1">
         <v>130.300003</v>
@@ -1818,16 +1640,13 @@
       <c r="E61" s="1">
         <v>132.300003</v>
       </c>
-      <c r="F61" s="1">
-        <v>132.102081</v>
-      </c>
-      <c r="G61" s="2">
+      <c r="F61" s="2">
         <v>79663300</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A62" s="3">
-        <v>44365</v>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A62" s="3" t="str">
+        <v>2021-06-18</v>
       </c>
       <c r="B62" s="1">
         <v>130.71000699999999</v>
@@ -1841,16 +1660,13 @@
       <c r="E62" s="1">
         <v>130.46000699999999</v>
       </c>
-      <c r="F62" s="1">
-        <v>130.26483200000001</v>
-      </c>
-      <c r="G62" s="2">
+      <c r="F62" s="2">
         <v>108953300</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A63" s="3">
-        <v>44364</v>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A63" s="3" t="str">
+        <v>2021-06-17</v>
       </c>
       <c r="B63" s="1">
         <v>129.800003</v>
@@ -1864,16 +1680,13 @@
       <c r="E63" s="1">
         <v>131.78999300000001</v>
       </c>
-      <c r="F63" s="1">
-        <v>131.59283400000001</v>
-      </c>
-      <c r="G63" s="2">
+      <c r="F63" s="2">
         <v>96721700</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A64" s="3">
-        <v>44363</v>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A64" s="3" t="str">
+        <v>2021-06-16</v>
       </c>
       <c r="B64" s="1">
         <v>130.36999499999999</v>
@@ -1887,16 +1700,13 @@
       <c r="E64" s="1">
         <v>130.14999399999999</v>
       </c>
-      <c r="F64" s="1">
-        <v>129.95529199999999</v>
-      </c>
-      <c r="G64" s="2">
+      <c r="F64" s="2">
         <v>91815000</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A65" s="3">
-        <v>44362</v>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A65" s="3" t="str">
+        <v>2021-06-15</v>
       </c>
       <c r="B65" s="1">
         <v>129.94000199999999</v>
@@ -1910,16 +1720,13 @@
       <c r="E65" s="1">
         <v>129.63999899999999</v>
       </c>
-      <c r="F65" s="1">
-        <v>129.44605999999999</v>
-      </c>
-      <c r="G65" s="2">
+      <c r="F65" s="2">
         <v>62746300</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A66" s="3">
-        <v>44361</v>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A66" s="3" t="str">
+        <v>2021-06-14</v>
       </c>
       <c r="B66" s="1">
         <v>127.82</v>
@@ -1933,16 +1740,13 @@
       <c r="E66" s="1">
         <v>130.479996</v>
       </c>
-      <c r="F66" s="1">
-        <v>130.28478999999999</v>
-      </c>
-      <c r="G66" s="2">
+      <c r="F66" s="2">
         <v>96906500</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A67" s="3">
-        <v>44358</v>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A67" s="3" t="str">
+        <v>2021-06-11</v>
       </c>
       <c r="B67" s="1">
         <v>126.529999</v>
@@ -1956,16 +1760,13 @@
       <c r="E67" s="1">
         <v>127.349998</v>
       </c>
-      <c r="F67" s="1">
-        <v>127.159477</v>
-      </c>
-      <c r="G67" s="2">
+      <c r="F67" s="2">
         <v>53522400</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A68" s="3">
-        <v>44357</v>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A68" s="3" t="str">
+        <v>2021-06-10</v>
       </c>
       <c r="B68" s="1">
         <v>127.019997</v>
@@ -1979,16 +1780,13 @@
       <c r="E68" s="1">
         <v>126.110001</v>
       </c>
-      <c r="F68" s="1">
-        <v>125.921341</v>
-      </c>
-      <c r="G68" s="2">
+      <c r="F68" s="2">
         <v>71186400</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A69" s="3">
-        <v>44356</v>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A69" s="3" t="str">
+        <v>2021-06-09</v>
       </c>
       <c r="B69" s="1">
         <v>127.209999</v>
@@ -2002,16 +1800,13 @@
       <c r="E69" s="1">
         <v>127.129997</v>
       </c>
-      <c r="F69" s="1">
-        <v>126.939812</v>
-      </c>
-      <c r="G69" s="2">
+      <c r="F69" s="2">
         <v>56877900</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A70" s="3">
-        <v>44355</v>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A70" s="3" t="str">
+        <v>2021-06-08</v>
       </c>
       <c r="B70" s="1">
         <v>126.599998</v>
@@ -2025,16 +1820,13 @@
       <c r="E70" s="1">
         <v>126.739998</v>
       </c>
-      <c r="F70" s="1">
-        <v>126.550392</v>
-      </c>
-      <c r="G70" s="2">
+      <c r="F70" s="2">
         <v>74403800</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A71" s="3">
-        <v>44354</v>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A71" s="3" t="str">
+        <v>2021-06-07</v>
       </c>
       <c r="B71" s="1">
         <v>126.16999800000001</v>
@@ -2048,16 +1840,13 @@
       <c r="E71" s="1">
         <v>125.900002</v>
       </c>
-      <c r="F71" s="1">
-        <v>125.71165499999999</v>
-      </c>
-      <c r="G71" s="2">
+      <c r="F71" s="2">
         <v>71057600</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A72" s="3">
-        <v>44351</v>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A72" s="3" t="str">
+        <v>2021-06-04</v>
       </c>
       <c r="B72" s="1">
         <v>124.07</v>
@@ -2071,16 +1860,13 @@
       <c r="E72" s="1">
         <v>125.889999</v>
       </c>
-      <c r="F72" s="1">
-        <v>125.701668</v>
-      </c>
-      <c r="G72" s="2">
+      <c r="F72" s="2">
         <v>75169300</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A73" s="3">
-        <v>44350</v>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A73" s="3" t="str">
+        <v>2021-06-03</v>
       </c>
       <c r="B73" s="1">
         <v>124.68</v>
@@ -2094,16 +1880,13 @@
       <c r="E73" s="1">
         <v>123.540001</v>
       </c>
-      <c r="F73" s="1">
-        <v>123.355186</v>
-      </c>
-      <c r="G73" s="2">
+      <c r="F73" s="2">
         <v>76229200</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A74" s="3">
-        <v>44349</v>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A74" s="3" t="str">
+        <v>2021-06-02</v>
       </c>
       <c r="B74" s="1">
         <v>124.279999</v>
@@ -2117,16 +1900,13 @@
       <c r="E74" s="1">
         <v>125.05999799999999</v>
       </c>
-      <c r="F74" s="1">
-        <v>124.872902</v>
-      </c>
-      <c r="G74" s="2">
+      <c r="F74" s="2">
         <v>59278900</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A75" s="3">
-        <v>44348</v>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A75" s="3" t="str">
+        <v>2021-06-01</v>
       </c>
       <c r="B75" s="1">
         <v>125.08000199999999</v>
@@ -2140,16 +1920,13 @@
       <c r="E75" s="1">
         <v>124.279999</v>
       </c>
-      <c r="F75" s="1">
-        <v>124.09407</v>
-      </c>
-      <c r="G75" s="2">
+      <c r="F75" s="2">
         <v>67637100</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A76" s="3">
-        <v>44344</v>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A76" s="3" t="str">
+        <v>2021-05-28</v>
       </c>
       <c r="B76" s="1">
         <v>125.57</v>
@@ -2163,16 +1940,13 @@
       <c r="E76" s="1">
         <v>124.610001</v>
       </c>
-      <c r="F76" s="1">
-        <v>124.42358400000001</v>
-      </c>
-      <c r="G76" s="2">
+      <c r="F76" s="2">
         <v>71311100</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A77" s="3">
-        <v>44343</v>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A77" s="3" t="str">
+        <v>2021-05-27</v>
       </c>
       <c r="B77" s="1">
         <v>126.44000200000001</v>
@@ -2186,16 +1960,13 @@
       <c r="E77" s="1">
         <v>125.279999</v>
       </c>
-      <c r="F77" s="1">
-        <v>125.092575</v>
-      </c>
-      <c r="G77" s="2">
+      <c r="F77" s="2">
         <v>94625600</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A78" s="3">
-        <v>44342</v>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A78" s="3" t="str">
+        <v>2021-05-26</v>
       </c>
       <c r="B78" s="1">
         <v>126.959999</v>
@@ -2209,16 +1980,13 @@
       <c r="E78" s="1">
         <v>126.849998</v>
       </c>
-      <c r="F78" s="1">
-        <v>126.660225</v>
-      </c>
-      <c r="G78" s="2">
+      <c r="F78" s="2">
         <v>56575900</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A79" s="3">
-        <v>44341</v>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A79" s="3" t="str">
+        <v>2021-05-25</v>
       </c>
       <c r="B79" s="1">
         <v>127.82</v>
@@ -2232,16 +2000,13 @@
       <c r="E79" s="1">
         <v>126.900002</v>
       </c>
-      <c r="F79" s="1">
-        <v>126.710159</v>
-      </c>
-      <c r="G79" s="2">
+      <c r="F79" s="2">
         <v>72009500</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A80" s="3">
-        <v>44340</v>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A80" s="3" t="str">
+        <v>2021-05-24</v>
       </c>
       <c r="B80" s="1">
         <v>126.010002</v>
@@ -2255,16 +2020,13 @@
       <c r="E80" s="1">
         <v>127.099998</v>
       </c>
-      <c r="F80" s="1">
-        <v>126.909851</v>
-      </c>
-      <c r="G80" s="2">
+      <c r="F80" s="2">
         <v>63092900</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A81" s="3">
-        <v>44337</v>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A81" s="3" t="str">
+        <v>2021-05-21</v>
       </c>
       <c r="B81" s="1">
         <v>127.82</v>
@@ -2278,16 +2040,13 @@
       <c r="E81" s="1">
         <v>125.43</v>
       </c>
-      <c r="F81" s="1">
-        <v>125.242355</v>
-      </c>
-      <c r="G81" s="2">
+      <c r="F81" s="2">
         <v>79295400</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A82" s="3">
-        <v>44336</v>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A82" s="3" t="str">
+        <v>2021-05-20</v>
       </c>
       <c r="B82" s="1">
         <v>125.230003</v>
@@ -2301,16 +2060,13 @@
       <c r="E82" s="1">
         <v>127.30999799999999</v>
       </c>
-      <c r="F82" s="1">
-        <v>127.11953699999999</v>
-      </c>
-      <c r="G82" s="2">
+      <c r="F82" s="2">
         <v>76857100</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A83" s="3">
-        <v>44335</v>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A83" s="3" t="str">
+        <v>2021-05-19</v>
       </c>
       <c r="B83" s="1">
         <v>123.160004</v>
@@ -2324,16 +2080,13 @@
       <c r="E83" s="1">
         <v>124.69000200000001</v>
       </c>
-      <c r="F83" s="1">
-        <v>124.50346399999999</v>
-      </c>
-      <c r="G83" s="2">
+      <c r="F83" s="2">
         <v>92612000</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A84" s="3">
-        <v>44334</v>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A84" s="3" t="str">
+        <v>2021-05-18</v>
       </c>
       <c r="B84" s="1">
         <v>126.55999799999999</v>
@@ -2347,16 +2100,13 @@
       <c r="E84" s="1">
         <v>124.849998</v>
       </c>
-      <c r="F84" s="1">
-        <v>124.663223</v>
-      </c>
-      <c r="G84" s="2">
+      <c r="F84" s="2">
         <v>63342900</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A85" s="3">
-        <v>44333</v>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A85" s="3" t="str">
+        <v>2021-05-17</v>
       </c>
       <c r="B85" s="1">
         <v>126.82</v>
@@ -2370,16 +2120,13 @@
       <c r="E85" s="1">
         <v>126.269997</v>
       </c>
-      <c r="F85" s="1">
-        <v>126.081093</v>
-      </c>
-      <c r="G85" s="2">
+      <c r="F85" s="2">
         <v>74244600</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A86" s="3">
-        <v>44330</v>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A86" s="3" t="str">
+        <v>2021-05-14</v>
       </c>
       <c r="B86" s="1">
         <v>126.25</v>
@@ -2393,16 +2140,13 @@
       <c r="E86" s="1">
         <v>127.449997</v>
       </c>
-      <c r="F86" s="1">
-        <v>127.259331</v>
-      </c>
-      <c r="G86" s="2">
+      <c r="F86" s="2">
         <v>81918000</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A87" s="3">
-        <v>44329</v>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A87" s="3" t="str">
+        <v>2021-05-13</v>
       </c>
       <c r="B87" s="1">
         <v>124.58000199999999</v>
@@ -2416,16 +2160,13 @@
       <c r="E87" s="1">
         <v>124.970001</v>
       </c>
-      <c r="F87" s="1">
-        <v>124.78304300000001</v>
-      </c>
-      <c r="G87" s="2">
+      <c r="F87" s="2">
         <v>105861300</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A88" s="3">
-        <v>44328</v>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A88" s="3" t="str">
+        <v>2021-05-12</v>
       </c>
       <c r="B88" s="1">
         <v>123.400002</v>
@@ -2439,16 +2180,13 @@
       <c r="E88" s="1">
         <v>122.769997</v>
       </c>
-      <c r="F88" s="1">
-        <v>122.58633399999999</v>
-      </c>
-      <c r="G88" s="2">
+      <c r="F88" s="2">
         <v>112172300</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A89" s="3">
-        <v>44327</v>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A89" s="3" t="str">
+        <v>2021-05-11</v>
       </c>
       <c r="B89" s="1">
         <v>123.5</v>
@@ -2462,16 +2200,13 @@
       <c r="E89" s="1">
         <v>125.910004</v>
       </c>
-      <c r="F89" s="1">
-        <v>125.721642</v>
-      </c>
-      <c r="G89" s="2">
+      <c r="F89" s="2">
         <v>126142800</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A90" s="3">
-        <v>44326</v>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A90" s="3" t="str">
+        <v>2021-05-10</v>
       </c>
       <c r="B90" s="1">
         <v>129.41000399999999</v>
@@ -2485,16 +2220,13 @@
       <c r="E90" s="1">
         <v>126.849998</v>
       </c>
-      <c r="F90" s="1">
-        <v>126.660225</v>
-      </c>
-      <c r="G90" s="2">
+      <c r="F90" s="2">
         <v>88071200</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A91" s="3">
-        <v>44323</v>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A91" s="3" t="str">
+        <v>2021-05-07</v>
       </c>
       <c r="B91" s="1">
         <v>130.85000600000001</v>
@@ -2508,16 +2240,13 @@
       <c r="E91" s="1">
         <v>130.21000699999999</v>
       </c>
-      <c r="F91" s="1">
-        <v>130.01521299999999</v>
-      </c>
-      <c r="G91" s="2">
+      <c r="F91" s="2">
         <v>78973300</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A92" s="3">
-        <v>44322</v>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A92" s="3" t="str">
+        <v>2021-05-06</v>
       </c>
       <c r="B92" s="1">
         <v>127.889999</v>
@@ -2531,16 +2260,13 @@
       <c r="E92" s="1">
         <v>129.740005</v>
       </c>
-      <c r="F92" s="1">
-        <v>129.326233</v>
-      </c>
-      <c r="G92" s="2">
+      <c r="F92" s="2">
         <v>78128300</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A93" s="3">
-        <v>44321</v>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A93" s="3" t="str">
+        <v>2021-05-05</v>
       </c>
       <c r="B93" s="1">
         <v>129.199997</v>
@@ -2554,16 +2280,13 @@
       <c r="E93" s="1">
         <v>128.10000600000001</v>
       </c>
-      <c r="F93" s="1">
-        <v>127.691475</v>
-      </c>
-      <c r="G93" s="2">
+      <c r="F93" s="2">
         <v>84000900</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A94" s="3">
-        <v>44320</v>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A94" s="3" t="str">
+        <v>2021-05-04</v>
       </c>
       <c r="B94" s="1">
         <v>131.19000199999999</v>
@@ -2577,16 +2300,13 @@
       <c r="E94" s="1">
         <v>127.849998</v>
       </c>
-      <c r="F94" s="1">
-        <v>127.442261</v>
-      </c>
-      <c r="G94" s="2">
+      <c r="F94" s="2">
         <v>137564700</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A95" s="3">
-        <v>44319</v>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A95" s="3" t="str">
+        <v>2021-05-03</v>
       </c>
       <c r="B95" s="1">
         <v>132.03999300000001</v>
@@ -2600,16 +2320,13 @@
       <c r="E95" s="1">
         <v>132.53999300000001</v>
       </c>
-      <c r="F95" s="1">
-        <v>132.11729399999999</v>
-      </c>
-      <c r="G95" s="2">
+      <c r="F95" s="2">
         <v>75135100</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A96" s="3">
-        <v>44316</v>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A96" s="3" t="str">
+        <v>2021-04-30</v>
       </c>
       <c r="B96" s="1">
         <v>131.779999</v>
@@ -2623,16 +2340,13 @@
       <c r="E96" s="1">
         <v>131.46000699999999</v>
       </c>
-      <c r="F96" s="1">
-        <v>131.04075599999999</v>
-      </c>
-      <c r="G96" s="2">
+      <c r="F96" s="2">
         <v>109839500</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A97" s="3">
-        <v>44315</v>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A97" s="3" t="str">
+        <v>2021-04-29</v>
       </c>
       <c r="B97" s="1">
         <v>136.470001</v>
@@ -2646,16 +2360,13 @@
       <c r="E97" s="1">
         <v>133.479996</v>
       </c>
-      <c r="F97" s="1">
-        <v>133.054306</v>
-      </c>
-      <c r="G97" s="2">
+      <c r="F97" s="2">
         <v>151101000</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A98" s="3">
-        <v>44314</v>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A98" s="3" t="str">
+        <v>2021-04-28</v>
       </c>
       <c r="B98" s="1">
         <v>134.30999800000001</v>
@@ -2669,16 +2380,13 @@
       <c r="E98" s="1">
         <v>133.58000200000001</v>
       </c>
-      <c r="F98" s="1">
-        <v>133.15399199999999</v>
-      </c>
-      <c r="G98" s="2">
+      <c r="F98" s="2">
         <v>107760100</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A99" s="3">
-        <v>44313</v>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A99" s="3" t="str">
+        <v>2021-04-27</v>
       </c>
       <c r="B99" s="1">
         <v>135.009995</v>
@@ -2692,16 +2400,13 @@
       <c r="E99" s="1">
         <v>134.38999899999999</v>
       </c>
-      <c r="F99" s="1">
-        <v>133.96139500000001</v>
-      </c>
-      <c r="G99" s="2">
+      <c r="F99" s="2">
         <v>66015800</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A100" s="3">
-        <v>44312</v>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A100" s="3" t="str">
+        <v>2021-04-26</v>
       </c>
       <c r="B100" s="1">
         <v>134.83000200000001</v>
@@ -2715,16 +2420,13 @@
       <c r="E100" s="1">
         <v>134.720001</v>
       </c>
-      <c r="F100" s="1">
-        <v>134.290359</v>
-      </c>
-      <c r="G100" s="2">
+      <c r="F100" s="2">
         <v>66905100</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A101" s="3">
-        <v>44309</v>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A101" s="3" t="str">
+        <v>2021-04-23</v>
       </c>
       <c r="B101" s="1">
         <v>132.16000399999999</v>
@@ -2738,16 +2440,13 @@
       <c r="E101" s="1">
         <v>134.320007</v>
       </c>
-      <c r="F101" s="1">
-        <v>133.89163199999999</v>
-      </c>
-      <c r="G101" s="2">
+      <c r="F101" s="2">
         <v>78657500</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A102" s="3">
-        <v>44308</v>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A102" s="3" t="str">
+        <v>2021-04-22</v>
       </c>
       <c r="B102" s="1">
         <v>133.03999300000001</v>
@@ -2761,16 +2460,13 @@
       <c r="E102" s="1">
         <v>131.94000199999999</v>
       </c>
-      <c r="F102" s="1">
-        <v>131.519226</v>
-      </c>
-      <c r="G102" s="2">
+      <c r="F102" s="2">
         <v>84566500</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A103" s="3">
-        <v>44307</v>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A103" s="3" t="str">
+        <v>2021-04-21</v>
       </c>
       <c r="B103" s="1">
         <v>132.36000100000001</v>
@@ -2784,16 +2480,13 @@
       <c r="E103" s="1">
         <v>133.5</v>
       </c>
-      <c r="F103" s="1">
-        <v>133.07423399999999</v>
-      </c>
-      <c r="G103" s="2">
+      <c r="F103" s="2">
         <v>68847100</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A104" s="3">
-        <v>44306</v>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A104" s="3" t="str">
+        <v>2021-04-20</v>
       </c>
       <c r="B104" s="1">
         <v>135.020004</v>
@@ -2807,16 +2500,13 @@
       <c r="E104" s="1">
         <v>133.11000100000001</v>
       </c>
-      <c r="F104" s="1">
-        <v>132.68550099999999</v>
-      </c>
-      <c r="G104" s="2">
+      <c r="F104" s="2">
         <v>94812300</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A105" s="3">
-        <v>44305</v>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A105" s="3" t="str">
+        <v>2021-04-19</v>
       </c>
       <c r="B105" s="1">
         <v>133.509995</v>
@@ -2830,16 +2520,13 @@
       <c r="E105" s="1">
         <v>134.83999600000001</v>
       </c>
-      <c r="F105" s="1">
-        <v>134.40995799999999</v>
-      </c>
-      <c r="G105" s="2">
+      <c r="F105" s="2">
         <v>94264200</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A106" s="3">
-        <v>44302</v>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A106" s="3" t="str">
+        <v>2021-04-16</v>
       </c>
       <c r="B106" s="1">
         <v>134.300003</v>
@@ -2853,16 +2540,13 @@
       <c r="E106" s="1">
         <v>134.16000399999999</v>
       </c>
-      <c r="F106" s="1">
-        <v>133.732147</v>
-      </c>
-      <c r="G106" s="2">
+      <c r="F106" s="2">
         <v>84922400</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A107" s="3">
-        <v>44301</v>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A107" s="3" t="str">
+        <v>2021-04-15</v>
       </c>
       <c r="B107" s="1">
         <v>133.820007</v>
@@ -2876,16 +2560,13 @@
       <c r="E107" s="1">
         <v>134.5</v>
       </c>
-      <c r="F107" s="1">
-        <v>134.07105999999999</v>
-      </c>
-      <c r="G107" s="2">
+      <c r="F107" s="2">
         <v>89347100</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A108" s="3">
-        <v>44300</v>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A108" s="3" t="str">
+        <v>2021-04-14</v>
       </c>
       <c r="B108" s="1">
         <v>134.94000199999999</v>
@@ -2899,16 +2580,13 @@
       <c r="E108" s="1">
         <v>132.029999</v>
       </c>
-      <c r="F108" s="1">
-        <v>131.60893200000001</v>
-      </c>
-      <c r="G108" s="2">
+      <c r="F108" s="2">
         <v>87222800</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A109" s="3">
-        <v>44299</v>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A109" s="3" t="str">
+        <v>2021-04-13</v>
       </c>
       <c r="B109" s="1">
         <v>132.44000199999999</v>
@@ -2922,16 +2600,13 @@
       <c r="E109" s="1">
         <v>134.429993</v>
       </c>
-      <c r="F109" s="1">
-        <v>134.00126599999999</v>
-      </c>
-      <c r="G109" s="2">
+      <c r="F109" s="2">
         <v>91266500</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A110" s="3">
-        <v>44298</v>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A110" s="3" t="str">
+        <v>2021-04-12</v>
       </c>
       <c r="B110" s="1">
         <v>132.520004</v>
@@ -2945,16 +2620,13 @@
       <c r="E110" s="1">
         <v>131.240005</v>
       </c>
-      <c r="F110" s="1">
-        <v>130.82145700000001</v>
-      </c>
-      <c r="G110" s="2">
+      <c r="F110" s="2">
         <v>91420000</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A111" s="3">
-        <v>44295</v>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A111" s="3" t="str">
+        <v>2021-04-09</v>
       </c>
       <c r="B111" s="1">
         <v>129.800003</v>
@@ -2968,16 +2640,13 @@
       <c r="E111" s="1">
         <v>133</v>
       </c>
-      <c r="F111" s="1">
-        <v>132.57583600000001</v>
-      </c>
-      <c r="G111" s="2">
+      <c r="F111" s="2">
         <v>106686700</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A112" s="3">
-        <v>44294</v>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A112" s="3" t="str">
+        <v>2021-04-08</v>
       </c>
       <c r="B112" s="1">
         <v>128.949997</v>
@@ -2991,16 +2660,13 @@
       <c r="E112" s="1">
         <v>130.36000100000001</v>
       </c>
-      <c r="F112" s="1">
-        <v>129.94426000000001</v>
-      </c>
-      <c r="G112" s="2">
+      <c r="F112" s="2">
         <v>88844600</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A113" s="3">
-        <v>44293</v>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A113" s="3" t="str">
+        <v>2021-04-07</v>
       </c>
       <c r="B113" s="1">
         <v>125.83000199999999</v>
@@ -3014,16 +2680,13 @@
       <c r="E113" s="1">
         <v>127.900002</v>
       </c>
-      <c r="F113" s="1">
-        <v>127.492104</v>
-      </c>
-      <c r="G113" s="2">
+      <c r="F113" s="2">
         <v>83466700</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A114" s="3">
-        <v>44292</v>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A114" s="3" t="str">
+        <v>2021-04-06</v>
       </c>
       <c r="B114" s="1">
         <v>126.5</v>
@@ -3037,16 +2700,13 @@
       <c r="E114" s="1">
         <v>126.209999</v>
       </c>
-      <c r="F114" s="1">
-        <v>125.807495</v>
-      </c>
-      <c r="G114" s="2">
+      <c r="F114" s="2">
         <v>80171300</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A115" s="3">
-        <v>44291</v>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A115" s="3" t="str">
+        <v>2021-04-05</v>
       </c>
       <c r="B115" s="1">
         <v>123.870003</v>
@@ -3060,16 +2720,13 @@
       <c r="E115" s="1">
         <v>125.900002</v>
       </c>
-      <c r="F115" s="1">
-        <v>125.49848900000001</v>
-      </c>
-      <c r="G115" s="2">
+      <c r="F115" s="2">
         <v>88651200</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A116" s="3">
-        <v>44287</v>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A116" s="3" t="str">
+        <v>2021-04-01</v>
       </c>
       <c r="B116" s="1">
         <v>123.660004</v>
@@ -3083,16 +2740,13 @@
       <c r="E116" s="1">
         <v>123</v>
       </c>
-      <c r="F116" s="1">
-        <v>122.607727</v>
-      </c>
-      <c r="G116" s="2">
+      <c r="F116" s="2">
         <v>75089100</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A117" s="3">
-        <v>44286</v>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A117" s="3" t="str">
+        <v>2021-03-31</v>
       </c>
       <c r="B117" s="1">
         <v>121.650002</v>
@@ -3106,16 +2760,13 @@
       <c r="E117" s="1">
         <v>122.150002</v>
       </c>
-      <c r="F117" s="1">
-        <v>121.760445</v>
-      </c>
-      <c r="G117" s="2">
+      <c r="F117" s="2">
         <v>118323800</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A118" s="3">
-        <v>44285</v>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A118" s="3" t="str">
+        <v>2021-03-30</v>
       </c>
       <c r="B118" s="1">
         <v>120.110001</v>
@@ -3129,16 +2780,13 @@
       <c r="E118" s="1">
         <v>119.900002</v>
       </c>
-      <c r="F118" s="1">
-        <v>119.517616</v>
-      </c>
-      <c r="G118" s="2">
+      <c r="F118" s="2">
         <v>85671900</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A119" s="3">
-        <v>44284</v>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A119" s="3" t="str">
+        <v>2021-03-29</v>
       </c>
       <c r="B119" s="1">
         <v>121.650002</v>
@@ -3152,16 +2800,13 @@
       <c r="E119" s="1">
         <v>121.389999</v>
       </c>
-      <c r="F119" s="1">
-        <v>121.002861</v>
-      </c>
-      <c r="G119" s="2">
+      <c r="F119" s="2">
         <v>80819200</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A120" s="3">
-        <v>44281</v>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A120" s="3" t="str">
+        <v>2021-03-26</v>
       </c>
       <c r="B120" s="1">
         <v>120.349998</v>
@@ -3175,16 +2820,13 @@
       <c r="E120" s="1">
         <v>121.209999</v>
       </c>
-      <c r="F120" s="1">
-        <v>120.823441</v>
-      </c>
-      <c r="G120" s="2">
+      <c r="F120" s="2">
         <v>94071200</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A121" s="3">
-        <v>44280</v>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A121" s="3" t="str">
+        <v>2021-03-25</v>
       </c>
       <c r="B121" s="1">
         <v>119.540001</v>
@@ -3198,16 +2840,13 @@
       <c r="E121" s="1">
         <v>120.589996</v>
       </c>
-      <c r="F121" s="1">
-        <v>120.205414</v>
-      </c>
-      <c r="G121" s="2">
+      <c r="F121" s="2">
         <v>98844700</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A122" s="3">
-        <v>44279</v>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A122" s="3" t="str">
+        <v>2021-03-24</v>
       </c>
       <c r="B122" s="1">
         <v>122.82</v>
@@ -3221,16 +2860,13 @@
       <c r="E122" s="1">
         <v>120.089996</v>
       </c>
-      <c r="F122" s="1">
-        <v>119.707008</v>
-      </c>
-      <c r="G122" s="2">
+      <c r="F122" s="2">
         <v>88530500</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A123" s="3">
-        <v>44278</v>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A123" s="3" t="str">
+        <v>2021-03-23</v>
       </c>
       <c r="B123" s="1">
         <v>123.33000199999999</v>
@@ -3244,16 +2880,13 @@
       <c r="E123" s="1">
         <v>122.540001</v>
       </c>
-      <c r="F123" s="1">
-        <v>122.14919999999999</v>
-      </c>
-      <c r="G123" s="2">
+      <c r="F123" s="2">
         <v>95467100</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A124" s="3">
-        <v>44277</v>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A124" s="3" t="str">
+        <v>2021-03-22</v>
       </c>
       <c r="B124" s="1">
         <v>120.33000199999999</v>
@@ -3267,16 +2900,13 @@
       <c r="E124" s="1">
         <v>123.389999</v>
       </c>
-      <c r="F124" s="1">
-        <v>122.99648999999999</v>
-      </c>
-      <c r="G124" s="2">
+      <c r="F124" s="2">
         <v>111912300</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A125" s="3">
-        <v>44274</v>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A125" s="3" t="str">
+        <v>2021-03-19</v>
       </c>
       <c r="B125" s="1">
         <v>119.900002</v>
@@ -3290,16 +2920,13 @@
       <c r="E125" s="1">
         <v>119.989998</v>
       </c>
-      <c r="F125" s="1">
-        <v>119.60733</v>
-      </c>
-      <c r="G125" s="2">
+      <c r="F125" s="2">
         <v>185549500</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A126" s="3">
-        <v>44273</v>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A126" s="3" t="str">
+        <v>2021-03-18</v>
       </c>
       <c r="B126" s="1">
         <v>122.879997</v>
@@ -3313,16 +2940,13 @@
       <c r="E126" s="1">
         <v>120.529999</v>
       </c>
-      <c r="F126" s="1">
-        <v>120.145607</v>
-      </c>
-      <c r="G126" s="2">
+      <c r="F126" s="2">
         <v>121229700</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A127" s="3">
-        <v>44272</v>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A127" s="3" t="str">
+        <v>2021-03-17</v>
       </c>
       <c r="B127" s="1">
         <v>124.050003</v>
@@ -3336,16 +2960,13 @@
       <c r="E127" s="1">
         <v>124.760002</v>
       </c>
-      <c r="F127" s="1">
-        <v>124.362122</v>
-      </c>
-      <c r="G127" s="2">
+      <c r="F127" s="2">
         <v>111932600</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A128" s="3">
-        <v>44271</v>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A128" s="3" t="str">
+        <v>2021-03-16</v>
       </c>
       <c r="B128" s="1">
         <v>125.699997</v>
@@ -3359,16 +2980,13 @@
       <c r="E128" s="1">
         <v>125.57</v>
       </c>
-      <c r="F128" s="1">
-        <v>125.169533</v>
-      </c>
-      <c r="G128" s="2">
+      <c r="F128" s="2">
         <v>115227900</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A129" s="3">
-        <v>44270</v>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A129" s="3" t="str">
+        <v>2021-03-15</v>
       </c>
       <c r="B129" s="1">
         <v>121.410004</v>
@@ -3382,16 +3000,13 @@
       <c r="E129" s="1">
         <v>123.989998</v>
       </c>
-      <c r="F129" s="1">
-        <v>123.59457399999999</v>
-      </c>
-      <c r="G129" s="2">
+      <c r="F129" s="2">
         <v>92403800</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A130" s="3">
-        <v>44267</v>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A130" s="3" t="str">
+        <v>2021-03-12</v>
       </c>
       <c r="B130" s="1">
         <v>120.400002</v>
@@ -3405,16 +3020,13 @@
       <c r="E130" s="1">
         <v>121.029999</v>
       </c>
-      <c r="F130" s="1">
-        <v>120.644012</v>
-      </c>
-      <c r="G130" s="2">
+      <c r="F130" s="2">
         <v>88105100</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A131" s="3">
-        <v>44266</v>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A131" s="3" t="str">
+        <v>2021-03-11</v>
       </c>
       <c r="B131" s="1">
         <v>122.540001</v>
@@ -3428,16 +3040,13 @@
       <c r="E131" s="1">
         <v>121.959999</v>
       </c>
-      <c r="F131" s="1">
-        <v>121.571045</v>
-      </c>
-      <c r="G131" s="2">
+      <c r="F131" s="2">
         <v>103026500</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A132" s="3">
-        <v>44265</v>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A132" s="3" t="str">
+        <v>2021-03-10</v>
       </c>
       <c r="B132" s="1">
         <v>121.69000200000001</v>
@@ -3451,16 +3060,13 @@
       <c r="E132" s="1">
         <v>119.980003</v>
       </c>
-      <c r="F132" s="1">
-        <v>119.597374</v>
-      </c>
-      <c r="G132" s="2">
+      <c r="F132" s="2">
         <v>111943300</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A133" s="3">
-        <v>44264</v>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A133" s="3" t="str">
+        <v>2021-03-09</v>
       </c>
       <c r="B133" s="1">
         <v>119.029999</v>
@@ -3474,16 +3080,13 @@
       <c r="E133" s="1">
         <v>121.089996</v>
       </c>
-      <c r="F133" s="1">
-        <v>120.703819</v>
-      </c>
-      <c r="G133" s="2">
+      <c r="F133" s="2">
         <v>129525800</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A134" s="3">
-        <v>44263</v>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A134" s="3" t="str">
+        <v>2021-03-08</v>
       </c>
       <c r="B134" s="1">
         <v>120.93</v>
@@ -3497,16 +3100,13 @@
       <c r="E134" s="1">
         <v>116.360001</v>
       </c>
-      <c r="F134" s="1">
-        <v>115.988907</v>
-      </c>
-      <c r="G134" s="2">
+      <c r="F134" s="2">
         <v>154376600</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A135" s="3">
-        <v>44260</v>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A135" s="3" t="str">
+        <v>2021-03-05</v>
       </c>
       <c r="B135" s="1">
         <v>120.980003</v>
@@ -3520,16 +3120,13 @@
       <c r="E135" s="1">
         <v>121.41999800000001</v>
       </c>
-      <c r="F135" s="1">
-        <v>121.032768</v>
-      </c>
-      <c r="G135" s="2">
+      <c r="F135" s="2">
         <v>153766600</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A136" s="3">
-        <v>44259</v>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A136" s="3" t="str">
+        <v>2021-03-04</v>
       </c>
       <c r="B136" s="1">
         <v>121.75</v>
@@ -3543,16 +3140,13 @@
       <c r="E136" s="1">
         <v>120.129997</v>
       </c>
-      <c r="F136" s="1">
-        <v>119.74688</v>
-      </c>
-      <c r="G136" s="2">
+      <c r="F136" s="2">
         <v>178155000</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A137" s="3">
-        <v>44258</v>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A137" s="3" t="str">
+        <v>2021-03-03</v>
       </c>
       <c r="B137" s="1">
         <v>124.80999799999999</v>
@@ -3566,16 +3160,13 @@
       <c r="E137" s="1">
         <v>122.05999799999999</v>
       </c>
-      <c r="F137" s="1">
-        <v>121.670723</v>
-      </c>
-      <c r="G137" s="2">
+      <c r="F137" s="2">
         <v>112966300</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A138" s="3">
-        <v>44257</v>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A138" s="3" t="str">
+        <v>2021-03-02</v>
       </c>
       <c r="B138" s="1">
         <v>128.41000399999999</v>
@@ -3589,16 +3180,13 @@
       <c r="E138" s="1">
         <v>125.120003</v>
       </c>
-      <c r="F138" s="1">
-        <v>124.72096999999999</v>
-      </c>
-      <c r="G138" s="2">
+      <c r="F138" s="2">
         <v>102260900</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A139" s="3">
-        <v>44256</v>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A139" s="3" t="str">
+        <v>2021-03-01</v>
       </c>
       <c r="B139" s="1">
         <v>123.75</v>
@@ -3612,16 +3200,13 @@
       <c r="E139" s="1">
         <v>127.790001</v>
       </c>
-      <c r="F139" s="1">
-        <v>127.382462</v>
-      </c>
-      <c r="G139" s="2">
+      <c r="F139" s="2">
         <v>116307900</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A140" s="3">
-        <v>44253</v>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A140" s="3" t="str">
+        <v>2021-02-26</v>
       </c>
       <c r="B140" s="1">
         <v>122.589996</v>
@@ -3635,16 +3220,13 @@
       <c r="E140" s="1">
         <v>121.260002</v>
       </c>
-      <c r="F140" s="1">
-        <v>120.873283</v>
-      </c>
-      <c r="G140" s="2">
+      <c r="F140" s="2">
         <v>164560400</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A141" s="3">
-        <v>44252</v>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A141" s="3" t="str">
+        <v>2021-02-25</v>
       </c>
       <c r="B141" s="1">
         <v>124.68</v>
@@ -3658,16 +3240,13 @@
       <c r="E141" s="1">
         <v>120.989998</v>
       </c>
-      <c r="F141" s="1">
-        <v>120.604141</v>
-      </c>
-      <c r="G141" s="2">
+      <c r="F141" s="2">
         <v>148199500</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A142" s="3">
-        <v>44251</v>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A142" s="3" t="str">
+        <v>2021-02-24</v>
       </c>
       <c r="B142" s="1">
         <v>124.94000200000001</v>
@@ -3681,16 +3260,13 @@
       <c r="E142" s="1">
         <v>125.349998</v>
       </c>
-      <c r="F142" s="1">
-        <v>124.950233</v>
-      </c>
-      <c r="G142" s="2">
+      <c r="F142" s="2">
         <v>111039900</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A143" s="3">
-        <v>44250</v>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A143" s="3" t="str">
+        <v>2021-02-23</v>
       </c>
       <c r="B143" s="1">
         <v>123.760002</v>
@@ -3704,16 +3280,13 @@
       <c r="E143" s="1">
         <v>125.860001</v>
       </c>
-      <c r="F143" s="1">
-        <v>125.458611</v>
-      </c>
-      <c r="G143" s="2">
+      <c r="F143" s="2">
         <v>158273000</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A144" s="3">
-        <v>44249</v>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A144" s="3" t="str">
+        <v>2021-02-22</v>
       </c>
       <c r="B144" s="1">
         <v>128.009995</v>
@@ -3727,16 +3300,13 @@
       <c r="E144" s="1">
         <v>126</v>
       </c>
-      <c r="F144" s="1">
-        <v>125.598167</v>
-      </c>
-      <c r="G144" s="2">
+      <c r="F144" s="2">
         <v>103916400</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A145" s="3">
-        <v>44246</v>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A145" s="3" t="str">
+        <v>2021-02-19</v>
       </c>
       <c r="B145" s="1">
         <v>130.240005</v>
@@ -3750,16 +3320,13 @@
       <c r="E145" s="1">
         <v>129.86999499999999</v>
       </c>
-      <c r="F145" s="1">
-        <v>129.455826</v>
-      </c>
-      <c r="G145" s="2">
+      <c r="F145" s="2">
         <v>87668800</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A146" s="3">
-        <v>44245</v>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A146" s="3" t="str">
+        <v>2021-02-18</v>
       </c>
       <c r="B146" s="1">
         <v>129.199997</v>
@@ -3773,16 +3340,13 @@
       <c r="E146" s="1">
         <v>129.71000699999999</v>
       </c>
-      <c r="F146" s="1">
-        <v>129.29632599999999</v>
-      </c>
-      <c r="G146" s="2">
+      <c r="F146" s="2">
         <v>96856700</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A147" s="3">
-        <v>44244</v>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A147" s="3" t="str">
+        <v>2021-02-17</v>
       </c>
       <c r="B147" s="1">
         <v>131.25</v>
@@ -3796,16 +3360,13 @@
       <c r="E147" s="1">
         <v>130.83999600000001</v>
       </c>
-      <c r="F147" s="1">
-        <v>130.422729</v>
-      </c>
-      <c r="G147" s="2">
+      <c r="F147" s="2">
         <v>97918500</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A148" s="3">
-        <v>44243</v>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A148" s="3" t="str">
+        <v>2021-02-16</v>
       </c>
       <c r="B148" s="1">
         <v>135.490005</v>
@@ -3819,16 +3380,13 @@
       <c r="E148" s="1">
         <v>133.19000199999999</v>
       </c>
-      <c r="F148" s="1">
-        <v>132.765244</v>
-      </c>
-      <c r="G148" s="2">
+      <c r="F148" s="2">
         <v>80576300</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A149" s="3">
-        <v>44239</v>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A149" s="3" t="str">
+        <v>2021-02-12</v>
       </c>
       <c r="B149" s="1">
         <v>134.35000600000001</v>
@@ -3842,16 +3400,13 @@
       <c r="E149" s="1">
         <v>135.36999499999999</v>
       </c>
-      <c r="F149" s="1">
-        <v>134.93826300000001</v>
-      </c>
-      <c r="G149" s="2">
+      <c r="F149" s="2">
         <v>60145100</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A150" s="3">
-        <v>44238</v>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A150" s="3" t="str">
+        <v>2021-02-11</v>
       </c>
       <c r="B150" s="1">
         <v>135.89999399999999</v>
@@ -3865,16 +3420,13 @@
       <c r="E150" s="1">
         <v>135.13000500000001</v>
       </c>
-      <c r="F150" s="1">
-        <v>134.699051</v>
-      </c>
-      <c r="G150" s="2">
+      <c r="F150" s="2">
         <v>64280000</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A151" s="3">
-        <v>44237</v>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A151" s="3" t="str">
+        <v>2021-02-10</v>
       </c>
       <c r="B151" s="1">
         <v>136.479996</v>
@@ -3888,16 +3440,13 @@
       <c r="E151" s="1">
         <v>135.38999899999999</v>
       </c>
-      <c r="F151" s="1">
-        <v>134.95820599999999</v>
-      </c>
-      <c r="G151" s="2">
+      <c r="F151" s="2">
         <v>73046600</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A152" s="3">
-        <v>44236</v>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A152" s="3" t="str">
+        <v>2021-02-09</v>
       </c>
       <c r="B152" s="1">
         <v>136.61999499999999</v>
@@ -3911,16 +3460,13 @@
       <c r="E152" s="1">
         <v>136.009995</v>
       </c>
-      <c r="F152" s="1">
-        <v>135.576233</v>
-      </c>
-      <c r="G152" s="2">
+      <c r="F152" s="2">
         <v>76774200</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A153" s="3">
-        <v>44235</v>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A153" s="3" t="str">
+        <v>2021-02-08</v>
       </c>
       <c r="B153" s="1">
         <v>136.029999</v>
@@ -3934,16 +3480,13 @@
       <c r="E153" s="1">
         <v>136.91000399999999</v>
       </c>
-      <c r="F153" s="1">
-        <v>136.47337300000001</v>
-      </c>
-      <c r="G153" s="2">
+      <c r="F153" s="2">
         <v>71297200</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A154" s="3">
-        <v>44232</v>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A154" s="3" t="str">
+        <v>2021-02-05</v>
       </c>
       <c r="B154" s="1">
         <v>137.35000600000001</v>
@@ -3957,16 +3500,13 @@
       <c r="E154" s="1">
         <v>136.759995</v>
       </c>
-      <c r="F154" s="1">
-        <v>136.323837</v>
-      </c>
-      <c r="G154" s="2">
+      <c r="F154" s="2">
         <v>75693800</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A155" s="3">
-        <v>44231</v>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A155" s="3" t="str">
+        <v>2021-02-04</v>
       </c>
       <c r="B155" s="1">
         <v>136.300003</v>
@@ -3980,16 +3520,13 @@
       <c r="E155" s="1">
         <v>137.38999899999999</v>
       </c>
-      <c r="F155" s="1">
-        <v>136.74749800000001</v>
-      </c>
-      <c r="G155" s="2">
+      <c r="F155" s="2">
         <v>84183100</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A156" s="3">
-        <v>44230</v>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A156" s="3" t="str">
+        <v>2021-02-03</v>
       </c>
       <c r="B156" s="1">
         <v>135.759995</v>
@@ -4003,16 +3540,13 @@
       <c r="E156" s="1">
         <v>133.94000199999999</v>
       </c>
-      <c r="F156" s="1">
-        <v>133.31364400000001</v>
-      </c>
-      <c r="G156" s="2">
+      <c r="F156" s="2">
         <v>89880900</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A157" s="3">
-        <v>44229</v>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A157" s="3" t="str">
+        <v>2021-02-02</v>
       </c>
       <c r="B157" s="1">
         <v>135.729996</v>
@@ -4026,16 +3560,13 @@
       <c r="E157" s="1">
         <v>134.990005</v>
       </c>
-      <c r="F157" s="1">
-        <v>134.35871900000001</v>
-      </c>
-      <c r="G157" s="2">
+      <c r="F157" s="2">
         <v>83305400</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A158" s="3">
-        <v>44228</v>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A158" s="3" t="str">
+        <v>2021-02-01</v>
       </c>
       <c r="B158" s="1">
         <v>133.75</v>
@@ -4049,16 +3580,13 @@
       <c r="E158" s="1">
         <v>134.13999899999999</v>
       </c>
-      <c r="F158" s="1">
-        <v>133.51267999999999</v>
-      </c>
-      <c r="G158" s="2">
+      <c r="F158" s="2">
         <v>106239800</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A159" s="3">
-        <v>44225</v>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A159" s="3" t="str">
+        <v>2021-01-29</v>
       </c>
       <c r="B159" s="1">
         <v>135.83000200000001</v>
@@ -4072,16 +3600,13 @@
       <c r="E159" s="1">
         <v>131.96000699999999</v>
       </c>
-      <c r="F159" s="1">
-        <v>131.34288000000001</v>
-      </c>
-      <c r="G159" s="2">
+      <c r="F159" s="2">
         <v>177523800</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A160" s="3">
-        <v>44224</v>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A160" s="3" t="str">
+        <v>2021-01-28</v>
       </c>
       <c r="B160" s="1">
         <v>139.520004</v>
@@ -4095,16 +3620,13 @@
       <c r="E160" s="1">
         <v>137.08999600000001</v>
       </c>
-      <c r="F160" s="1">
-        <v>136.44889800000001</v>
-      </c>
-      <c r="G160" s="2">
+      <c r="F160" s="2">
         <v>142621100</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A161" s="3">
-        <v>44223</v>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A161" s="3" t="str">
+        <v>2021-01-27</v>
       </c>
       <c r="B161" s="1">
         <v>143.429993</v>
@@ -4118,16 +3640,13 @@
       <c r="E161" s="1">
         <v>142.05999800000001</v>
       </c>
-      <c r="F161" s="1">
-        <v>141.39565999999999</v>
-      </c>
-      <c r="G161" s="2">
+      <c r="F161" s="2">
         <v>140843800</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A162" s="3">
-        <v>44222</v>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A162" s="3" t="str">
+        <v>2021-01-26</v>
       </c>
       <c r="B162" s="1">
         <v>143.60000600000001</v>
@@ -4141,16 +3660,13 @@
       <c r="E162" s="1">
         <v>143.16000399999999</v>
       </c>
-      <c r="F162" s="1">
-        <v>142.49052399999999</v>
-      </c>
-      <c r="G162" s="2">
+      <c r="F162" s="2">
         <v>98390600</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A163" s="3">
-        <v>44221</v>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A163" s="3" t="str">
+        <v>2021-01-25</v>
       </c>
       <c r="B163" s="1">
         <v>143.070007</v>
@@ -4164,16 +3680,13 @@
       <c r="E163" s="1">
         <v>142.91999799999999</v>
       </c>
-      <c r="F163" s="1">
-        <v>142.251633</v>
-      </c>
-      <c r="G163" s="2">
+      <c r="F163" s="2">
         <v>157611700</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A164" s="3">
-        <v>44218</v>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A164" s="3" t="str">
+        <v>2021-01-22</v>
       </c>
       <c r="B164" s="1">
         <v>136.279999</v>
@@ -4187,16 +3700,13 @@
       <c r="E164" s="1">
         <v>139.070007</v>
       </c>
-      <c r="F164" s="1">
-        <v>138.419647</v>
-      </c>
-      <c r="G164" s="2">
+      <c r="F164" s="2">
         <v>114459400</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A165" s="3">
-        <v>44217</v>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A165" s="3" t="str">
+        <v>2021-01-21</v>
       </c>
       <c r="B165" s="1">
         <v>133.800003</v>
@@ -4210,16 +3720,13 @@
       <c r="E165" s="1">
         <v>136.86999499999999</v>
       </c>
-      <c r="F165" s="1">
-        <v>136.229919</v>
-      </c>
-      <c r="G165" s="2">
+      <c r="F165" s="2">
         <v>120150900</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A166" s="3">
-        <v>44216</v>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A166" s="3" t="str">
+        <v>2021-01-20</v>
       </c>
       <c r="B166" s="1">
         <v>128.66000399999999</v>
@@ -4233,16 +3740,13 @@
       <c r="E166" s="1">
         <v>132.029999</v>
       </c>
-      <c r="F166" s="1">
-        <v>131.412567</v>
-      </c>
-      <c r="G166" s="2">
+      <c r="F166" s="2">
         <v>104319500</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A167" s="3">
-        <v>44215</v>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A167" s="3" t="str">
+        <v>2021-01-19</v>
       </c>
       <c r="B167" s="1">
         <v>127.779999</v>
@@ -4256,16 +3760,13 @@
       <c r="E167" s="1">
         <v>127.83000199999999</v>
       </c>
-      <c r="F167" s="1">
-        <v>127.232201</v>
-      </c>
-      <c r="G167" s="2">
+      <c r="F167" s="2">
         <v>90757300</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A168" s="3">
-        <v>44211</v>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A168" s="3" t="str">
+        <v>2021-01-15</v>
       </c>
       <c r="B168" s="1">
         <v>128.779999</v>
@@ -4279,16 +3780,13 @@
       <c r="E168" s="1">
         <v>127.139999</v>
       </c>
-      <c r="F168" s="1">
-        <v>126.54542499999999</v>
-      </c>
-      <c r="G168" s="2">
+      <c r="F168" s="2">
         <v>111598500</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A169" s="3">
-        <v>44210</v>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A169" s="3" t="str">
+        <v>2021-01-14</v>
       </c>
       <c r="B169" s="1">
         <v>130.800003</v>
@@ -4302,16 +3800,13 @@
       <c r="E169" s="1">
         <v>128.91000399999999</v>
       </c>
-      <c r="F169" s="1">
-        <v>128.307175</v>
-      </c>
-      <c r="G169" s="2">
+      <c r="F169" s="2">
         <v>90221800</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A170" s="3">
-        <v>44209</v>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A170" s="3" t="str">
+        <v>2021-01-13</v>
       </c>
       <c r="B170" s="1">
         <v>128.759995</v>
@@ -4325,16 +3820,13 @@
       <c r="E170" s="1">
         <v>130.88999899999999</v>
       </c>
-      <c r="F170" s="1">
-        <v>130.27789300000001</v>
-      </c>
-      <c r="G170" s="2">
+      <c r="F170" s="2">
         <v>88636800</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A171" s="3">
-        <v>44208</v>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A171" s="3" t="str">
+        <v>2021-01-12</v>
       </c>
       <c r="B171" s="1">
         <v>128.5</v>
@@ -4348,16 +3840,13 @@
       <c r="E171" s="1">
         <v>128.800003</v>
       </c>
-      <c r="F171" s="1">
-        <v>128.19766200000001</v>
-      </c>
-      <c r="G171" s="2">
+      <c r="F171" s="2">
         <v>91951100</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A172" s="3">
-        <v>44207</v>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A172" s="3" t="str">
+        <v>2021-01-11</v>
       </c>
       <c r="B172" s="1">
         <v>129.19000199999999</v>
@@ -4371,16 +3860,13 @@
       <c r="E172" s="1">
         <v>128.979996</v>
       </c>
-      <c r="F172" s="1">
-        <v>128.37683100000001</v>
-      </c>
-      <c r="G172" s="2">
+      <c r="F172" s="2">
         <v>100384500</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A173" s="3">
-        <v>44204</v>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A173" s="3" t="str">
+        <v>2021-01-08</v>
       </c>
       <c r="B173" s="1">
         <v>132.429993</v>
@@ -4394,16 +3880,13 @@
       <c r="E173" s="1">
         <v>132.050003</v>
       </c>
-      <c r="F173" s="1">
-        <v>131.43246500000001</v>
-      </c>
-      <c r="G173" s="2">
+      <c r="F173" s="2">
         <v>105158200</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A174" s="3">
-        <v>44203</v>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A174" s="3" t="str">
+        <v>2021-01-07</v>
       </c>
       <c r="B174" s="1">
         <v>128.36000100000001</v>
@@ -4417,16 +3900,13 @@
       <c r="E174" s="1">
         <v>130.91999799999999</v>
       </c>
-      <c r="F174" s="1">
-        <v>130.30775499999999</v>
-      </c>
-      <c r="G174" s="2">
+      <c r="F174" s="2">
         <v>109578200</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A175" s="3">
-        <v>44202</v>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A175" s="3" t="str">
+        <v>2021-01-06</v>
       </c>
       <c r="B175" s="1">
         <v>127.720001</v>
@@ -4440,16 +3920,13 @@
       <c r="E175" s="1">
         <v>126.599998</v>
       </c>
-      <c r="F175" s="1">
-        <v>126.007957</v>
-      </c>
-      <c r="G175" s="2">
+      <c r="F175" s="2">
         <v>155088000</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A176" s="3">
-        <v>44201</v>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A176" s="3" t="str">
+        <v>2021-01-05</v>
       </c>
       <c r="B176" s="1">
         <v>128.88999899999999</v>
@@ -4463,16 +3940,13 @@
       <c r="E176" s="1">
         <v>131.009995</v>
       </c>
-      <c r="F176" s="1">
-        <v>130.397324</v>
-      </c>
-      <c r="G176" s="2">
+      <c r="F176" s="2">
         <v>97664900</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A177" s="3">
-        <v>44200</v>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A177" s="3" t="str">
+        <v>2021-01-04</v>
       </c>
       <c r="B177" s="1">
         <v>133.520004</v>
@@ -4486,16 +3960,13 @@
       <c r="E177" s="1">
         <v>129.41000399999999</v>
       </c>
-      <c r="F177" s="1">
-        <v>128.80482499999999</v>
-      </c>
-      <c r="G177" s="2">
+      <c r="F177" s="2">
         <v>143301900</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A178" s="3">
-        <v>44196</v>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A178" s="3" t="str">
+        <v>2020-12-31</v>
       </c>
       <c r="B178" s="1">
         <v>134.08000200000001</v>
@@ -4509,16 +3980,13 @@
       <c r="E178" s="1">
         <v>132.69000199999999</v>
       </c>
-      <c r="F178" s="1">
-        <v>132.06947299999999</v>
-      </c>
-      <c r="G178" s="2">
+      <c r="F178" s="2">
         <v>99116600</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A179" s="3">
-        <v>44195</v>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A179" s="3" t="str">
+        <v>2020-12-30</v>
       </c>
       <c r="B179" s="1">
         <v>135.58000200000001</v>
@@ -4532,16 +4000,13 @@
       <c r="E179" s="1">
         <v>133.720001</v>
       </c>
-      <c r="F179" s="1">
-        <v>133.09465</v>
-      </c>
-      <c r="G179" s="2">
+      <c r="F179" s="2">
         <v>96452100</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A180" s="3">
-        <v>44194</v>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A180" s="3" t="str">
+        <v>2020-12-29</v>
       </c>
       <c r="B180" s="1">
         <v>138.050003</v>
@@ -4555,16 +4020,13 @@
       <c r="E180" s="1">
         <v>134.86999499999999</v>
       </c>
-      <c r="F180" s="1">
-        <v>134.239273</v>
-      </c>
-      <c r="G180" s="2">
+      <c r="F180" s="2">
         <v>121047300</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A181" s="3">
-        <v>44193</v>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A181" s="3" t="str">
+        <v>2020-12-28</v>
       </c>
       <c r="B181" s="1">
         <v>133.990005</v>
@@ -4578,16 +4040,13 @@
       <c r="E181" s="1">
         <v>136.69000199999999</v>
       </c>
-      <c r="F181" s="1">
-        <v>136.05076600000001</v>
-      </c>
-      <c r="G181" s="2">
+      <c r="F181" s="2">
         <v>124486200</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A182" s="3">
-        <v>44189</v>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A182" s="3" t="str">
+        <v>2020-12-24</v>
       </c>
       <c r="B182" s="1">
         <v>131.320007</v>
@@ -4601,16 +4060,13 @@
       <c r="E182" s="1">
         <v>131.970001</v>
       </c>
-      <c r="F182" s="1">
-        <v>131.35282900000001</v>
-      </c>
-      <c r="G182" s="2">
+      <c r="F182" s="2">
         <v>54930100</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A183" s="3">
-        <v>44188</v>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A183" s="3" t="str">
+        <v>2020-12-23</v>
       </c>
       <c r="B183" s="1">
         <v>132.16000399999999</v>
@@ -4624,16 +4080,13 @@
       <c r="E183" s="1">
         <v>130.96000699999999</v>
       </c>
-      <c r="F183" s="1">
-        <v>130.347565</v>
-      </c>
-      <c r="G183" s="2">
+      <c r="F183" s="2">
         <v>88223700</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A184" s="3">
-        <v>44187</v>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A184" s="3" t="str">
+        <v>2020-12-22</v>
       </c>
       <c r="B184" s="1">
         <v>131.61000100000001</v>
@@ -4647,16 +4100,13 @@
       <c r="E184" s="1">
         <v>131.88000500000001</v>
       </c>
-      <c r="F184" s="1">
-        <v>131.26326</v>
-      </c>
-      <c r="G184" s="2">
+      <c r="F184" s="2">
         <v>168904800</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A185" s="3">
-        <v>44186</v>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A185" s="3" t="str">
+        <v>2020-12-21</v>
       </c>
       <c r="B185" s="1">
         <v>125.019997</v>
@@ -4670,16 +4120,13 @@
       <c r="E185" s="1">
         <v>128.229996</v>
       </c>
-      <c r="F185" s="1">
-        <v>127.630325</v>
-      </c>
-      <c r="G185" s="2">
+      <c r="F185" s="2">
         <v>121251600</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A186" s="3">
-        <v>44183</v>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A186" s="3" t="str">
+        <v>2020-12-18</v>
       </c>
       <c r="B186" s="1">
         <v>128.96000699999999</v>
@@ -4693,16 +4140,13 @@
       <c r="E186" s="1">
         <v>126.660004</v>
       </c>
-      <c r="F186" s="1">
-        <v>126.06768</v>
-      </c>
-      <c r="G186" s="2">
+      <c r="F186" s="2">
         <v>192541500</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A187" s="3">
-        <v>44182</v>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A187" s="3" t="str">
+        <v>2020-12-17</v>
       </c>
       <c r="B187" s="1">
         <v>128.89999399999999</v>
@@ -4716,16 +4160,13 @@
       <c r="E187" s="1">
         <v>128.699997</v>
       </c>
-      <c r="F187" s="1">
-        <v>128.098129</v>
-      </c>
-      <c r="G187" s="2">
+      <c r="F187" s="2">
         <v>94359800</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A188" s="3">
-        <v>44181</v>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A188" s="3" t="str">
+        <v>2020-12-16</v>
       </c>
       <c r="B188" s="1">
         <v>127.410004</v>
@@ -4739,16 +4180,13 @@
       <c r="E188" s="1">
         <v>127.80999799999999</v>
       </c>
-      <c r="F188" s="1">
-        <v>127.21229599999999</v>
-      </c>
-      <c r="G188" s="2">
+      <c r="F188" s="2">
         <v>98208600</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A189" s="3">
-        <v>44180</v>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A189" s="3" t="str">
+        <v>2020-12-15</v>
       </c>
       <c r="B189" s="1">
         <v>124.339996</v>
@@ -4762,16 +4200,13 @@
       <c r="E189" s="1">
         <v>127.879997</v>
       </c>
-      <c r="F189" s="1">
-        <v>127.28196</v>
-      </c>
-      <c r="G189" s="2">
+      <c r="F189" s="2">
         <v>157243700</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A190" s="3">
-        <v>44179</v>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A190" s="3" t="str">
+        <v>2020-12-14</v>
       </c>
       <c r="B190" s="1">
         <v>122.599998</v>
@@ -4785,16 +4220,13 @@
       <c r="E190" s="1">
         <v>121.779999</v>
       </c>
-      <c r="F190" s="1">
-        <v>121.21049499999999</v>
-      </c>
-      <c r="G190" s="2">
+      <c r="F190" s="2">
         <v>79184500</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A191" s="3">
-        <v>44176</v>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A191" s="3" t="str">
+        <v>2020-12-11</v>
       </c>
       <c r="B191" s="1">
         <v>122.43</v>
@@ -4808,16 +4240,13 @@
       <c r="E191" s="1">
         <v>122.410004</v>
       </c>
-      <c r="F191" s="1">
-        <v>121.83755499999999</v>
-      </c>
-      <c r="G191" s="2">
+      <c r="F191" s="2">
         <v>86939800</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A192" s="3">
-        <v>44175</v>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A192" s="3" t="str">
+        <v>2020-12-10</v>
       </c>
       <c r="B192" s="1">
         <v>120.5</v>
@@ -4831,16 +4260,13 @@
       <c r="E192" s="1">
         <v>123.239998</v>
       </c>
-      <c r="F192" s="1">
-        <v>122.66366600000001</v>
-      </c>
-      <c r="G192" s="2">
+      <c r="F192" s="2">
         <v>81312200</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A193" s="3">
-        <v>44174</v>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A193" s="3" t="str">
+        <v>2020-12-09</v>
       </c>
       <c r="B193" s="1">
         <v>124.529999</v>
@@ -4854,16 +4280,13 @@
       <c r="E193" s="1">
         <v>121.779999</v>
       </c>
-      <c r="F193" s="1">
-        <v>121.21049499999999</v>
-      </c>
-      <c r="G193" s="2">
+      <c r="F193" s="2">
         <v>115089200</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A194" s="3">
-        <v>44173</v>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A194" s="3" t="str">
+        <v>2020-12-08</v>
       </c>
       <c r="B194" s="1">
         <v>124.370003</v>
@@ -4877,16 +4300,13 @@
       <c r="E194" s="1">
         <v>124.379997</v>
       </c>
-      <c r="F194" s="1">
-        <v>123.79834</v>
-      </c>
-      <c r="G194" s="2">
+      <c r="F194" s="2">
         <v>82225500</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A195" s="3">
-        <v>44172</v>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A195" s="3" t="str">
+        <v>2020-12-07</v>
       </c>
       <c r="B195" s="1">
         <v>122.30999799999999</v>
@@ -4900,16 +4320,13 @@
       <c r="E195" s="1">
         <v>123.75</v>
       </c>
-      <c r="F195" s="1">
-        <v>123.171288</v>
-      </c>
-      <c r="G195" s="2">
+      <c r="F195" s="2">
         <v>86712000</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A196" s="3">
-        <v>44169</v>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A196" s="3" t="str">
+        <v>2020-12-04</v>
       </c>
       <c r="B196" s="1">
         <v>122.599998</v>
@@ -4923,16 +4340,13 @@
       <c r="E196" s="1">
         <v>122.25</v>
       </c>
-      <c r="F196" s="1">
-        <v>121.678307</v>
-      </c>
-      <c r="G196" s="2">
+      <c r="F196" s="2">
         <v>78260400</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A197" s="3">
-        <v>44168</v>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A197" s="3" t="str">
+        <v>2020-12-03</v>
       </c>
       <c r="B197" s="1">
         <v>123.519997</v>
@@ -4946,16 +4360,13 @@
       <c r="E197" s="1">
         <v>122.94000200000001</v>
       </c>
-      <c r="F197" s="1">
-        <v>122.36507400000001</v>
-      </c>
-      <c r="G197" s="2">
+      <c r="F197" s="2">
         <v>78967600</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A198" s="3">
-        <v>44167</v>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A198" s="3" t="str">
+        <v>2020-12-02</v>
       </c>
       <c r="B198" s="1">
         <v>122.019997</v>
@@ -4969,16 +4380,13 @@
       <c r="E198" s="1">
         <v>123.08000199999999</v>
       </c>
-      <c r="F198" s="1">
-        <v>122.504417</v>
-      </c>
-      <c r="G198" s="2">
+      <c r="F198" s="2">
         <v>89004200</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A199" s="3">
-        <v>44166</v>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A199" s="3" t="str">
+        <v>2020-12-01</v>
       </c>
       <c r="B199" s="1">
         <v>121.010002</v>
@@ -4992,16 +4400,13 @@
       <c r="E199" s="1">
         <v>122.720001</v>
       </c>
-      <c r="F199" s="1">
-        <v>122.146103</v>
-      </c>
-      <c r="G199" s="2">
+      <c r="F199" s="2">
         <v>127728200</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A200" s="3">
-        <v>44165</v>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A200" s="3" t="str">
+        <v>2020-11-30</v>
       </c>
       <c r="B200" s="1">
         <v>116.970001</v>
@@ -5015,16 +4420,13 @@
       <c r="E200" s="1">
         <v>119.050003</v>
       </c>
-      <c r="F200" s="1">
-        <v>118.493263</v>
-      </c>
-      <c r="G200" s="2">
+      <c r="F200" s="2">
         <v>169410200</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A201" s="3">
-        <v>44162</v>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A201" s="3" t="str">
+        <v>2020-11-27</v>
       </c>
       <c r="B201" s="1">
         <v>116.57</v>
@@ -5038,16 +4440,13 @@
       <c r="E201" s="1">
         <v>116.589996</v>
       </c>
-      <c r="F201" s="1">
-        <v>116.04476200000001</v>
-      </c>
-      <c r="G201" s="2">
+      <c r="F201" s="2">
         <v>46691300</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A202" s="3">
-        <v>44160</v>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A202" s="3" t="str">
+        <v>2020-11-25</v>
       </c>
       <c r="B202" s="1">
         <v>115.550003</v>
@@ -5061,16 +4460,13 @@
       <c r="E202" s="1">
         <v>116.029999</v>
       </c>
-      <c r="F202" s="1">
-        <v>115.48738899999999</v>
-      </c>
-      <c r="G202" s="2">
+      <c r="F202" s="2">
         <v>76499200</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A203" s="3">
-        <v>44159</v>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A203" s="3" t="str">
+        <v>2020-11-24</v>
       </c>
       <c r="B203" s="1">
         <v>113.910004</v>
@@ -5084,16 +4480,13 @@
       <c r="E203" s="1">
         <v>115.16999800000001</v>
       </c>
-      <c r="F203" s="1">
-        <v>114.631409</v>
-      </c>
-      <c r="G203" s="2">
+      <c r="F203" s="2">
         <v>113874200</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A204" s="3">
-        <v>44158</v>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A204" s="3" t="str">
+        <v>2020-11-23</v>
       </c>
       <c r="B204" s="1">
         <v>117.18</v>
@@ -5107,16 +4500,13 @@
       <c r="E204" s="1">
         <v>113.849998</v>
       </c>
-      <c r="F204" s="1">
-        <v>113.317581</v>
-      </c>
-      <c r="G204" s="2">
+      <c r="F204" s="2">
         <v>127959300</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A205" s="3">
-        <v>44155</v>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A205" s="3" t="str">
+        <v>2020-11-20</v>
       </c>
       <c r="B205" s="1">
         <v>118.639999</v>
@@ -5130,16 +4520,13 @@
       <c r="E205" s="1">
         <v>117.339996</v>
       </c>
-      <c r="F205" s="1">
-        <v>116.79125999999999</v>
-      </c>
-      <c r="G205" s="2">
+      <c r="F205" s="2">
         <v>73604300</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A206" s="3">
-        <v>44154</v>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A206" s="3" t="str">
+        <v>2020-11-19</v>
       </c>
       <c r="B206" s="1">
         <v>117.589996</v>
@@ -5153,16 +4540,13 @@
       <c r="E206" s="1">
         <v>118.639999</v>
       </c>
-      <c r="F206" s="1">
-        <v>118.085182</v>
-      </c>
-      <c r="G206" s="2">
+      <c r="F206" s="2">
         <v>74113000</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A207" s="3">
-        <v>44153</v>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A207" s="3" t="str">
+        <v>2020-11-18</v>
       </c>
       <c r="B207" s="1">
         <v>118.610001</v>
@@ -5176,16 +4560,13 @@
       <c r="E207" s="1">
         <v>118.029999</v>
       </c>
-      <c r="F207" s="1">
-        <v>117.47803500000001</v>
-      </c>
-      <c r="G207" s="2">
+      <c r="F207" s="2">
         <v>76322100</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A208" s="3">
-        <v>44152</v>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A208" s="3" t="str">
+        <v>2020-11-17</v>
       </c>
       <c r="B208" s="1">
         <v>119.550003</v>
@@ -5199,16 +4580,13 @@
       <c r="E208" s="1">
         <v>119.389999</v>
       </c>
-      <c r="F208" s="1">
-        <v>118.83167299999999</v>
-      </c>
-      <c r="G208" s="2">
+      <c r="F208" s="2">
         <v>74271000</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A209" s="3">
-        <v>44151</v>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A209" s="3" t="str">
+        <v>2020-11-16</v>
       </c>
       <c r="B209" s="1">
         <v>118.91999800000001</v>
@@ -5222,16 +4600,13 @@
       <c r="E209" s="1">
         <v>120.300003</v>
       </c>
-      <c r="F209" s="1">
-        <v>119.737419</v>
-      </c>
-      <c r="G209" s="2">
+      <c r="F209" s="2">
         <v>91183000</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A210" s="3">
-        <v>44148</v>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A210" s="3" t="str">
+        <v>2020-11-13</v>
       </c>
       <c r="B210" s="1">
         <v>119.44000200000001</v>
@@ -5245,16 +4620,13 @@
       <c r="E210" s="1">
         <v>119.260002</v>
       </c>
-      <c r="F210" s="1">
-        <v>118.70227800000001</v>
-      </c>
-      <c r="G210" s="2">
+      <c r="F210" s="2">
         <v>81581900</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A211" s="3">
-        <v>44147</v>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A211" s="3" t="str">
+        <v>2020-11-12</v>
       </c>
       <c r="B211" s="1">
         <v>119.620003</v>
@@ -5268,16 +4640,13 @@
       <c r="E211" s="1">
         <v>119.209999</v>
       </c>
-      <c r="F211" s="1">
-        <v>118.652512</v>
-      </c>
-      <c r="G211" s="2">
+      <c r="F211" s="2">
         <v>103162300</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A212" s="3">
-        <v>44146</v>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A212" s="3" t="str">
+        <v>2020-11-11</v>
       </c>
       <c r="B212" s="1">
         <v>117.19000200000001</v>
@@ -5291,16 +4660,13 @@
       <c r="E212" s="1">
         <v>119.489998</v>
       </c>
-      <c r="F212" s="1">
-        <v>118.93119799999999</v>
-      </c>
-      <c r="G212" s="2">
+      <c r="F212" s="2">
         <v>112295000</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A213" s="3">
-        <v>44145</v>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A213" s="3" t="str">
+        <v>2020-11-10</v>
       </c>
       <c r="B213" s="1">
         <v>115.550003</v>
@@ -5314,16 +4680,13 @@
       <c r="E213" s="1">
         <v>115.970001</v>
       </c>
-      <c r="F213" s="1">
-        <v>115.427666</v>
-      </c>
-      <c r="G213" s="2">
+      <c r="F213" s="2">
         <v>138023400</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A214" s="3">
-        <v>44144</v>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A214" s="3" t="str">
+        <v>2020-11-09</v>
       </c>
       <c r="B214" s="1">
         <v>120.5</v>
@@ -5337,16 +4700,13 @@
       <c r="E214" s="1">
         <v>116.32</v>
       </c>
-      <c r="F214" s="1">
-        <v>115.776031</v>
-      </c>
-      <c r="G214" s="2">
+      <c r="F214" s="2">
         <v>154515300</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A215" s="3">
-        <v>44141</v>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A215" s="3" t="str">
+        <v>2020-11-06</v>
       </c>
       <c r="B215" s="1">
         <v>118.32</v>
@@ -5360,16 +4720,13 @@
       <c r="E215" s="1">
         <v>118.69000200000001</v>
       </c>
-      <c r="F215" s="1">
-        <v>118.134956</v>
-      </c>
-      <c r="G215" s="2">
+      <c r="F215" s="2">
         <v>114457900</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A216" s="3">
-        <v>44140</v>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A216" s="3" t="str">
+        <v>2020-11-05</v>
       </c>
       <c r="B216" s="1">
         <v>117.949997</v>
@@ -5383,16 +4740,13 @@
       <c r="E216" s="1">
         <v>119.029999</v>
       </c>
-      <c r="F216" s="1">
-        <v>118.26931</v>
-      </c>
-      <c r="G216" s="2">
+      <c r="F216" s="2">
         <v>126387100</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A217" s="3">
-        <v>44139</v>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A217" s="3" t="str">
+        <v>2020-11-04</v>
       </c>
       <c r="B217" s="1">
         <v>114.139999</v>
@@ -5406,16 +4760,13 @@
       <c r="E217" s="1">
         <v>114.949997</v>
       </c>
-      <c r="F217" s="1">
-        <v>114.215385</v>
-      </c>
-      <c r="G217" s="2">
+      <c r="F217" s="2">
         <v>138235500</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A218" s="3">
-        <v>44138</v>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A218" s="3" t="str">
+        <v>2020-11-03</v>
       </c>
       <c r="B218" s="1">
         <v>109.660004</v>
@@ -5429,16 +4780,13 @@
       <c r="E218" s="1">
         <v>110.44000200000001</v>
       </c>
-      <c r="F218" s="1">
-        <v>109.734207</v>
-      </c>
-      <c r="G218" s="2">
+      <c r="F218" s="2">
         <v>107624400</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A219" s="3">
-        <v>44137</v>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A219" s="3" t="str">
+        <v>2020-11-02</v>
       </c>
       <c r="B219" s="1">
         <v>109.110001</v>
@@ -5452,16 +4800,13 @@
       <c r="E219" s="1">
         <v>108.769997</v>
       </c>
-      <c r="F219" s="1">
-        <v>108.074883</v>
-      </c>
-      <c r="G219" s="2">
+      <c r="F219" s="2">
         <v>122866900</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A220" s="3">
-        <v>44134</v>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A220" s="3" t="str">
+        <v>2020-10-30</v>
       </c>
       <c r="B220" s="1">
         <v>111.05999799999999</v>
@@ -5475,16 +4820,13 @@
       <c r="E220" s="1">
         <v>108.860001</v>
       </c>
-      <c r="F220" s="1">
-        <v>108.16430699999999</v>
-      </c>
-      <c r="G220" s="2">
+      <c r="F220" s="2">
         <v>190272600</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A221" s="3">
-        <v>44133</v>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A221" s="3" t="str">
+        <v>2020-10-29</v>
       </c>
       <c r="B221" s="1">
         <v>112.370003</v>
@@ -5498,16 +4840,13 @@
       <c r="E221" s="1">
         <v>115.32</v>
       </c>
-      <c r="F221" s="1">
-        <v>114.583023</v>
-      </c>
-      <c r="G221" s="2">
+      <c r="F221" s="2">
         <v>146129200</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A222" s="3">
-        <v>44132</v>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A222" s="3" t="str">
+        <v>2020-10-28</v>
       </c>
       <c r="B222" s="1">
         <v>115.050003</v>
@@ -5521,16 +4860,13 @@
       <c r="E222" s="1">
         <v>111.199997</v>
       </c>
-      <c r="F222" s="1">
-        <v>110.489349</v>
-      </c>
-      <c r="G222" s="2">
+      <c r="F222" s="2">
         <v>143937800</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A223" s="3">
-        <v>44131</v>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A223" s="3" t="str">
+        <v>2020-10-27</v>
       </c>
       <c r="B223" s="1">
         <v>115.489998</v>
@@ -5544,16 +4880,13 @@
       <c r="E223" s="1">
         <v>116.599998</v>
       </c>
-      <c r="F223" s="1">
-        <v>115.854843</v>
-      </c>
-      <c r="G223" s="2">
+      <c r="F223" s="2">
         <v>92276800</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A224" s="3">
-        <v>44130</v>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A224" s="3" t="str">
+        <v>2020-10-26</v>
       </c>
       <c r="B224" s="1">
         <v>114.010002</v>
@@ -5567,16 +4900,13 @@
       <c r="E224" s="1">
         <v>115.050003</v>
       </c>
-      <c r="F224" s="1">
-        <v>114.314751</v>
-      </c>
-      <c r="G224" s="2">
+      <c r="F224" s="2">
         <v>111850700</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A225" s="3">
-        <v>44127</v>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A225" s="3" t="str">
+        <v>2020-10-23</v>
       </c>
       <c r="B225" s="1">
         <v>116.389999</v>
@@ -5590,16 +4920,13 @@
       <c r="E225" s="1">
         <v>115.040001</v>
       </c>
-      <c r="F225" s="1">
-        <v>114.304817</v>
-      </c>
-      <c r="G225" s="2">
+      <c r="F225" s="2">
         <v>82572600</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A226" s="3">
-        <v>44126</v>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A226" s="3" t="str">
+        <v>2020-10-22</v>
       </c>
       <c r="B226" s="1">
         <v>117.449997</v>
@@ -5613,16 +4940,13 @@
       <c r="E226" s="1">
         <v>115.75</v>
       </c>
-      <c r="F226" s="1">
-        <v>115.01026899999999</v>
-      </c>
-      <c r="G226" s="2">
+      <c r="F226" s="2">
         <v>101988000</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A227" s="3">
-        <v>44125</v>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A227" s="3" t="str">
+        <v>2020-10-21</v>
       </c>
       <c r="B227" s="1">
         <v>116.66999800000001</v>
@@ -5636,16 +4960,13 @@
       <c r="E227" s="1">
         <v>116.870003</v>
       </c>
-      <c r="F227" s="1">
-        <v>116.12312300000001</v>
-      </c>
-      <c r="G227" s="2">
+      <c r="F227" s="2">
         <v>89946000</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A228" s="3">
-        <v>44124</v>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A228" s="3" t="str">
+        <v>2020-10-20</v>
       </c>
       <c r="B228" s="1">
         <v>116.199997</v>
@@ -5659,16 +4980,13 @@
       <c r="E228" s="1">
         <v>117.510002</v>
       </c>
-      <c r="F228" s="1">
-        <v>116.759033</v>
-      </c>
-      <c r="G228" s="2">
+      <c r="F228" s="2">
         <v>124423700</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A229" s="3">
-        <v>44123</v>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A229" s="3" t="str">
+        <v>2020-10-19</v>
       </c>
       <c r="B229" s="1">
         <v>119.959999</v>
@@ -5682,16 +5000,13 @@
       <c r="E229" s="1">
         <v>115.980003</v>
       </c>
-      <c r="F229" s="1">
-        <v>115.2388</v>
-      </c>
-      <c r="G229" s="2">
+      <c r="F229" s="2">
         <v>120639300</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A230" s="3">
-        <v>44120</v>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A230" s="3" t="str">
+        <v>2020-10-16</v>
       </c>
       <c r="B230" s="1">
         <v>121.279999</v>
@@ -5705,16 +5020,13 @@
       <c r="E230" s="1">
         <v>119.019997</v>
       </c>
-      <c r="F230" s="1">
-        <v>118.25936900000001</v>
-      </c>
-      <c r="G230" s="2">
+      <c r="F230" s="2">
         <v>115393800</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A231" s="3">
-        <v>44119</v>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A231" s="3" t="str">
+        <v>2020-10-15</v>
       </c>
       <c r="B231" s="1">
         <v>118.720001</v>
@@ -5728,16 +5040,13 @@
       <c r="E231" s="1">
         <v>120.709999</v>
       </c>
-      <c r="F231" s="1">
-        <v>119.938568</v>
-      </c>
-      <c r="G231" s="2">
+      <c r="F231" s="2">
         <v>112559200</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A232" s="3">
-        <v>44118</v>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A232" s="3" t="str">
+        <v>2020-10-14</v>
       </c>
       <c r="B232" s="1">
         <v>121</v>
@@ -5751,16 +5060,13 @@
       <c r="E232" s="1">
         <v>121.19000200000001</v>
       </c>
-      <c r="F232" s="1">
-        <v>120.41551200000001</v>
-      </c>
-      <c r="G232" s="2">
+      <c r="F232" s="2">
         <v>150712000</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A233" s="3">
-        <v>44117</v>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A233" s="3" t="str">
+        <v>2020-10-13</v>
       </c>
       <c r="B233" s="1">
         <v>125.269997</v>
@@ -5774,16 +5080,13 @@
       <c r="E233" s="1">
         <v>121.099998</v>
       </c>
-      <c r="F233" s="1">
-        <v>120.32607299999999</v>
-      </c>
-      <c r="G233" s="2">
+      <c r="F233" s="2">
         <v>262330500</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A234" s="3">
-        <v>44116</v>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A234" s="3" t="str">
+        <v>2020-10-12</v>
       </c>
       <c r="B234" s="1">
         <v>120.05999799999999</v>
@@ -5797,16 +5100,13 @@
       <c r="E234" s="1">
         <v>124.400002</v>
       </c>
-      <c r="F234" s="1">
-        <v>123.604996</v>
-      </c>
-      <c r="G234" s="2">
+      <c r="F234" s="2">
         <v>240226800</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A235" s="3">
-        <v>44113</v>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A235" s="3" t="str">
+        <v>2020-10-09</v>
       </c>
       <c r="B235" s="1">
         <v>115.279999</v>
@@ -5820,16 +5120,13 @@
       <c r="E235" s="1">
         <v>116.970001</v>
       </c>
-      <c r="F235" s="1">
-        <v>116.22247299999999</v>
-      </c>
-      <c r="G235" s="2">
+      <c r="F235" s="2">
         <v>100506900</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A236" s="3">
-        <v>44112</v>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A236" s="3" t="str">
+        <v>2020-10-08</v>
       </c>
       <c r="B236" s="1">
         <v>116.25</v>
@@ -5843,16 +5140,13 @@
       <c r="E236" s="1">
         <v>114.970001</v>
       </c>
-      <c r="F236" s="1">
-        <v>114.23526</v>
-      </c>
-      <c r="G236" s="2">
+      <c r="F236" s="2">
         <v>83477200</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A237" s="3">
-        <v>44111</v>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A237" s="3" t="str">
+        <v>2020-10-07</v>
       </c>
       <c r="B237" s="1">
         <v>114.620003</v>
@@ -5866,16 +5160,13 @@
       <c r="E237" s="1">
         <v>115.08000199999999</v>
       </c>
-      <c r="F237" s="1">
-        <v>114.344559</v>
-      </c>
-      <c r="G237" s="2">
+      <c r="F237" s="2">
         <v>96849000</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A238" s="3">
-        <v>44110</v>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A238" s="3" t="str">
+        <v>2020-10-06</v>
       </c>
       <c r="B238" s="1">
         <v>115.699997</v>
@@ -5889,16 +5180,13 @@
       <c r="E238" s="1">
         <v>113.160004</v>
       </c>
-      <c r="F238" s="1">
-        <v>112.436829</v>
-      </c>
-      <c r="G238" s="2">
+      <c r="F238" s="2">
         <v>161498200</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A239" s="3">
-        <v>44109</v>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A239" s="3" t="str">
+        <v>2020-10-05</v>
       </c>
       <c r="B239" s="1">
         <v>113.910004</v>
@@ -5912,16 +5200,13 @@
       <c r="E239" s="1">
         <v>116.5</v>
       </c>
-      <c r="F239" s="1">
-        <v>115.755478</v>
-      </c>
-      <c r="G239" s="2">
+      <c r="F239" s="2">
         <v>106243800</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A240" s="3">
-        <v>44106</v>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A240" s="3" t="str">
+        <v>2020-10-02</v>
       </c>
       <c r="B240" s="1">
         <v>112.889999</v>
@@ -5935,16 +5220,13 @@
       <c r="E240" s="1">
         <v>113.019997</v>
       </c>
-      <c r="F240" s="1">
-        <v>112.29772199999999</v>
-      </c>
-      <c r="G240" s="2">
+      <c r="F240" s="2">
         <v>144712000</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A241" s="3">
-        <v>44105</v>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A241" s="3" t="str">
+        <v>2020-10-01</v>
       </c>
       <c r="B241" s="1">
         <v>117.639999</v>
@@ -5958,16 +5240,13 @@
       <c r="E241" s="1">
         <v>116.790001</v>
       </c>
-      <c r="F241" s="1">
-        <v>116.04362500000001</v>
-      </c>
-      <c r="G241" s="2">
+      <c r="F241" s="2">
         <v>116120400</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A242" s="3">
-        <v>44104</v>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A242" s="3" t="str">
+        <v>2020-09-30</v>
       </c>
       <c r="B242" s="1">
         <v>113.790001</v>
@@ -5981,16 +5260,13 @@
       <c r="E242" s="1">
         <v>115.80999799999999</v>
       </c>
-      <c r="F242" s="1">
-        <v>115.06989299999999</v>
-      </c>
-      <c r="G242" s="2">
+      <c r="F242" s="2">
         <v>142675200</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A243" s="3">
-        <v>44103</v>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A243" s="3" t="str">
+        <v>2020-09-29</v>
       </c>
       <c r="B243" s="1">
         <v>114.550003</v>
@@ -6004,16 +5280,13 @@
       <c r="E243" s="1">
         <v>114.089996</v>
       </c>
-      <c r="F243" s="1">
-        <v>113.360878</v>
-      </c>
-      <c r="G243" s="2">
+      <c r="F243" s="2">
         <v>99382200</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A244" s="3">
-        <v>44102</v>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A244" s="3" t="str">
+        <v>2020-09-28</v>
       </c>
       <c r="B244" s="1">
         <v>115.010002</v>
@@ -6027,16 +5300,13 @@
       <c r="E244" s="1">
         <v>114.959999</v>
       </c>
-      <c r="F244" s="1">
-        <v>114.225311</v>
-      </c>
-      <c r="G244" s="2">
+      <c r="F244" s="2">
         <v>137672400</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A245" s="3">
-        <v>44099</v>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A245" s="3" t="str">
+        <v>2020-09-25</v>
       </c>
       <c r="B245" s="1">
         <v>108.43</v>
@@ -6050,16 +5320,13 @@
       <c r="E245" s="1">
         <v>112.279999</v>
       </c>
-      <c r="F245" s="1">
-        <v>111.562439</v>
-      </c>
-      <c r="G245" s="2">
+      <c r="F245" s="2">
         <v>149981400</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A246" s="3">
-        <v>44098</v>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A246" s="3" t="str">
+        <v>2020-09-24</v>
       </c>
       <c r="B246" s="1">
         <v>105.16999800000001</v>
@@ -6073,16 +5340,13 @@
       <c r="E246" s="1">
         <v>108.220001</v>
       </c>
-      <c r="F246" s="1">
-        <v>107.52840399999999</v>
-      </c>
-      <c r="G246" s="2">
+      <c r="F246" s="2">
         <v>167743300</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A247" s="3">
-        <v>44097</v>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A247" s="3" t="str">
+        <v>2020-09-23</v>
       </c>
       <c r="B247" s="1">
         <v>111.620003</v>
@@ -6096,16 +5360,13 @@
       <c r="E247" s="1">
         <v>107.120003</v>
       </c>
-      <c r="F247" s="1">
-        <v>106.43543200000001</v>
-      </c>
-      <c r="G247" s="2">
+      <c r="F247" s="2">
         <v>150718700</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A248" s="3">
-        <v>44096</v>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A248" s="3" t="str">
+        <v>2020-09-22</v>
       </c>
       <c r="B248" s="1">
         <v>112.68</v>
@@ -6119,16 +5380,13 @@
       <c r="E248" s="1">
         <v>111.80999799999999</v>
       </c>
-      <c r="F248" s="1">
-        <v>111.095444</v>
-      </c>
-      <c r="G248" s="2">
+      <c r="F248" s="2">
         <v>183055400</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A249" s="3">
-        <v>44095</v>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A249" s="3" t="str">
+        <v>2020-09-21</v>
       </c>
       <c r="B249" s="1">
         <v>104.540001</v>
@@ -6142,16 +5400,13 @@
       <c r="E249" s="1">
         <v>110.08000199999999</v>
       </c>
-      <c r="F249" s="1">
-        <v>109.37651099999999</v>
-      </c>
-      <c r="G249" s="2">
+      <c r="F249" s="2">
         <v>195713800</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A250" s="3">
-        <v>44092</v>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A250" s="3" t="str">
+        <v>2020-09-18</v>
       </c>
       <c r="B250" s="1">
         <v>110.400002</v>
@@ -6165,16 +5420,13 @@
       <c r="E250" s="1">
         <v>106.839996</v>
       </c>
-      <c r="F250" s="1">
-        <v>106.157211</v>
-      </c>
-      <c r="G250" s="2">
+      <c r="F250" s="2">
         <v>287104900</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A251" s="3">
-        <v>44091</v>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A251" s="3" t="str">
+        <v>2020-09-17</v>
       </c>
       <c r="B251" s="1">
         <v>109.720001</v>
@@ -6188,16 +5440,13 @@
       <c r="E251" s="1">
         <v>110.339996</v>
       </c>
-      <c r="F251" s="1">
-        <v>109.63485</v>
-      </c>
-      <c r="G251" s="2">
+      <c r="F251" s="2">
         <v>178011000</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A252" s="3">
-        <v>44090</v>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A252" s="3" t="str">
+        <v>2020-09-16</v>
       </c>
       <c r="B252" s="1">
         <v>115.230003</v>
@@ -6211,16 +5460,13 @@
       <c r="E252" s="1">
         <v>112.129997</v>
       </c>
-      <c r="F252" s="1">
-        <v>111.41340599999999</v>
-      </c>
-      <c r="G252" s="2">
+      <c r="F252" s="2">
         <v>154679000</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A253" s="3">
-        <v>44089</v>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A253" s="3" t="str">
+        <v>2020-09-15</v>
       </c>
       <c r="B253" s="1">
         <v>118.33000199999999</v>
@@ -6234,16 +5480,13 @@
       <c r="E253" s="1">
         <v>115.540001</v>
       </c>
-      <c r="F253" s="1">
-        <v>114.80162</v>
-      </c>
-      <c r="G253" s="2">
+      <c r="F253" s="2">
         <v>184642000</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A254" s="3">
-        <v>44088</v>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A254" s="3" t="str">
+        <v>2020-09-14</v>
       </c>
       <c r="B254" s="1">
         <v>114.720001</v>
@@ -6257,16 +5500,13 @@
       <c r="E254" s="1">
         <v>115.360001</v>
       </c>
-      <c r="F254" s="1">
-        <v>114.622765</v>
-      </c>
-      <c r="G254" s="2">
+      <c r="F254" s="2">
         <v>140150100</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A255" s="3">
-        <v>44085</v>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A255" s="3" t="str">
+        <v>2020-09-11</v>
       </c>
       <c r="B255" s="1">
         <v>114.57</v>
@@ -6280,10 +5520,7 @@
       <c r="E255" s="1">
         <v>112</v>
       </c>
-      <c r="F255" s="1">
-        <v>111.28424099999999</v>
-      </c>
-      <c r="G255" s="2">
+      <c r="F255" s="2">
         <v>180860300</v>
       </c>
     </row>

--- a/Examples/Historical Prices.xlsx
+++ b/Examples/Historical Prices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\others\Data\XLQuote\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD97C3CC-CE86-4A08-8CA7-3690BDD7F32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B46FCED8-5529-4FF6-9D37-E720E06F9EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,25 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Open</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>Close</t>
-  </si>
-  <si>
-    <t>Volume</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>AAPL</t>
   </si>
@@ -460,5068 +442,5068 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" t="s">
-        <v>5</v>
+      <c r="A3" t="str" cm="1">
+        <f t="array" ref="A3:F255">_xll.xlquoteOHLCV(Symbol)</f>
+        <v>Date</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Open</v>
+      </c>
+      <c r="C3" t="str">
+        <v>High</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Low</v>
+      </c>
+      <c r="E3" t="str">
+        <v>Close</v>
+      </c>
+      <c r="F3" t="str">
+        <v>Volume</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" s="3" t="str" cm="1">
-        <f t="array" ref="A4:F255">_xll.xlquoteOHLCV(Symbol)</f>
-        <v>2021-09-10</v>
+      <c r="A4" s="3" t="str">
+        <v>2021-09-13</v>
       </c>
       <c r="B4" s="1">
-        <v>155</v>
+        <v>150.63000500000001</v>
       </c>
       <c r="C4" s="1">
-        <v>155.479996</v>
+        <v>151.41000399999999</v>
       </c>
       <c r="D4" s="1">
-        <v>148.699997</v>
+        <v>148.75</v>
       </c>
       <c r="E4" s="1">
-        <v>148.970001</v>
+        <v>149.550003</v>
       </c>
       <c r="F4" s="2">
-        <v>140646400</v>
+        <v>97750498</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="str">
-        <v>2021-09-09</v>
+        <v>2021-09-10</v>
       </c>
       <c r="B5" s="1">
-        <v>155.490005</v>
+        <v>155</v>
       </c>
       <c r="C5" s="1">
-        <v>156.11000100000001</v>
+        <v>155.479996</v>
       </c>
       <c r="D5" s="1">
-        <v>153.949997</v>
+        <v>148.699997</v>
       </c>
       <c r="E5" s="1">
-        <v>154.070007</v>
+        <v>148.970001</v>
       </c>
       <c r="F5" s="2">
-        <v>57305700</v>
+        <v>140646400</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="str">
-        <v>2021-09-08</v>
+        <v>2021-09-09</v>
       </c>
       <c r="B6" s="1">
-        <v>156.979996</v>
+        <v>155.490005</v>
       </c>
       <c r="C6" s="1">
-        <v>157.03999300000001</v>
+        <v>156.11000100000001</v>
       </c>
       <c r="D6" s="1">
-        <v>153.979996</v>
+        <v>153.949997</v>
       </c>
       <c r="E6" s="1">
-        <v>155.11000100000001</v>
+        <v>154.070007</v>
       </c>
       <c r="F6" s="2">
-        <v>74420200</v>
+        <v>57305700</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="str">
-        <v>2021-09-07</v>
+        <v>2021-09-08</v>
       </c>
       <c r="B7" s="1">
-        <v>154.970001</v>
+        <v>156.979996</v>
       </c>
       <c r="C7" s="1">
-        <v>157.259995</v>
+        <v>157.03999300000001</v>
       </c>
       <c r="D7" s="1">
-        <v>154.38999899999999</v>
+        <v>153.979996</v>
       </c>
       <c r="E7" s="1">
-        <v>156.69000199999999</v>
+        <v>155.11000100000001</v>
       </c>
       <c r="F7" s="2">
-        <v>82278300</v>
+        <v>74420200</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="str">
-        <v>2021-09-03</v>
+        <v>2021-09-07</v>
       </c>
       <c r="B8" s="1">
-        <v>153.759995</v>
+        <v>154.970001</v>
       </c>
       <c r="C8" s="1">
-        <v>154.63000500000001</v>
+        <v>157.259995</v>
       </c>
       <c r="D8" s="1">
-        <v>153.08999600000001</v>
+        <v>154.38999899999999</v>
       </c>
       <c r="E8" s="1">
-        <v>154.300003</v>
+        <v>156.69000199999999</v>
       </c>
       <c r="F8" s="2">
-        <v>57808700</v>
+        <v>82278300</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="str">
-        <v>2021-09-02</v>
+        <v>2021-09-03</v>
       </c>
       <c r="B9" s="1">
-        <v>153.86999499999999</v>
+        <v>153.759995</v>
       </c>
       <c r="C9" s="1">
-        <v>154.720001</v>
+        <v>154.63000500000001</v>
       </c>
       <c r="D9" s="1">
-        <v>152.39999399999999</v>
+        <v>153.08999600000001</v>
       </c>
       <c r="E9" s="1">
-        <v>153.64999399999999</v>
+        <v>154.300003</v>
       </c>
       <c r="F9" s="2">
-        <v>71115500</v>
+        <v>57808700</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="str">
-        <v>2021-09-01</v>
+        <v>2021-09-02</v>
       </c>
       <c r="B10" s="1">
-        <v>152.83000200000001</v>
+        <v>153.86999499999999</v>
       </c>
       <c r="C10" s="1">
-        <v>154.979996</v>
+        <v>154.720001</v>
       </c>
       <c r="D10" s="1">
-        <v>152.33999600000001</v>
+        <v>152.39999399999999</v>
       </c>
       <c r="E10" s="1">
-        <v>152.509995</v>
+        <v>153.64999399999999</v>
       </c>
       <c r="F10" s="2">
-        <v>80313700</v>
+        <v>71115500</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="str">
-        <v>2021-08-31</v>
+        <v>2021-09-01</v>
       </c>
       <c r="B11" s="1">
-        <v>152.66000399999999</v>
+        <v>152.83000200000001</v>
       </c>
       <c r="C11" s="1">
-        <v>152.800003</v>
+        <v>154.979996</v>
       </c>
       <c r="D11" s="1">
-        <v>151.28999300000001</v>
+        <v>152.33999600000001</v>
       </c>
       <c r="E11" s="1">
-        <v>151.83000200000001</v>
+        <v>152.509995</v>
       </c>
       <c r="F11" s="2">
-        <v>86453100</v>
+        <v>80313700</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="str">
-        <v>2021-08-30</v>
+        <v>2021-08-31</v>
       </c>
       <c r="B12" s="1">
-        <v>149</v>
+        <v>152.66000399999999</v>
       </c>
       <c r="C12" s="1">
-        <v>153.490005</v>
+        <v>152.800003</v>
       </c>
       <c r="D12" s="1">
-        <v>148.61000100000001</v>
+        <v>151.28999300000001</v>
       </c>
       <c r="E12" s="1">
-        <v>153.11999499999999</v>
+        <v>151.83000200000001</v>
       </c>
       <c r="F12" s="2">
-        <v>90956700</v>
+        <v>86453100</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="str">
-        <v>2021-08-27</v>
+        <v>2021-08-30</v>
       </c>
       <c r="B13" s="1">
-        <v>147.479996</v>
+        <v>149</v>
       </c>
       <c r="C13" s="1">
-        <v>148.75</v>
+        <v>153.490005</v>
       </c>
       <c r="D13" s="1">
-        <v>146.83000200000001</v>
+        <v>148.61000100000001</v>
       </c>
       <c r="E13" s="1">
-        <v>148.60000600000001</v>
+        <v>153.11999499999999</v>
       </c>
       <c r="F13" s="2">
-        <v>55721500</v>
+        <v>90956700</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="str">
-        <v>2021-08-26</v>
+        <v>2021-08-27</v>
       </c>
       <c r="B14" s="1">
-        <v>148.35000600000001</v>
+        <v>147.479996</v>
       </c>
       <c r="C14" s="1">
-        <v>149.11999499999999</v>
+        <v>148.75</v>
       </c>
       <c r="D14" s="1">
-        <v>147.509995</v>
+        <v>146.83000200000001</v>
       </c>
       <c r="E14" s="1">
-        <v>147.53999300000001</v>
+        <v>148.60000600000001</v>
       </c>
       <c r="F14" s="2">
-        <v>48597200</v>
+        <v>55721500</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="str">
-        <v>2021-08-25</v>
+        <v>2021-08-26</v>
       </c>
       <c r="B15" s="1">
-        <v>149.80999800000001</v>
+        <v>148.35000600000001</v>
       </c>
       <c r="C15" s="1">
-        <v>150.320007</v>
+        <v>149.11999499999999</v>
       </c>
       <c r="D15" s="1">
-        <v>147.800003</v>
+        <v>147.509995</v>
       </c>
       <c r="E15" s="1">
-        <v>148.36000100000001</v>
+        <v>147.53999300000001</v>
       </c>
       <c r="F15" s="2">
-        <v>58991300</v>
+        <v>48597200</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="str">
-        <v>2021-08-24</v>
+        <v>2021-08-25</v>
       </c>
       <c r="B16" s="1">
-        <v>149.449997</v>
+        <v>149.80999800000001</v>
       </c>
       <c r="C16" s="1">
-        <v>150.86000100000001</v>
+        <v>150.320007</v>
       </c>
       <c r="D16" s="1">
-        <v>149.14999399999999</v>
+        <v>147.800003</v>
       </c>
       <c r="E16" s="1">
-        <v>149.61999499999999</v>
+        <v>148.36000100000001</v>
       </c>
       <c r="F16" s="2">
-        <v>48606400</v>
+        <v>58991300</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="str">
-        <v>2021-08-23</v>
+        <v>2021-08-24</v>
       </c>
       <c r="B17" s="1">
-        <v>148.30999800000001</v>
+        <v>149.449997</v>
       </c>
       <c r="C17" s="1">
-        <v>150.19000199999999</v>
+        <v>150.86000100000001</v>
       </c>
       <c r="D17" s="1">
-        <v>147.88999899999999</v>
+        <v>149.14999399999999</v>
       </c>
       <c r="E17" s="1">
-        <v>149.71000699999999</v>
+        <v>149.61999499999999</v>
       </c>
       <c r="F17" s="2">
-        <v>60131800</v>
+        <v>48606400</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="str">
-        <v>2021-08-20</v>
+        <v>2021-08-23</v>
       </c>
       <c r="B18" s="1">
-        <v>147.44000199999999</v>
+        <v>148.30999800000001</v>
       </c>
       <c r="C18" s="1">
-        <v>148.5</v>
+        <v>150.19000199999999</v>
       </c>
       <c r="D18" s="1">
-        <v>146.779999</v>
+        <v>147.88999899999999</v>
       </c>
       <c r="E18" s="1">
-        <v>148.19000199999999</v>
+        <v>149.71000699999999</v>
       </c>
       <c r="F18" s="2">
-        <v>59947400</v>
+        <v>60131800</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="str">
-        <v>2021-08-19</v>
+        <v>2021-08-20</v>
       </c>
       <c r="B19" s="1">
-        <v>145.029999</v>
+        <v>147.44000199999999</v>
       </c>
       <c r="C19" s="1">
-        <v>148</v>
+        <v>148.5</v>
       </c>
       <c r="D19" s="1">
-        <v>144.5</v>
+        <v>146.779999</v>
       </c>
       <c r="E19" s="1">
-        <v>146.699997</v>
+        <v>148.19000199999999</v>
       </c>
       <c r="F19" s="2">
-        <v>86960300</v>
+        <v>59947400</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="str">
-        <v>2021-08-18</v>
+        <v>2021-08-19</v>
       </c>
       <c r="B20" s="1">
-        <v>149.800003</v>
+        <v>145.029999</v>
       </c>
       <c r="C20" s="1">
-        <v>150.720001</v>
+        <v>148</v>
       </c>
       <c r="D20" s="1">
-        <v>146.14999399999999</v>
+        <v>144.5</v>
       </c>
       <c r="E20" s="1">
-        <v>146.36000100000001</v>
+        <v>146.699997</v>
       </c>
       <c r="F20" s="2">
-        <v>86326000</v>
+        <v>86960300</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="3" t="str">
-        <v>2021-08-17</v>
+        <v>2021-08-18</v>
       </c>
       <c r="B21" s="1">
-        <v>150.229996</v>
+        <v>149.800003</v>
       </c>
       <c r="C21" s="1">
-        <v>151.679993</v>
+        <v>150.720001</v>
       </c>
       <c r="D21" s="1">
-        <v>149.08999600000001</v>
+        <v>146.14999399999999</v>
       </c>
       <c r="E21" s="1">
-        <v>150.19000199999999</v>
+        <v>146.36000100000001</v>
       </c>
       <c r="F21" s="2">
-        <v>92229700</v>
+        <v>86326000</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="str">
-        <v>2021-08-16</v>
+        <v>2021-08-17</v>
       </c>
       <c r="B22" s="1">
-        <v>148.53999300000001</v>
+        <v>150.229996</v>
       </c>
       <c r="C22" s="1">
-        <v>151.19000199999999</v>
+        <v>151.679993</v>
       </c>
       <c r="D22" s="1">
-        <v>146.470001</v>
+        <v>149.08999600000001</v>
       </c>
       <c r="E22" s="1">
-        <v>151.11999499999999</v>
+        <v>150.19000199999999</v>
       </c>
       <c r="F22" s="2">
-        <v>103296000</v>
+        <v>92229700</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="3" t="str">
-        <v>2021-08-13</v>
+        <v>2021-08-16</v>
       </c>
       <c r="B23" s="1">
-        <v>148.970001</v>
+        <v>148.53999300000001</v>
       </c>
       <c r="C23" s="1">
-        <v>149.44000199999999</v>
+        <v>151.19000199999999</v>
       </c>
       <c r="D23" s="1">
-        <v>148.270004</v>
+        <v>146.470001</v>
       </c>
       <c r="E23" s="1">
-        <v>149.10000600000001</v>
+        <v>151.11999499999999</v>
       </c>
       <c r="F23" s="2">
-        <v>59318800</v>
+        <v>103296000</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="str">
-        <v>2021-08-12</v>
+        <v>2021-08-13</v>
       </c>
       <c r="B24" s="1">
-        <v>146.19000199999999</v>
+        <v>148.970001</v>
       </c>
       <c r="C24" s="1">
-        <v>149.050003</v>
+        <v>149.44000199999999</v>
       </c>
       <c r="D24" s="1">
-        <v>145.83999600000001</v>
+        <v>148.270004</v>
       </c>
       <c r="E24" s="1">
-        <v>148.88999899999999</v>
+        <v>149.10000600000001</v>
       </c>
       <c r="F24" s="2">
-        <v>72282600</v>
+        <v>59318800</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="3" t="str">
-        <v>2021-08-11</v>
+        <v>2021-08-12</v>
       </c>
       <c r="B25" s="1">
-        <v>146.050003</v>
+        <v>146.19000199999999</v>
       </c>
       <c r="C25" s="1">
-        <v>146.720001</v>
+        <v>149.050003</v>
       </c>
       <c r="D25" s="1">
-        <v>145.529999</v>
+        <v>145.83999600000001</v>
       </c>
       <c r="E25" s="1">
-        <v>145.86000100000001</v>
+        <v>148.88999899999999</v>
       </c>
       <c r="F25" s="2">
-        <v>48493500</v>
+        <v>72282600</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="str">
-        <v>2021-08-10</v>
+        <v>2021-08-11</v>
       </c>
       <c r="B26" s="1">
-        <v>146.44000199999999</v>
+        <v>146.050003</v>
       </c>
       <c r="C26" s="1">
-        <v>147.71000699999999</v>
+        <v>146.720001</v>
       </c>
       <c r="D26" s="1">
-        <v>145.300003</v>
+        <v>145.529999</v>
       </c>
       <c r="E26" s="1">
-        <v>145.60000600000001</v>
+        <v>145.86000100000001</v>
       </c>
       <c r="F26" s="2">
-        <v>69023100</v>
+        <v>48493500</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" s="3" t="str">
-        <v>2021-08-09</v>
+        <v>2021-08-10</v>
       </c>
       <c r="B27" s="1">
-        <v>146.199997</v>
+        <v>146.44000199999999</v>
       </c>
       <c r="C27" s="1">
-        <v>146.699997</v>
+        <v>147.71000699999999</v>
       </c>
       <c r="D27" s="1">
-        <v>145.520004</v>
+        <v>145.300003</v>
       </c>
       <c r="E27" s="1">
-        <v>146.08999600000001</v>
+        <v>145.60000600000001</v>
       </c>
       <c r="F27" s="2">
-        <v>48908700</v>
+        <v>69023100</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" s="3" t="str">
-        <v>2021-08-06</v>
+        <v>2021-08-09</v>
       </c>
       <c r="B28" s="1">
-        <v>146.35000600000001</v>
+        <v>146.199997</v>
       </c>
       <c r="C28" s="1">
-        <v>147.11000100000001</v>
+        <v>146.699997</v>
       </c>
       <c r="D28" s="1">
-        <v>145.63000500000001</v>
+        <v>145.520004</v>
       </c>
       <c r="E28" s="1">
-        <v>146.13999899999999</v>
+        <v>146.08999600000001</v>
       </c>
       <c r="F28" s="2">
-        <v>54067400</v>
+        <v>48908700</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" s="3" t="str">
-        <v>2021-08-05</v>
+        <v>2021-08-06</v>
       </c>
       <c r="B29" s="1">
-        <v>146.979996</v>
+        <v>146.35000600000001</v>
       </c>
       <c r="C29" s="1">
-        <v>147.83999600000001</v>
+        <v>147.11000100000001</v>
       </c>
       <c r="D29" s="1">
-        <v>146.16999799999999</v>
+        <v>145.63000500000001</v>
       </c>
       <c r="E29" s="1">
-        <v>147.05999800000001</v>
+        <v>146.13999899999999</v>
       </c>
       <c r="F29" s="2">
-        <v>46397700</v>
+        <v>54067400</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" s="3" t="str">
-        <v>2021-08-04</v>
+        <v>2021-08-05</v>
       </c>
       <c r="B30" s="1">
-        <v>147.270004</v>
+        <v>146.979996</v>
       </c>
       <c r="C30" s="1">
-        <v>147.78999300000001</v>
+        <v>147.83999600000001</v>
       </c>
       <c r="D30" s="1">
-        <v>146.279999</v>
+        <v>146.16999799999999</v>
       </c>
       <c r="E30" s="1">
-        <v>146.949997</v>
+        <v>147.05999800000001</v>
       </c>
       <c r="F30" s="2">
-        <v>56368300</v>
+        <v>46397700</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" s="3" t="str">
-        <v>2021-08-03</v>
+        <v>2021-08-04</v>
       </c>
       <c r="B31" s="1">
-        <v>145.80999800000001</v>
+        <v>147.270004</v>
       </c>
       <c r="C31" s="1">
-        <v>148.03999300000001</v>
+        <v>147.78999300000001</v>
       </c>
       <c r="D31" s="1">
-        <v>145.179993</v>
+        <v>146.279999</v>
       </c>
       <c r="E31" s="1">
-        <v>147.36000100000001</v>
+        <v>146.949997</v>
       </c>
       <c r="F31" s="2">
-        <v>64786600</v>
+        <v>56368300</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="str">
-        <v>2021-08-02</v>
+        <v>2021-08-03</v>
       </c>
       <c r="B32" s="1">
-        <v>146.36000100000001</v>
+        <v>145.80999800000001</v>
       </c>
       <c r="C32" s="1">
-        <v>146.949997</v>
+        <v>148.03999300000001</v>
       </c>
       <c r="D32" s="1">
-        <v>145.25</v>
+        <v>145.179993</v>
       </c>
       <c r="E32" s="1">
-        <v>145.520004</v>
+        <v>147.36000100000001</v>
       </c>
       <c r="F32" s="2">
-        <v>62880000</v>
+        <v>64786600</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33" s="3" t="str">
-        <v>2021-07-30</v>
+        <v>2021-08-02</v>
       </c>
       <c r="B33" s="1">
-        <v>144.38000500000001</v>
+        <v>146.36000100000001</v>
       </c>
       <c r="C33" s="1">
-        <v>146.33000200000001</v>
+        <v>146.949997</v>
       </c>
       <c r="D33" s="1">
-        <v>144.11000100000001</v>
+        <v>145.25</v>
       </c>
       <c r="E33" s="1">
-        <v>145.86000100000001</v>
+        <v>145.520004</v>
       </c>
       <c r="F33" s="2">
-        <v>70382000</v>
+        <v>62880000</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34" s="3" t="str">
-        <v>2021-07-29</v>
+        <v>2021-07-30</v>
       </c>
       <c r="B34" s="1">
-        <v>144.69000199999999</v>
+        <v>144.38000500000001</v>
       </c>
       <c r="C34" s="1">
-        <v>146.550003</v>
+        <v>146.33000200000001</v>
       </c>
       <c r="D34" s="1">
-        <v>144.58000200000001</v>
+        <v>144.11000100000001</v>
       </c>
       <c r="E34" s="1">
-        <v>145.63999899999999</v>
+        <v>145.86000100000001</v>
       </c>
       <c r="F34" s="2">
-        <v>56699500</v>
+        <v>70382000</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" s="3" t="str">
-        <v>2021-07-28</v>
+        <v>2021-07-29</v>
       </c>
       <c r="B35" s="1">
-        <v>144.80999800000001</v>
+        <v>144.69000199999999</v>
       </c>
       <c r="C35" s="1">
-        <v>146.970001</v>
+        <v>146.550003</v>
       </c>
       <c r="D35" s="1">
-        <v>142.53999300000001</v>
+        <v>144.58000200000001</v>
       </c>
       <c r="E35" s="1">
-        <v>144.979996</v>
+        <v>145.63999899999999</v>
       </c>
       <c r="F35" s="2">
-        <v>118931200</v>
+        <v>56699500</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36" s="3" t="str">
-        <v>2021-07-27</v>
+        <v>2021-07-28</v>
       </c>
       <c r="B36" s="1">
-        <v>149.11999499999999</v>
+        <v>144.80999800000001</v>
       </c>
       <c r="C36" s="1">
-        <v>149.21000699999999</v>
+        <v>146.970001</v>
       </c>
       <c r="D36" s="1">
-        <v>145.550003</v>
+        <v>142.53999300000001</v>
       </c>
       <c r="E36" s="1">
-        <v>146.770004</v>
+        <v>144.979996</v>
       </c>
       <c r="F36" s="2">
-        <v>104818600</v>
+        <v>118931200</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37" s="3" t="str">
-        <v>2021-07-26</v>
+        <v>2021-07-27</v>
       </c>
       <c r="B37" s="1">
-        <v>148.270004</v>
+        <v>149.11999499999999</v>
       </c>
       <c r="C37" s="1">
-        <v>149.83000200000001</v>
+        <v>149.21000699999999</v>
       </c>
       <c r="D37" s="1">
-        <v>147.699997</v>
+        <v>145.550003</v>
       </c>
       <c r="E37" s="1">
-        <v>148.990005</v>
+        <v>146.770004</v>
       </c>
       <c r="F37" s="2">
-        <v>72434100</v>
+        <v>104818600</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="str">
-        <v>2021-07-23</v>
+        <v>2021-07-26</v>
       </c>
       <c r="B38" s="1">
-        <v>147.550003</v>
+        <v>148.270004</v>
       </c>
       <c r="C38" s="1">
-        <v>148.720001</v>
+        <v>149.83000200000001</v>
       </c>
       <c r="D38" s="1">
-        <v>146.91999799999999</v>
+        <v>147.699997</v>
       </c>
       <c r="E38" s="1">
-        <v>148.55999800000001</v>
+        <v>148.990005</v>
       </c>
       <c r="F38" s="2">
-        <v>71447400</v>
+        <v>72434100</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39" s="3" t="str">
-        <v>2021-07-22</v>
+        <v>2021-07-23</v>
       </c>
       <c r="B39" s="1">
-        <v>145.94000199999999</v>
+        <v>147.550003</v>
       </c>
       <c r="C39" s="1">
-        <v>148.199997</v>
+        <v>148.720001</v>
       </c>
       <c r="D39" s="1">
-        <v>145.80999800000001</v>
+        <v>146.91999799999999</v>
       </c>
       <c r="E39" s="1">
-        <v>146.800003</v>
+        <v>148.55999800000001</v>
       </c>
       <c r="F39" s="2">
-        <v>77338200</v>
+        <v>71447400</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40" s="3" t="str">
-        <v>2021-07-21</v>
+        <v>2021-07-22</v>
       </c>
       <c r="B40" s="1">
-        <v>145.529999</v>
+        <v>145.94000199999999</v>
       </c>
       <c r="C40" s="1">
-        <v>146.13000500000001</v>
+        <v>148.199997</v>
       </c>
       <c r="D40" s="1">
-        <v>144.63000500000001</v>
+        <v>145.80999800000001</v>
       </c>
       <c r="E40" s="1">
-        <v>145.39999399999999</v>
+        <v>146.800003</v>
       </c>
       <c r="F40" s="2">
-        <v>74993500</v>
+        <v>77338200</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41" s="3" t="str">
-        <v>2021-07-20</v>
+        <v>2021-07-21</v>
       </c>
       <c r="B41" s="1">
-        <v>143.46000699999999</v>
+        <v>145.529999</v>
       </c>
       <c r="C41" s="1">
-        <v>147.10000600000001</v>
+        <v>146.13000500000001</v>
       </c>
       <c r="D41" s="1">
-        <v>142.96000699999999</v>
+        <v>144.63000500000001</v>
       </c>
       <c r="E41" s="1">
-        <v>146.14999399999999</v>
+        <v>145.39999399999999</v>
       </c>
       <c r="F41" s="2">
-        <v>96350000</v>
+        <v>74993500</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42" s="3" t="str">
-        <v>2021-07-19</v>
+        <v>2021-07-20</v>
       </c>
       <c r="B42" s="1">
-        <v>143.75</v>
+        <v>143.46000699999999</v>
       </c>
       <c r="C42" s="1">
-        <v>144.070007</v>
+        <v>147.10000600000001</v>
       </c>
       <c r="D42" s="1">
-        <v>141.66999799999999</v>
+        <v>142.96000699999999</v>
       </c>
       <c r="E42" s="1">
-        <v>142.449997</v>
+        <v>146.14999399999999</v>
       </c>
       <c r="F42" s="2">
-        <v>121434600</v>
+        <v>96350000</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43" s="3" t="str">
-        <v>2021-07-16</v>
+        <v>2021-07-19</v>
       </c>
       <c r="B43" s="1">
-        <v>148.46000699999999</v>
+        <v>143.75</v>
       </c>
       <c r="C43" s="1">
-        <v>149.759995</v>
+        <v>144.070007</v>
       </c>
       <c r="D43" s="1">
-        <v>145.88000500000001</v>
+        <v>141.66999799999999</v>
       </c>
       <c r="E43" s="1">
-        <v>146.38999899999999</v>
+        <v>142.449997</v>
       </c>
       <c r="F43" s="2">
-        <v>93251400</v>
+        <v>121434600</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44" s="3" t="str">
-        <v>2021-07-15</v>
+        <v>2021-07-16</v>
       </c>
       <c r="B44" s="1">
-        <v>149.240005</v>
+        <v>148.46000699999999</v>
       </c>
       <c r="C44" s="1">
-        <v>150</v>
+        <v>149.759995</v>
       </c>
       <c r="D44" s="1">
-        <v>147.08999600000001</v>
+        <v>145.88000500000001</v>
       </c>
       <c r="E44" s="1">
-        <v>148.479996</v>
+        <v>146.38999899999999</v>
       </c>
       <c r="F44" s="2">
-        <v>106820300</v>
+        <v>93251400</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45" s="3" t="str">
-        <v>2021-07-14</v>
+        <v>2021-07-15</v>
       </c>
       <c r="B45" s="1">
-        <v>148.10000600000001</v>
+        <v>149.240005</v>
       </c>
       <c r="C45" s="1">
-        <v>149.570007</v>
+        <v>150</v>
       </c>
       <c r="D45" s="1">
-        <v>147.679993</v>
+        <v>147.08999600000001</v>
       </c>
       <c r="E45" s="1">
-        <v>149.14999399999999</v>
+        <v>148.479996</v>
       </c>
       <c r="F45" s="2">
-        <v>127050800</v>
+        <v>106820300</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46" s="3" t="str">
-        <v>2021-07-13</v>
+        <v>2021-07-14</v>
       </c>
       <c r="B46" s="1">
-        <v>144.029999</v>
+        <v>148.10000600000001</v>
       </c>
       <c r="C46" s="1">
-        <v>147.46000699999999</v>
+        <v>149.570007</v>
       </c>
       <c r="D46" s="1">
-        <v>143.63000500000001</v>
+        <v>147.679993</v>
       </c>
       <c r="E46" s="1">
-        <v>145.63999899999999</v>
+        <v>149.14999399999999</v>
       </c>
       <c r="F46" s="2">
-        <v>100827100</v>
+        <v>127050800</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47" s="3" t="str">
-        <v>2021-07-12</v>
+        <v>2021-07-13</v>
       </c>
       <c r="B47" s="1">
-        <v>146.21000699999999</v>
+        <v>144.029999</v>
       </c>
       <c r="C47" s="1">
-        <v>146.320007</v>
+        <v>147.46000699999999</v>
       </c>
       <c r="D47" s="1">
-        <v>144</v>
+        <v>143.63000500000001</v>
       </c>
       <c r="E47" s="1">
-        <v>144.5</v>
+        <v>145.63999899999999</v>
       </c>
       <c r="F47" s="2">
-        <v>76299700</v>
+        <v>100827100</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48" s="3" t="str">
-        <v>2021-07-09</v>
+        <v>2021-07-12</v>
       </c>
       <c r="B48" s="1">
-        <v>142.75</v>
+        <v>146.21000699999999</v>
       </c>
       <c r="C48" s="1">
-        <v>145.64999399999999</v>
+        <v>146.320007</v>
       </c>
       <c r="D48" s="1">
-        <v>142.64999399999999</v>
+        <v>144</v>
       </c>
       <c r="E48" s="1">
-        <v>145.11000100000001</v>
+        <v>144.5</v>
       </c>
       <c r="F48" s="2">
-        <v>99890800</v>
+        <v>76299700</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49" s="3" t="str">
-        <v>2021-07-08</v>
+        <v>2021-07-09</v>
       </c>
       <c r="B49" s="1">
-        <v>141.58000200000001</v>
+        <v>142.75</v>
       </c>
       <c r="C49" s="1">
-        <v>144.05999800000001</v>
+        <v>145.64999399999999</v>
       </c>
       <c r="D49" s="1">
-        <v>140.66999799999999</v>
+        <v>142.64999399999999</v>
       </c>
       <c r="E49" s="1">
-        <v>143.240005</v>
+        <v>145.11000100000001</v>
       </c>
       <c r="F49" s="2">
-        <v>105575500</v>
+        <v>99890800</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50" s="3" t="str">
-        <v>2021-07-07</v>
+        <v>2021-07-08</v>
       </c>
       <c r="B50" s="1">
-        <v>143.53999300000001</v>
+        <v>141.58000200000001</v>
       </c>
       <c r="C50" s="1">
-        <v>144.88999899999999</v>
+        <v>144.05999800000001</v>
       </c>
       <c r="D50" s="1">
-        <v>142.66000399999999</v>
+        <v>140.66999799999999</v>
       </c>
       <c r="E50" s="1">
-        <v>144.570007</v>
+        <v>143.240005</v>
       </c>
       <c r="F50" s="2">
-        <v>104911600</v>
+        <v>105575500</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51" s="3" t="str">
-        <v>2021-07-06</v>
+        <v>2021-07-07</v>
       </c>
       <c r="B51" s="1">
-        <v>140.070007</v>
+        <v>143.53999300000001</v>
       </c>
       <c r="C51" s="1">
-        <v>143.14999399999999</v>
+        <v>144.88999899999999</v>
       </c>
       <c r="D51" s="1">
-        <v>140.070007</v>
+        <v>142.66000399999999</v>
       </c>
       <c r="E51" s="1">
-        <v>142.020004</v>
+        <v>144.570007</v>
       </c>
       <c r="F51" s="2">
-        <v>108181800</v>
+        <v>104911600</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52" s="3" t="str">
-        <v>2021-07-02</v>
+        <v>2021-07-06</v>
       </c>
       <c r="B52" s="1">
-        <v>137.89999399999999</v>
+        <v>140.070007</v>
       </c>
       <c r="C52" s="1">
-        <v>140</v>
+        <v>143.14999399999999</v>
       </c>
       <c r="D52" s="1">
-        <v>137.75</v>
+        <v>140.070007</v>
       </c>
       <c r="E52" s="1">
-        <v>139.96000699999999</v>
+        <v>142.020004</v>
       </c>
       <c r="F52" s="2">
-        <v>78852600</v>
+        <v>108181800</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A53" s="3" t="str">
-        <v>2021-07-01</v>
+        <v>2021-07-02</v>
       </c>
       <c r="B53" s="1">
-        <v>136.60000600000001</v>
+        <v>137.89999399999999</v>
       </c>
       <c r="C53" s="1">
-        <v>137.33000200000001</v>
+        <v>140</v>
       </c>
       <c r="D53" s="1">
-        <v>135.759995</v>
+        <v>137.75</v>
       </c>
       <c r="E53" s="1">
-        <v>137.270004</v>
+        <v>139.96000699999999</v>
       </c>
       <c r="F53" s="2">
-        <v>52485800</v>
+        <v>78852600</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A54" s="3" t="str">
-        <v>2021-06-30</v>
+        <v>2021-07-01</v>
       </c>
       <c r="B54" s="1">
-        <v>136.16999799999999</v>
+        <v>136.60000600000001</v>
       </c>
       <c r="C54" s="1">
-        <v>137.41000399999999</v>
+        <v>137.33000200000001</v>
       </c>
       <c r="D54" s="1">
-        <v>135.86999499999999</v>
+        <v>135.759995</v>
       </c>
       <c r="E54" s="1">
-        <v>136.96000699999999</v>
+        <v>137.270004</v>
       </c>
       <c r="F54" s="2">
-        <v>63261400</v>
+        <v>52485800</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A55" s="3" t="str">
-        <v>2021-06-29</v>
+        <v>2021-06-30</v>
       </c>
       <c r="B55" s="1">
-        <v>134.800003</v>
+        <v>136.16999799999999</v>
       </c>
       <c r="C55" s="1">
-        <v>136.490005</v>
+        <v>137.41000399999999</v>
       </c>
       <c r="D55" s="1">
-        <v>134.35000600000001</v>
+        <v>135.86999499999999</v>
       </c>
       <c r="E55" s="1">
-        <v>136.33000200000001</v>
+        <v>136.96000699999999</v>
       </c>
       <c r="F55" s="2">
-        <v>64556100</v>
+        <v>63261400</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A56" s="3" t="str">
-        <v>2021-06-28</v>
+        <v>2021-06-29</v>
       </c>
       <c r="B56" s="1">
-        <v>133.41000399999999</v>
+        <v>134.800003</v>
       </c>
       <c r="C56" s="1">
-        <v>135.25</v>
+        <v>136.490005</v>
       </c>
       <c r="D56" s="1">
-        <v>133.35000600000001</v>
+        <v>134.35000600000001</v>
       </c>
       <c r="E56" s="1">
-        <v>134.779999</v>
+        <v>136.33000200000001</v>
       </c>
       <c r="F56" s="2">
-        <v>62111300</v>
+        <v>64556100</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A57" s="3" t="str">
-        <v>2021-06-25</v>
+        <v>2021-06-28</v>
       </c>
       <c r="B57" s="1">
-        <v>133.46000699999999</v>
+        <v>133.41000399999999</v>
       </c>
       <c r="C57" s="1">
-        <v>133.88999899999999</v>
+        <v>135.25</v>
       </c>
       <c r="D57" s="1">
-        <v>132.80999800000001</v>
+        <v>133.35000600000001</v>
       </c>
       <c r="E57" s="1">
-        <v>133.11000100000001</v>
+        <v>134.779999</v>
       </c>
       <c r="F57" s="2">
-        <v>70783700</v>
+        <v>62111300</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A58" s="3" t="str">
-        <v>2021-06-24</v>
+        <v>2021-06-25</v>
       </c>
       <c r="B58" s="1">
-        <v>134.449997</v>
+        <v>133.46000699999999</v>
       </c>
       <c r="C58" s="1">
-        <v>134.63999899999999</v>
+        <v>133.88999899999999</v>
       </c>
       <c r="D58" s="1">
-        <v>132.929993</v>
+        <v>132.80999800000001</v>
       </c>
       <c r="E58" s="1">
-        <v>133.41000399999999</v>
+        <v>133.11000100000001</v>
       </c>
       <c r="F58" s="2">
-        <v>68711000</v>
+        <v>70783700</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A59" s="3" t="str">
-        <v>2021-06-23</v>
+        <v>2021-06-24</v>
       </c>
       <c r="B59" s="1">
-        <v>133.770004</v>
+        <v>134.449997</v>
       </c>
       <c r="C59" s="1">
-        <v>134.320007</v>
+        <v>134.63999899999999</v>
       </c>
       <c r="D59" s="1">
-        <v>133.229996</v>
+        <v>132.929993</v>
       </c>
       <c r="E59" s="1">
-        <v>133.699997</v>
+        <v>133.41000399999999</v>
       </c>
       <c r="F59" s="2">
-        <v>60214200</v>
+        <v>68711000</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A60" s="3" t="str">
-        <v>2021-06-22</v>
+        <v>2021-06-23</v>
       </c>
       <c r="B60" s="1">
-        <v>132.13000500000001</v>
+        <v>133.770004</v>
       </c>
       <c r="C60" s="1">
-        <v>134.08000200000001</v>
+        <v>134.320007</v>
       </c>
       <c r="D60" s="1">
-        <v>131.61999499999999</v>
+        <v>133.229996</v>
       </c>
       <c r="E60" s="1">
-        <v>133.979996</v>
+        <v>133.699997</v>
       </c>
       <c r="F60" s="2">
-        <v>74783600</v>
+        <v>60214200</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A61" s="3" t="str">
-        <v>2021-06-21</v>
+        <v>2021-06-22</v>
       </c>
       <c r="B61" s="1">
-        <v>130.300003</v>
+        <v>132.13000500000001</v>
       </c>
       <c r="C61" s="1">
-        <v>132.41000399999999</v>
+        <v>134.08000200000001</v>
       </c>
       <c r="D61" s="1">
-        <v>129.21000699999999</v>
+        <v>131.61999499999999</v>
       </c>
       <c r="E61" s="1">
-        <v>132.300003</v>
+        <v>133.979996</v>
       </c>
       <c r="F61" s="2">
-        <v>79663300</v>
+        <v>74783600</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A62" s="3" t="str">
-        <v>2021-06-18</v>
+        <v>2021-06-21</v>
       </c>
       <c r="B62" s="1">
-        <v>130.71000699999999</v>
+        <v>130.300003</v>
       </c>
       <c r="C62" s="1">
-        <v>131.509995</v>
+        <v>132.41000399999999</v>
       </c>
       <c r="D62" s="1">
-        <v>130.240005</v>
+        <v>129.21000699999999</v>
       </c>
       <c r="E62" s="1">
-        <v>130.46000699999999</v>
+        <v>132.300003</v>
       </c>
       <c r="F62" s="2">
-        <v>108953300</v>
+        <v>79663300</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A63" s="3" t="str">
-        <v>2021-06-17</v>
+        <v>2021-06-18</v>
       </c>
       <c r="B63" s="1">
-        <v>129.800003</v>
+        <v>130.71000699999999</v>
       </c>
       <c r="C63" s="1">
-        <v>132.550003</v>
+        <v>131.509995</v>
       </c>
       <c r="D63" s="1">
-        <v>129.64999399999999</v>
+        <v>130.240005</v>
       </c>
       <c r="E63" s="1">
-        <v>131.78999300000001</v>
+        <v>130.46000699999999</v>
       </c>
       <c r="F63" s="2">
-        <v>96721700</v>
+        <v>108953300</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A64" s="3" t="str">
-        <v>2021-06-16</v>
+        <v>2021-06-17</v>
       </c>
       <c r="B64" s="1">
-        <v>130.36999499999999</v>
+        <v>129.800003</v>
       </c>
       <c r="C64" s="1">
-        <v>130.88999899999999</v>
+        <v>132.550003</v>
       </c>
       <c r="D64" s="1">
-        <v>128.46000699999999</v>
+        <v>129.64999399999999</v>
       </c>
       <c r="E64" s="1">
-        <v>130.14999399999999</v>
+        <v>131.78999300000001</v>
       </c>
       <c r="F64" s="2">
-        <v>91815000</v>
+        <v>96721700</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A65" s="3" t="str">
-        <v>2021-06-15</v>
+        <v>2021-06-16</v>
       </c>
       <c r="B65" s="1">
-        <v>129.94000199999999</v>
+        <v>130.36999499999999</v>
       </c>
       <c r="C65" s="1">
-        <v>130.60000600000001</v>
+        <v>130.88999899999999</v>
       </c>
       <c r="D65" s="1">
-        <v>129.38999899999999</v>
+        <v>128.46000699999999</v>
       </c>
       <c r="E65" s="1">
-        <v>129.63999899999999</v>
+        <v>130.14999399999999</v>
       </c>
       <c r="F65" s="2">
-        <v>62746300</v>
+        <v>91815000</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A66" s="3" t="str">
-        <v>2021-06-14</v>
+        <v>2021-06-15</v>
       </c>
       <c r="B66" s="1">
-        <v>127.82</v>
+        <v>129.94000199999999</v>
       </c>
       <c r="C66" s="1">
-        <v>130.53999300000001</v>
+        <v>130.60000600000001</v>
       </c>
       <c r="D66" s="1">
-        <v>127.07</v>
+        <v>129.38999899999999</v>
       </c>
       <c r="E66" s="1">
-        <v>130.479996</v>
+        <v>129.63999899999999</v>
       </c>
       <c r="F66" s="2">
-        <v>96906500</v>
+        <v>62746300</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A67" s="3" t="str">
-        <v>2021-06-11</v>
+        <v>2021-06-14</v>
       </c>
       <c r="B67" s="1">
-        <v>126.529999</v>
+        <v>127.82</v>
       </c>
       <c r="C67" s="1">
-        <v>127.44000200000001</v>
+        <v>130.53999300000001</v>
       </c>
       <c r="D67" s="1">
-        <v>126.099998</v>
+        <v>127.07</v>
       </c>
       <c r="E67" s="1">
-        <v>127.349998</v>
+        <v>130.479996</v>
       </c>
       <c r="F67" s="2">
-        <v>53522400</v>
+        <v>96906500</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A68" s="3" t="str">
-        <v>2021-06-10</v>
+        <v>2021-06-11</v>
       </c>
       <c r="B68" s="1">
-        <v>127.019997</v>
+        <v>126.529999</v>
       </c>
       <c r="C68" s="1">
-        <v>128.19000199999999</v>
+        <v>127.44000200000001</v>
       </c>
       <c r="D68" s="1">
-        <v>125.94000200000001</v>
+        <v>126.099998</v>
       </c>
       <c r="E68" s="1">
-        <v>126.110001</v>
+        <v>127.349998</v>
       </c>
       <c r="F68" s="2">
-        <v>71186400</v>
+        <v>53522400</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A69" s="3" t="str">
-        <v>2021-06-09</v>
+        <v>2021-06-10</v>
       </c>
       <c r="B69" s="1">
-        <v>127.209999</v>
+        <v>127.019997</v>
       </c>
       <c r="C69" s="1">
-        <v>127.75</v>
+        <v>128.19000199999999</v>
       </c>
       <c r="D69" s="1">
-        <v>126.519997</v>
+        <v>125.94000200000001</v>
       </c>
       <c r="E69" s="1">
-        <v>127.129997</v>
+        <v>126.110001</v>
       </c>
       <c r="F69" s="2">
-        <v>56877900</v>
+        <v>71186400</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A70" s="3" t="str">
-        <v>2021-06-08</v>
+        <v>2021-06-09</v>
       </c>
       <c r="B70" s="1">
-        <v>126.599998</v>
+        <v>127.209999</v>
       </c>
       <c r="C70" s="1">
-        <v>128.46000699999999</v>
+        <v>127.75</v>
       </c>
       <c r="D70" s="1">
-        <v>126.209999</v>
+        <v>126.519997</v>
       </c>
       <c r="E70" s="1">
-        <v>126.739998</v>
+        <v>127.129997</v>
       </c>
       <c r="F70" s="2">
-        <v>74403800</v>
+        <v>56877900</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A71" s="3" t="str">
-        <v>2021-06-07</v>
+        <v>2021-06-08</v>
       </c>
       <c r="B71" s="1">
-        <v>126.16999800000001</v>
+        <v>126.599998</v>
       </c>
       <c r="C71" s="1">
-        <v>126.32</v>
+        <v>128.46000699999999</v>
       </c>
       <c r="D71" s="1">
-        <v>124.83000199999999</v>
+        <v>126.209999</v>
       </c>
       <c r="E71" s="1">
-        <v>125.900002</v>
+        <v>126.739998</v>
       </c>
       <c r="F71" s="2">
-        <v>71057600</v>
+        <v>74403800</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A72" s="3" t="str">
-        <v>2021-06-04</v>
+        <v>2021-06-07</v>
       </c>
       <c r="B72" s="1">
-        <v>124.07</v>
+        <v>126.16999800000001</v>
       </c>
       <c r="C72" s="1">
-        <v>126.160004</v>
+        <v>126.32</v>
       </c>
       <c r="D72" s="1">
-        <v>123.849998</v>
+        <v>124.83000199999999</v>
       </c>
       <c r="E72" s="1">
-        <v>125.889999</v>
+        <v>125.900002</v>
       </c>
       <c r="F72" s="2">
-        <v>75169300</v>
+        <v>71057600</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A73" s="3" t="str">
-        <v>2021-06-03</v>
+        <v>2021-06-04</v>
       </c>
       <c r="B73" s="1">
-        <v>124.68</v>
+        <v>124.07</v>
       </c>
       <c r="C73" s="1">
-        <v>124.849998</v>
+        <v>126.160004</v>
       </c>
       <c r="D73" s="1">
-        <v>123.129997</v>
+        <v>123.849998</v>
       </c>
       <c r="E73" s="1">
-        <v>123.540001</v>
+        <v>125.889999</v>
       </c>
       <c r="F73" s="2">
-        <v>76229200</v>
+        <v>75169300</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A74" s="3" t="str">
-        <v>2021-06-02</v>
+        <v>2021-06-03</v>
       </c>
       <c r="B74" s="1">
-        <v>124.279999</v>
+        <v>124.68</v>
       </c>
       <c r="C74" s="1">
-        <v>125.239998</v>
+        <v>124.849998</v>
       </c>
       <c r="D74" s="1">
-        <v>124.050003</v>
+        <v>123.129997</v>
       </c>
       <c r="E74" s="1">
-        <v>125.05999799999999</v>
+        <v>123.540001</v>
       </c>
       <c r="F74" s="2">
-        <v>59278900</v>
+        <v>76229200</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A75" s="3" t="str">
-        <v>2021-06-01</v>
+        <v>2021-06-02</v>
       </c>
       <c r="B75" s="1">
-        <v>125.08000199999999</v>
+        <v>124.279999</v>
       </c>
       <c r="C75" s="1">
-        <v>125.349998</v>
+        <v>125.239998</v>
       </c>
       <c r="D75" s="1">
-        <v>123.94000200000001</v>
+        <v>124.050003</v>
       </c>
       <c r="E75" s="1">
-        <v>124.279999</v>
+        <v>125.05999799999999</v>
       </c>
       <c r="F75" s="2">
-        <v>67637100</v>
+        <v>59278900</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A76" s="3" t="str">
-        <v>2021-05-28</v>
+        <v>2021-06-01</v>
       </c>
       <c r="B76" s="1">
-        <v>125.57</v>
+        <v>125.08000199999999</v>
       </c>
       <c r="C76" s="1">
-        <v>125.800003</v>
+        <v>125.349998</v>
       </c>
       <c r="D76" s="1">
-        <v>124.550003</v>
+        <v>123.94000200000001</v>
       </c>
       <c r="E76" s="1">
-        <v>124.610001</v>
+        <v>124.279999</v>
       </c>
       <c r="F76" s="2">
-        <v>71311100</v>
+        <v>67637100</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A77" s="3" t="str">
-        <v>2021-05-27</v>
+        <v>2021-05-28</v>
       </c>
       <c r="B77" s="1">
-        <v>126.44000200000001</v>
+        <v>125.57</v>
       </c>
       <c r="C77" s="1">
-        <v>127.639999</v>
+        <v>125.800003</v>
       </c>
       <c r="D77" s="1">
-        <v>125.08000199999999</v>
+        <v>124.550003</v>
       </c>
       <c r="E77" s="1">
-        <v>125.279999</v>
+        <v>124.610001</v>
       </c>
       <c r="F77" s="2">
-        <v>94625600</v>
+        <v>71311100</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A78" s="3" t="str">
-        <v>2021-05-26</v>
+        <v>2021-05-27</v>
       </c>
       <c r="B78" s="1">
-        <v>126.959999</v>
+        <v>126.44000200000001</v>
       </c>
       <c r="C78" s="1">
-        <v>127.389999</v>
+        <v>127.639999</v>
       </c>
       <c r="D78" s="1">
-        <v>126.41999800000001</v>
+        <v>125.08000199999999</v>
       </c>
       <c r="E78" s="1">
-        <v>126.849998</v>
+        <v>125.279999</v>
       </c>
       <c r="F78" s="2">
-        <v>56575900</v>
+        <v>94625600</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A79" s="3" t="str">
-        <v>2021-05-25</v>
+        <v>2021-05-26</v>
       </c>
       <c r="B79" s="1">
-        <v>127.82</v>
+        <v>126.959999</v>
       </c>
       <c r="C79" s="1">
-        <v>128.320007</v>
+        <v>127.389999</v>
       </c>
       <c r="D79" s="1">
-        <v>126.32</v>
+        <v>126.41999800000001</v>
       </c>
       <c r="E79" s="1">
-        <v>126.900002</v>
+        <v>126.849998</v>
       </c>
       <c r="F79" s="2">
-        <v>72009500</v>
+        <v>56575900</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A80" s="3" t="str">
-        <v>2021-05-24</v>
+        <v>2021-05-25</v>
       </c>
       <c r="B80" s="1">
-        <v>126.010002</v>
+        <v>127.82</v>
       </c>
       <c r="C80" s="1">
-        <v>127.94000200000001</v>
+        <v>128.320007</v>
       </c>
       <c r="D80" s="1">
-        <v>125.94000200000001</v>
+        <v>126.32</v>
       </c>
       <c r="E80" s="1">
-        <v>127.099998</v>
+        <v>126.900002</v>
       </c>
       <c r="F80" s="2">
-        <v>63092900</v>
+        <v>72009500</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A81" s="3" t="str">
-        <v>2021-05-21</v>
+        <v>2021-05-24</v>
       </c>
       <c r="B81" s="1">
-        <v>127.82</v>
+        <v>126.010002</v>
       </c>
       <c r="C81" s="1">
-        <v>128</v>
+        <v>127.94000200000001</v>
       </c>
       <c r="D81" s="1">
-        <v>125.209999</v>
+        <v>125.94000200000001</v>
       </c>
       <c r="E81" s="1">
-        <v>125.43</v>
+        <v>127.099998</v>
       </c>
       <c r="F81" s="2">
-        <v>79295400</v>
+        <v>63092900</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A82" s="3" t="str">
-        <v>2021-05-20</v>
+        <v>2021-05-21</v>
       </c>
       <c r="B82" s="1">
-        <v>125.230003</v>
+        <v>127.82</v>
       </c>
       <c r="C82" s="1">
-        <v>127.720001</v>
+        <v>128</v>
       </c>
       <c r="D82" s="1">
-        <v>125.099998</v>
+        <v>125.209999</v>
       </c>
       <c r="E82" s="1">
-        <v>127.30999799999999</v>
+        <v>125.43</v>
       </c>
       <c r="F82" s="2">
-        <v>76857100</v>
+        <v>79295400</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A83" s="3" t="str">
-        <v>2021-05-19</v>
+        <v>2021-05-20</v>
       </c>
       <c r="B83" s="1">
-        <v>123.160004</v>
+        <v>125.230003</v>
       </c>
       <c r="C83" s="1">
-        <v>124.91999800000001</v>
+        <v>127.720001</v>
       </c>
       <c r="D83" s="1">
-        <v>122.860001</v>
+        <v>125.099998</v>
       </c>
       <c r="E83" s="1">
-        <v>124.69000200000001</v>
+        <v>127.30999799999999</v>
       </c>
       <c r="F83" s="2">
-        <v>92612000</v>
+        <v>76857100</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A84" s="3" t="str">
-        <v>2021-05-18</v>
+        <v>2021-05-19</v>
       </c>
       <c r="B84" s="1">
-        <v>126.55999799999999</v>
+        <v>123.160004</v>
       </c>
       <c r="C84" s="1">
-        <v>126.989998</v>
+        <v>124.91999800000001</v>
       </c>
       <c r="D84" s="1">
-        <v>124.779999</v>
+        <v>122.860001</v>
       </c>
       <c r="E84" s="1">
-        <v>124.849998</v>
+        <v>124.69000200000001</v>
       </c>
       <c r="F84" s="2">
-        <v>63342900</v>
+        <v>92612000</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A85" s="3" t="str">
-        <v>2021-05-17</v>
+        <v>2021-05-18</v>
       </c>
       <c r="B85" s="1">
-        <v>126.82</v>
+        <v>126.55999799999999</v>
       </c>
       <c r="C85" s="1">
-        <v>126.93</v>
+        <v>126.989998</v>
       </c>
       <c r="D85" s="1">
-        <v>125.16999800000001</v>
+        <v>124.779999</v>
       </c>
       <c r="E85" s="1">
-        <v>126.269997</v>
+        <v>124.849998</v>
       </c>
       <c r="F85" s="2">
-        <v>74244600</v>
+        <v>63342900</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A86" s="3" t="str">
-        <v>2021-05-14</v>
+        <v>2021-05-17</v>
       </c>
       <c r="B86" s="1">
-        <v>126.25</v>
+        <v>126.82</v>
       </c>
       <c r="C86" s="1">
-        <v>127.889999</v>
+        <v>126.93</v>
       </c>
       <c r="D86" s="1">
-        <v>125.849998</v>
+        <v>125.16999800000001</v>
       </c>
       <c r="E86" s="1">
-        <v>127.449997</v>
+        <v>126.269997</v>
       </c>
       <c r="F86" s="2">
-        <v>81918000</v>
+        <v>74244600</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A87" s="3" t="str">
-        <v>2021-05-13</v>
+        <v>2021-05-14</v>
       </c>
       <c r="B87" s="1">
-        <v>124.58000199999999</v>
+        <v>126.25</v>
       </c>
       <c r="C87" s="1">
-        <v>126.150002</v>
+        <v>127.889999</v>
       </c>
       <c r="D87" s="1">
-        <v>124.260002</v>
+        <v>125.849998</v>
       </c>
       <c r="E87" s="1">
-        <v>124.970001</v>
+        <v>127.449997</v>
       </c>
       <c r="F87" s="2">
-        <v>105861300</v>
+        <v>81918000</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A88" s="3" t="str">
-        <v>2021-05-12</v>
+        <v>2021-05-13</v>
       </c>
       <c r="B88" s="1">
-        <v>123.400002</v>
+        <v>124.58000199999999</v>
       </c>
       <c r="C88" s="1">
-        <v>124.639999</v>
+        <v>126.150002</v>
       </c>
       <c r="D88" s="1">
-        <v>122.25</v>
+        <v>124.260002</v>
       </c>
       <c r="E88" s="1">
-        <v>122.769997</v>
+        <v>124.970001</v>
       </c>
       <c r="F88" s="2">
-        <v>112172300</v>
+        <v>105861300</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A89" s="3" t="str">
-        <v>2021-05-11</v>
+        <v>2021-05-12</v>
       </c>
       <c r="B89" s="1">
-        <v>123.5</v>
+        <v>123.400002</v>
       </c>
       <c r="C89" s="1">
-        <v>126.269997</v>
+        <v>124.639999</v>
       </c>
       <c r="D89" s="1">
+        <v>122.25</v>
+      </c>
+      <c r="E89" s="1">
         <v>122.769997</v>
       </c>
-      <c r="E89" s="1">
-        <v>125.910004</v>
-      </c>
       <c r="F89" s="2">
-        <v>126142800</v>
+        <v>112172300</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A90" s="3" t="str">
-        <v>2021-05-10</v>
+        <v>2021-05-11</v>
       </c>
       <c r="B90" s="1">
-        <v>129.41000399999999</v>
+        <v>123.5</v>
       </c>
       <c r="C90" s="1">
-        <v>129.53999300000001</v>
+        <v>126.269997</v>
       </c>
       <c r="D90" s="1">
-        <v>126.80999799999999</v>
+        <v>122.769997</v>
       </c>
       <c r="E90" s="1">
-        <v>126.849998</v>
+        <v>125.910004</v>
       </c>
       <c r="F90" s="2">
-        <v>88071200</v>
+        <v>126142800</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A91" s="3" t="str">
-        <v>2021-05-07</v>
+        <v>2021-05-10</v>
       </c>
       <c r="B91" s="1">
-        <v>130.85000600000001</v>
+        <v>129.41000399999999</v>
       </c>
       <c r="C91" s="1">
-        <v>131.259995</v>
+        <v>129.53999300000001</v>
       </c>
       <c r="D91" s="1">
-        <v>129.479996</v>
+        <v>126.80999799999999</v>
       </c>
       <c r="E91" s="1">
-        <v>130.21000699999999</v>
+        <v>126.849998</v>
       </c>
       <c r="F91" s="2">
-        <v>78973300</v>
+        <v>88071200</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A92" s="3" t="str">
-        <v>2021-05-06</v>
+        <v>2021-05-07</v>
       </c>
       <c r="B92" s="1">
-        <v>127.889999</v>
+        <v>130.85000600000001</v>
       </c>
       <c r="C92" s="1">
-        <v>129.75</v>
+        <v>131.259995</v>
       </c>
       <c r="D92" s="1">
-        <v>127.129997</v>
+        <v>129.479996</v>
       </c>
       <c r="E92" s="1">
-        <v>129.740005</v>
+        <v>130.21000699999999</v>
       </c>
       <c r="F92" s="2">
-        <v>78128300</v>
+        <v>78973300</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A93" s="3" t="str">
-        <v>2021-05-05</v>
+        <v>2021-05-06</v>
       </c>
       <c r="B93" s="1">
-        <v>129.199997</v>
+        <v>127.889999</v>
       </c>
       <c r="C93" s="1">
-        <v>130.449997</v>
+        <v>129.75</v>
       </c>
       <c r="D93" s="1">
-        <v>127.970001</v>
+        <v>127.129997</v>
       </c>
       <c r="E93" s="1">
-        <v>128.10000600000001</v>
+        <v>129.740005</v>
       </c>
       <c r="F93" s="2">
-        <v>84000900</v>
+        <v>78128300</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A94" s="3" t="str">
-        <v>2021-05-04</v>
+        <v>2021-05-05</v>
       </c>
       <c r="B94" s="1">
-        <v>131.19000199999999</v>
+        <v>129.199997</v>
       </c>
       <c r="C94" s="1">
-        <v>131.490005</v>
+        <v>130.449997</v>
       </c>
       <c r="D94" s="1">
-        <v>126.699997</v>
+        <v>127.970001</v>
       </c>
       <c r="E94" s="1">
-        <v>127.849998</v>
+        <v>128.10000600000001</v>
       </c>
       <c r="F94" s="2">
-        <v>137564700</v>
+        <v>84000900</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A95" s="3" t="str">
-        <v>2021-05-03</v>
+        <v>2021-05-04</v>
       </c>
       <c r="B95" s="1">
-        <v>132.03999300000001</v>
+        <v>131.19000199999999</v>
       </c>
       <c r="C95" s="1">
-        <v>134.070007</v>
+        <v>131.490005</v>
       </c>
       <c r="D95" s="1">
-        <v>131.83000200000001</v>
+        <v>126.699997</v>
       </c>
       <c r="E95" s="1">
-        <v>132.53999300000001</v>
+        <v>127.849998</v>
       </c>
       <c r="F95" s="2">
-        <v>75135100</v>
+        <v>137564700</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A96" s="3" t="str">
-        <v>2021-04-30</v>
+        <v>2021-05-03</v>
       </c>
       <c r="B96" s="1">
-        <v>131.779999</v>
+        <v>132.03999300000001</v>
       </c>
       <c r="C96" s="1">
-        <v>133.55999800000001</v>
+        <v>134.070007</v>
       </c>
       <c r="D96" s="1">
-        <v>131.070007</v>
+        <v>131.83000200000001</v>
       </c>
       <c r="E96" s="1">
-        <v>131.46000699999999</v>
+        <v>132.53999300000001</v>
       </c>
       <c r="F96" s="2">
-        <v>109839500</v>
+        <v>75135100</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A97" s="3" t="str">
-        <v>2021-04-29</v>
+        <v>2021-04-30</v>
       </c>
       <c r="B97" s="1">
-        <v>136.470001</v>
+        <v>131.779999</v>
       </c>
       <c r="C97" s="1">
-        <v>137.070007</v>
+        <v>133.55999800000001</v>
       </c>
       <c r="D97" s="1">
-        <v>132.449997</v>
+        <v>131.070007</v>
       </c>
       <c r="E97" s="1">
-        <v>133.479996</v>
+        <v>131.46000699999999</v>
       </c>
       <c r="F97" s="2">
-        <v>151101000</v>
+        <v>109839500</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A98" s="3" t="str">
-        <v>2021-04-28</v>
+        <v>2021-04-29</v>
       </c>
       <c r="B98" s="1">
-        <v>134.30999800000001</v>
+        <v>136.470001</v>
       </c>
       <c r="C98" s="1">
-        <v>135.020004</v>
+        <v>137.070007</v>
       </c>
       <c r="D98" s="1">
-        <v>133.08000200000001</v>
+        <v>132.449997</v>
       </c>
       <c r="E98" s="1">
-        <v>133.58000200000001</v>
+        <v>133.479996</v>
       </c>
       <c r="F98" s="2">
-        <v>107760100</v>
+        <v>151101000</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A99" s="3" t="str">
-        <v>2021-04-27</v>
+        <v>2021-04-28</v>
       </c>
       <c r="B99" s="1">
-        <v>135.009995</v>
+        <v>134.30999800000001</v>
       </c>
       <c r="C99" s="1">
-        <v>135.41000399999999</v>
+        <v>135.020004</v>
       </c>
       <c r="D99" s="1">
-        <v>134.11000100000001</v>
+        <v>133.08000200000001</v>
       </c>
       <c r="E99" s="1">
-        <v>134.38999899999999</v>
+        <v>133.58000200000001</v>
       </c>
       <c r="F99" s="2">
-        <v>66015800</v>
+        <v>107760100</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A100" s="3" t="str">
-        <v>2021-04-26</v>
+        <v>2021-04-27</v>
       </c>
       <c r="B100" s="1">
-        <v>134.83000200000001</v>
+        <v>135.009995</v>
       </c>
       <c r="C100" s="1">
-        <v>135.05999800000001</v>
+        <v>135.41000399999999</v>
       </c>
       <c r="D100" s="1">
-        <v>133.55999800000001</v>
+        <v>134.11000100000001</v>
       </c>
       <c r="E100" s="1">
-        <v>134.720001</v>
+        <v>134.38999899999999</v>
       </c>
       <c r="F100" s="2">
-        <v>66905100</v>
+        <v>66015800</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A101" s="3" t="str">
-        <v>2021-04-23</v>
+        <v>2021-04-26</v>
       </c>
       <c r="B101" s="1">
-        <v>132.16000399999999</v>
+        <v>134.83000200000001</v>
       </c>
       <c r="C101" s="1">
-        <v>135.11999499999999</v>
+        <v>135.05999800000001</v>
       </c>
       <c r="D101" s="1">
-        <v>132.16000399999999</v>
+        <v>133.55999800000001</v>
       </c>
       <c r="E101" s="1">
-        <v>134.320007</v>
+        <v>134.720001</v>
       </c>
       <c r="F101" s="2">
-        <v>78657500</v>
+        <v>66905100</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A102" s="3" t="str">
-        <v>2021-04-22</v>
+        <v>2021-04-23</v>
       </c>
       <c r="B102" s="1">
-        <v>133.03999300000001</v>
+        <v>132.16000399999999</v>
       </c>
       <c r="C102" s="1">
-        <v>134.14999399999999</v>
+        <v>135.11999499999999</v>
       </c>
       <c r="D102" s="1">
-        <v>131.41000399999999</v>
+        <v>132.16000399999999</v>
       </c>
       <c r="E102" s="1">
-        <v>131.94000199999999</v>
+        <v>134.320007</v>
       </c>
       <c r="F102" s="2">
-        <v>84566500</v>
+        <v>78657500</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A103" s="3" t="str">
-        <v>2021-04-21</v>
+        <v>2021-04-22</v>
       </c>
       <c r="B103" s="1">
-        <v>132.36000100000001</v>
+        <v>133.03999300000001</v>
       </c>
       <c r="C103" s="1">
-        <v>133.75</v>
+        <v>134.14999399999999</v>
       </c>
       <c r="D103" s="1">
-        <v>131.300003</v>
+        <v>131.41000399999999</v>
       </c>
       <c r="E103" s="1">
-        <v>133.5</v>
+        <v>131.94000199999999</v>
       </c>
       <c r="F103" s="2">
-        <v>68847100</v>
+        <v>84566500</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A104" s="3" t="str">
-        <v>2021-04-20</v>
+        <v>2021-04-21</v>
       </c>
       <c r="B104" s="1">
-        <v>135.020004</v>
+        <v>132.36000100000001</v>
       </c>
       <c r="C104" s="1">
-        <v>135.529999</v>
+        <v>133.75</v>
       </c>
       <c r="D104" s="1">
-        <v>131.80999800000001</v>
+        <v>131.300003</v>
       </c>
       <c r="E104" s="1">
-        <v>133.11000100000001</v>
+        <v>133.5</v>
       </c>
       <c r="F104" s="2">
-        <v>94812300</v>
+        <v>68847100</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A105" s="3" t="str">
-        <v>2021-04-19</v>
+        <v>2021-04-20</v>
       </c>
       <c r="B105" s="1">
-        <v>133.509995</v>
+        <v>135.020004</v>
       </c>
       <c r="C105" s="1">
-        <v>135.470001</v>
+        <v>135.529999</v>
       </c>
       <c r="D105" s="1">
-        <v>133.33999600000001</v>
+        <v>131.80999800000001</v>
       </c>
       <c r="E105" s="1">
-        <v>134.83999600000001</v>
+        <v>133.11000100000001</v>
       </c>
       <c r="F105" s="2">
-        <v>94264200</v>
+        <v>94812300</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A106" s="3" t="str">
-        <v>2021-04-16</v>
+        <v>2021-04-19</v>
       </c>
       <c r="B106" s="1">
-        <v>134.300003</v>
+        <v>133.509995</v>
       </c>
       <c r="C106" s="1">
-        <v>134.66999799999999</v>
+        <v>135.470001</v>
       </c>
       <c r="D106" s="1">
-        <v>133.279999</v>
+        <v>133.33999600000001</v>
       </c>
       <c r="E106" s="1">
-        <v>134.16000399999999</v>
+        <v>134.83999600000001</v>
       </c>
       <c r="F106" s="2">
-        <v>84922400</v>
+        <v>94264200</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A107" s="3" t="str">
-        <v>2021-04-15</v>
+        <v>2021-04-16</v>
       </c>
       <c r="B107" s="1">
-        <v>133.820007</v>
+        <v>134.300003</v>
       </c>
       <c r="C107" s="1">
-        <v>135</v>
+        <v>134.66999799999999</v>
       </c>
       <c r="D107" s="1">
-        <v>133.63999899999999</v>
+        <v>133.279999</v>
       </c>
       <c r="E107" s="1">
-        <v>134.5</v>
+        <v>134.16000399999999</v>
       </c>
       <c r="F107" s="2">
-        <v>89347100</v>
+        <v>84922400</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A108" s="3" t="str">
-        <v>2021-04-14</v>
+        <v>2021-04-15</v>
       </c>
       <c r="B108" s="1">
-        <v>134.94000199999999</v>
+        <v>133.820007</v>
       </c>
       <c r="C108" s="1">
         <v>135</v>
       </c>
       <c r="D108" s="1">
-        <v>131.66000399999999</v>
+        <v>133.63999899999999</v>
       </c>
       <c r="E108" s="1">
-        <v>132.029999</v>
+        <v>134.5</v>
       </c>
       <c r="F108" s="2">
-        <v>87222800</v>
+        <v>89347100</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A109" s="3" t="str">
-        <v>2021-04-13</v>
+        <v>2021-04-14</v>
       </c>
       <c r="B109" s="1">
-        <v>132.44000199999999</v>
+        <v>134.94000199999999</v>
       </c>
       <c r="C109" s="1">
-        <v>134.66000399999999</v>
+        <v>135</v>
       </c>
       <c r="D109" s="1">
-        <v>131.929993</v>
+        <v>131.66000399999999</v>
       </c>
       <c r="E109" s="1">
-        <v>134.429993</v>
+        <v>132.029999</v>
       </c>
       <c r="F109" s="2">
-        <v>91266500</v>
+        <v>87222800</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A110" s="3" t="str">
-        <v>2021-04-12</v>
+        <v>2021-04-13</v>
       </c>
       <c r="B110" s="1">
-        <v>132.520004</v>
+        <v>132.44000199999999</v>
       </c>
       <c r="C110" s="1">
-        <v>132.85000600000001</v>
+        <v>134.66000399999999</v>
       </c>
       <c r="D110" s="1">
-        <v>130.63000500000001</v>
+        <v>131.929993</v>
       </c>
       <c r="E110" s="1">
-        <v>131.240005</v>
+        <v>134.429993</v>
       </c>
       <c r="F110" s="2">
-        <v>91420000</v>
+        <v>91266500</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A111" s="3" t="str">
-        <v>2021-04-09</v>
+        <v>2021-04-12</v>
       </c>
       <c r="B111" s="1">
-        <v>129.800003</v>
+        <v>132.520004</v>
       </c>
       <c r="C111" s="1">
-        <v>133.03999300000001</v>
+        <v>132.85000600000001</v>
       </c>
       <c r="D111" s="1">
-        <v>129.470001</v>
+        <v>130.63000500000001</v>
       </c>
       <c r="E111" s="1">
-        <v>133</v>
+        <v>131.240005</v>
       </c>
       <c r="F111" s="2">
-        <v>106686700</v>
+        <v>91420000</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A112" s="3" t="str">
-        <v>2021-04-08</v>
+        <v>2021-04-09</v>
       </c>
       <c r="B112" s="1">
-        <v>128.949997</v>
+        <v>129.800003</v>
       </c>
       <c r="C112" s="1">
-        <v>130.38999899999999</v>
+        <v>133.03999300000001</v>
       </c>
       <c r="D112" s="1">
-        <v>128.520004</v>
+        <v>129.470001</v>
       </c>
       <c r="E112" s="1">
-        <v>130.36000100000001</v>
+        <v>133</v>
       </c>
       <c r="F112" s="2">
-        <v>88844600</v>
+        <v>106686700</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A113" s="3" t="str">
-        <v>2021-04-07</v>
+        <v>2021-04-08</v>
       </c>
       <c r="B113" s="1">
-        <v>125.83000199999999</v>
+        <v>128.949997</v>
       </c>
       <c r="C113" s="1">
-        <v>127.91999800000001</v>
+        <v>130.38999899999999</v>
       </c>
       <c r="D113" s="1">
-        <v>125.139999</v>
+        <v>128.520004</v>
       </c>
       <c r="E113" s="1">
-        <v>127.900002</v>
+        <v>130.36000100000001</v>
       </c>
       <c r="F113" s="2">
-        <v>83466700</v>
+        <v>88844600</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A114" s="3" t="str">
-        <v>2021-04-06</v>
+        <v>2021-04-07</v>
       </c>
       <c r="B114" s="1">
-        <v>126.5</v>
+        <v>125.83000199999999</v>
       </c>
       <c r="C114" s="1">
-        <v>127.129997</v>
+        <v>127.91999800000001</v>
       </c>
       <c r="D114" s="1">
-        <v>125.650002</v>
+        <v>125.139999</v>
       </c>
       <c r="E114" s="1">
-        <v>126.209999</v>
+        <v>127.900002</v>
       </c>
       <c r="F114" s="2">
-        <v>80171300</v>
+        <v>83466700</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A115" s="3" t="str">
-        <v>2021-04-05</v>
+        <v>2021-04-06</v>
       </c>
       <c r="B115" s="1">
-        <v>123.870003</v>
+        <v>126.5</v>
       </c>
       <c r="C115" s="1">
-        <v>126.160004</v>
+        <v>127.129997</v>
       </c>
       <c r="D115" s="1">
-        <v>123.07</v>
+        <v>125.650002</v>
       </c>
       <c r="E115" s="1">
-        <v>125.900002</v>
+        <v>126.209999</v>
       </c>
       <c r="F115" s="2">
-        <v>88651200</v>
+        <v>80171300</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A116" s="3" t="str">
-        <v>2021-04-01</v>
+        <v>2021-04-05</v>
       </c>
       <c r="B116" s="1">
-        <v>123.660004</v>
+        <v>123.870003</v>
       </c>
       <c r="C116" s="1">
-        <v>124.18</v>
+        <v>126.160004</v>
       </c>
       <c r="D116" s="1">
-        <v>122.489998</v>
+        <v>123.07</v>
       </c>
       <c r="E116" s="1">
-        <v>123</v>
+        <v>125.900002</v>
       </c>
       <c r="F116" s="2">
-        <v>75089100</v>
+        <v>88651200</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A117" s="3" t="str">
-        <v>2021-03-31</v>
+        <v>2021-04-01</v>
       </c>
       <c r="B117" s="1">
-        <v>121.650002</v>
+        <v>123.660004</v>
       </c>
       <c r="C117" s="1">
-        <v>123.519997</v>
+        <v>124.18</v>
       </c>
       <c r="D117" s="1">
-        <v>121.150002</v>
+        <v>122.489998</v>
       </c>
       <c r="E117" s="1">
-        <v>122.150002</v>
+        <v>123</v>
       </c>
       <c r="F117" s="2">
-        <v>118323800</v>
+        <v>75089100</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A118" s="3" t="str">
-        <v>2021-03-30</v>
+        <v>2021-03-31</v>
       </c>
       <c r="B118" s="1">
-        <v>120.110001</v>
+        <v>121.650002</v>
       </c>
       <c r="C118" s="1">
-        <v>120.400002</v>
+        <v>123.519997</v>
       </c>
       <c r="D118" s="1">
-        <v>118.860001</v>
+        <v>121.150002</v>
       </c>
       <c r="E118" s="1">
-        <v>119.900002</v>
+        <v>122.150002</v>
       </c>
       <c r="F118" s="2">
-        <v>85671900</v>
+        <v>118323800</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A119" s="3" t="str">
-        <v>2021-03-29</v>
+        <v>2021-03-30</v>
       </c>
       <c r="B119" s="1">
-        <v>121.650002</v>
+        <v>120.110001</v>
       </c>
       <c r="C119" s="1">
-        <v>122.58000199999999</v>
+        <v>120.400002</v>
       </c>
       <c r="D119" s="1">
-        <v>120.730003</v>
+        <v>118.860001</v>
       </c>
       <c r="E119" s="1">
-        <v>121.389999</v>
+        <v>119.900002</v>
       </c>
       <c r="F119" s="2">
-        <v>80819200</v>
+        <v>85671900</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A120" s="3" t="str">
-        <v>2021-03-26</v>
+        <v>2021-03-29</v>
       </c>
       <c r="B120" s="1">
-        <v>120.349998</v>
+        <v>121.650002</v>
       </c>
       <c r="C120" s="1">
-        <v>121.480003</v>
+        <v>122.58000199999999</v>
       </c>
       <c r="D120" s="1">
-        <v>118.91999800000001</v>
+        <v>120.730003</v>
       </c>
       <c r="E120" s="1">
-        <v>121.209999</v>
+        <v>121.389999</v>
       </c>
       <c r="F120" s="2">
-        <v>94071200</v>
+        <v>80819200</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A121" s="3" t="str">
-        <v>2021-03-25</v>
+        <v>2021-03-26</v>
       </c>
       <c r="B121" s="1">
-        <v>119.540001</v>
+        <v>120.349998</v>
       </c>
       <c r="C121" s="1">
-        <v>121.660004</v>
+        <v>121.480003</v>
       </c>
       <c r="D121" s="1">
-        <v>119</v>
+        <v>118.91999800000001</v>
       </c>
       <c r="E121" s="1">
-        <v>120.589996</v>
+        <v>121.209999</v>
       </c>
       <c r="F121" s="2">
-        <v>98844700</v>
+        <v>94071200</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A122" s="3" t="str">
-        <v>2021-03-24</v>
+        <v>2021-03-25</v>
       </c>
       <c r="B122" s="1">
-        <v>122.82</v>
+        <v>119.540001</v>
       </c>
       <c r="C122" s="1">
-        <v>122.900002</v>
+        <v>121.660004</v>
       </c>
       <c r="D122" s="1">
-        <v>120.07</v>
+        <v>119</v>
       </c>
       <c r="E122" s="1">
-        <v>120.089996</v>
+        <v>120.589996</v>
       </c>
       <c r="F122" s="2">
-        <v>88530500</v>
+        <v>98844700</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A123" s="3" t="str">
-        <v>2021-03-23</v>
+        <v>2021-03-24</v>
       </c>
       <c r="B123" s="1">
-        <v>123.33000199999999</v>
+        <v>122.82</v>
       </c>
       <c r="C123" s="1">
-        <v>124.239998</v>
+        <v>122.900002</v>
       </c>
       <c r="D123" s="1">
-        <v>122.139999</v>
+        <v>120.07</v>
       </c>
       <c r="E123" s="1">
-        <v>122.540001</v>
+        <v>120.089996</v>
       </c>
       <c r="F123" s="2">
-        <v>95467100</v>
+        <v>88530500</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A124" s="3" t="str">
-        <v>2021-03-22</v>
+        <v>2021-03-23</v>
       </c>
       <c r="B124" s="1">
-        <v>120.33000199999999</v>
+        <v>123.33000199999999</v>
       </c>
       <c r="C124" s="1">
-        <v>123.870003</v>
+        <v>124.239998</v>
       </c>
       <c r="D124" s="1">
-        <v>120.260002</v>
+        <v>122.139999</v>
       </c>
       <c r="E124" s="1">
-        <v>123.389999</v>
+        <v>122.540001</v>
       </c>
       <c r="F124" s="2">
-        <v>111912300</v>
+        <v>95467100</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A125" s="3" t="str">
-        <v>2021-03-19</v>
+        <v>2021-03-22</v>
       </c>
       <c r="B125" s="1">
-        <v>119.900002</v>
+        <v>120.33000199999999</v>
       </c>
       <c r="C125" s="1">
-        <v>121.43</v>
+        <v>123.870003</v>
       </c>
       <c r="D125" s="1">
-        <v>119.68</v>
+        <v>120.260002</v>
       </c>
       <c r="E125" s="1">
-        <v>119.989998</v>
+        <v>123.389999</v>
       </c>
       <c r="F125" s="2">
-        <v>185549500</v>
+        <v>111912300</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A126" s="3" t="str">
-        <v>2021-03-18</v>
+        <v>2021-03-19</v>
       </c>
       <c r="B126" s="1">
-        <v>122.879997</v>
+        <v>119.900002</v>
       </c>
       <c r="C126" s="1">
-        <v>123.18</v>
+        <v>121.43</v>
       </c>
       <c r="D126" s="1">
-        <v>120.32</v>
+        <v>119.68</v>
       </c>
       <c r="E126" s="1">
-        <v>120.529999</v>
+        <v>119.989998</v>
       </c>
       <c r="F126" s="2">
-        <v>121229700</v>
+        <v>185549500</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A127" s="3" t="str">
-        <v>2021-03-17</v>
+        <v>2021-03-18</v>
       </c>
       <c r="B127" s="1">
-        <v>124.050003</v>
+        <v>122.879997</v>
       </c>
       <c r="C127" s="1">
-        <v>125.860001</v>
+        <v>123.18</v>
       </c>
       <c r="D127" s="1">
-        <v>122.339996</v>
+        <v>120.32</v>
       </c>
       <c r="E127" s="1">
-        <v>124.760002</v>
+        <v>120.529999</v>
       </c>
       <c r="F127" s="2">
-        <v>111932600</v>
+        <v>121229700</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A128" s="3" t="str">
-        <v>2021-03-16</v>
+        <v>2021-03-17</v>
       </c>
       <c r="B128" s="1">
-        <v>125.699997</v>
+        <v>124.050003</v>
       </c>
       <c r="C128" s="1">
-        <v>127.220001</v>
+        <v>125.860001</v>
       </c>
       <c r="D128" s="1">
-        <v>124.720001</v>
+        <v>122.339996</v>
       </c>
       <c r="E128" s="1">
-        <v>125.57</v>
+        <v>124.760002</v>
       </c>
       <c r="F128" s="2">
-        <v>115227900</v>
+        <v>111932600</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A129" s="3" t="str">
-        <v>2021-03-15</v>
+        <v>2021-03-16</v>
       </c>
       <c r="B129" s="1">
-        <v>121.410004</v>
+        <v>125.699997</v>
       </c>
       <c r="C129" s="1">
-        <v>124</v>
+        <v>127.220001</v>
       </c>
       <c r="D129" s="1">
-        <v>120.41999800000001</v>
+        <v>124.720001</v>
       </c>
       <c r="E129" s="1">
-        <v>123.989998</v>
+        <v>125.57</v>
       </c>
       <c r="F129" s="2">
-        <v>92403800</v>
+        <v>115227900</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A130" s="3" t="str">
-        <v>2021-03-12</v>
+        <v>2021-03-15</v>
       </c>
       <c r="B130" s="1">
-        <v>120.400002</v>
+        <v>121.410004</v>
       </c>
       <c r="C130" s="1">
-        <v>121.16999800000001</v>
+        <v>124</v>
       </c>
       <c r="D130" s="1">
-        <v>119.160004</v>
+        <v>120.41999800000001</v>
       </c>
       <c r="E130" s="1">
-        <v>121.029999</v>
+        <v>123.989998</v>
       </c>
       <c r="F130" s="2">
-        <v>88105100</v>
+        <v>92403800</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A131" s="3" t="str">
-        <v>2021-03-11</v>
+        <v>2021-03-12</v>
       </c>
       <c r="B131" s="1">
-        <v>122.540001</v>
+        <v>120.400002</v>
       </c>
       <c r="C131" s="1">
-        <v>123.209999</v>
+        <v>121.16999800000001</v>
       </c>
       <c r="D131" s="1">
-        <v>121.260002</v>
+        <v>119.160004</v>
       </c>
       <c r="E131" s="1">
-        <v>121.959999</v>
+        <v>121.029999</v>
       </c>
       <c r="F131" s="2">
-        <v>103026500</v>
+        <v>88105100</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A132" s="3" t="str">
-        <v>2021-03-10</v>
+        <v>2021-03-11</v>
       </c>
       <c r="B132" s="1">
-        <v>121.69000200000001</v>
+        <v>122.540001</v>
       </c>
       <c r="C132" s="1">
-        <v>122.16999800000001</v>
+        <v>123.209999</v>
       </c>
       <c r="D132" s="1">
-        <v>119.449997</v>
+        <v>121.260002</v>
       </c>
       <c r="E132" s="1">
-        <v>119.980003</v>
+        <v>121.959999</v>
       </c>
       <c r="F132" s="2">
-        <v>111943300</v>
+        <v>103026500</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A133" s="3" t="str">
-        <v>2021-03-09</v>
+        <v>2021-03-10</v>
       </c>
       <c r="B133" s="1">
-        <v>119.029999</v>
+        <v>121.69000200000001</v>
       </c>
       <c r="C133" s="1">
-        <v>122.05999799999999</v>
+        <v>122.16999800000001</v>
       </c>
       <c r="D133" s="1">
-        <v>118.790001</v>
+        <v>119.449997</v>
       </c>
       <c r="E133" s="1">
-        <v>121.089996</v>
+        <v>119.980003</v>
       </c>
       <c r="F133" s="2">
-        <v>129525800</v>
+        <v>111943300</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A134" s="3" t="str">
-        <v>2021-03-08</v>
+        <v>2021-03-09</v>
       </c>
       <c r="B134" s="1">
-        <v>120.93</v>
+        <v>119.029999</v>
       </c>
       <c r="C134" s="1">
-        <v>121</v>
+        <v>122.05999799999999</v>
       </c>
       <c r="D134" s="1">
-        <v>116.209999</v>
+        <v>118.790001</v>
       </c>
       <c r="E134" s="1">
-        <v>116.360001</v>
+        <v>121.089996</v>
       </c>
       <c r="F134" s="2">
-        <v>154376600</v>
+        <v>129525800</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A135" s="3" t="str">
-        <v>2021-03-05</v>
+        <v>2021-03-08</v>
       </c>
       <c r="B135" s="1">
-        <v>120.980003</v>
+        <v>120.93</v>
       </c>
       <c r="C135" s="1">
-        <v>121.94000200000001</v>
+        <v>121</v>
       </c>
       <c r="D135" s="1">
-        <v>117.57</v>
+        <v>116.209999</v>
       </c>
       <c r="E135" s="1">
-        <v>121.41999800000001</v>
+        <v>116.360001</v>
       </c>
       <c r="F135" s="2">
-        <v>153766600</v>
+        <v>154376600</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A136" s="3" t="str">
-        <v>2021-03-04</v>
+        <v>2021-03-05</v>
       </c>
       <c r="B136" s="1">
-        <v>121.75</v>
+        <v>120.980003</v>
       </c>
       <c r="C136" s="1">
-        <v>123.599998</v>
+        <v>121.94000200000001</v>
       </c>
       <c r="D136" s="1">
-        <v>118.620003</v>
+        <v>117.57</v>
       </c>
       <c r="E136" s="1">
-        <v>120.129997</v>
+        <v>121.41999800000001</v>
       </c>
       <c r="F136" s="2">
-        <v>178155000</v>
+        <v>153766600</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A137" s="3" t="str">
-        <v>2021-03-03</v>
+        <v>2021-03-04</v>
       </c>
       <c r="B137" s="1">
-        <v>124.80999799999999</v>
+        <v>121.75</v>
       </c>
       <c r="C137" s="1">
-        <v>125.709999</v>
+        <v>123.599998</v>
       </c>
       <c r="D137" s="1">
-        <v>121.839996</v>
+        <v>118.620003</v>
       </c>
       <c r="E137" s="1">
-        <v>122.05999799999999</v>
+        <v>120.129997</v>
       </c>
       <c r="F137" s="2">
-        <v>112966300</v>
+        <v>178155000</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A138" s="3" t="str">
-        <v>2021-03-02</v>
+        <v>2021-03-03</v>
       </c>
       <c r="B138" s="1">
-        <v>128.41000399999999</v>
+        <v>124.80999799999999</v>
       </c>
       <c r="C138" s="1">
-        <v>128.720001</v>
+        <v>125.709999</v>
       </c>
       <c r="D138" s="1">
-        <v>125.010002</v>
+        <v>121.839996</v>
       </c>
       <c r="E138" s="1">
-        <v>125.120003</v>
+        <v>122.05999799999999</v>
       </c>
       <c r="F138" s="2">
-        <v>102260900</v>
+        <v>112966300</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A139" s="3" t="str">
-        <v>2021-03-01</v>
+        <v>2021-03-02</v>
       </c>
       <c r="B139" s="1">
-        <v>123.75</v>
+        <v>128.41000399999999</v>
       </c>
       <c r="C139" s="1">
-        <v>127.93</v>
+        <v>128.720001</v>
       </c>
       <c r="D139" s="1">
-        <v>122.790001</v>
+        <v>125.010002</v>
       </c>
       <c r="E139" s="1">
-        <v>127.790001</v>
+        <v>125.120003</v>
       </c>
       <c r="F139" s="2">
-        <v>116307900</v>
+        <v>102260900</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A140" s="3" t="str">
-        <v>2021-02-26</v>
+        <v>2021-03-01</v>
       </c>
       <c r="B140" s="1">
-        <v>122.589996</v>
+        <v>123.75</v>
       </c>
       <c r="C140" s="1">
-        <v>124.849998</v>
+        <v>127.93</v>
       </c>
       <c r="D140" s="1">
-        <v>121.199997</v>
+        <v>122.790001</v>
       </c>
       <c r="E140" s="1">
-        <v>121.260002</v>
+        <v>127.790001</v>
       </c>
       <c r="F140" s="2">
-        <v>164560400</v>
+        <v>116307900</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A141" s="3" t="str">
-        <v>2021-02-25</v>
+        <v>2021-02-26</v>
       </c>
       <c r="B141" s="1">
-        <v>124.68</v>
+        <v>122.589996</v>
       </c>
       <c r="C141" s="1">
-        <v>126.459999</v>
+        <v>124.849998</v>
       </c>
       <c r="D141" s="1">
-        <v>120.540001</v>
+        <v>121.199997</v>
       </c>
       <c r="E141" s="1">
-        <v>120.989998</v>
+        <v>121.260002</v>
       </c>
       <c r="F141" s="2">
-        <v>148199500</v>
+        <v>164560400</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A142" s="3" t="str">
-        <v>2021-02-24</v>
+        <v>2021-02-25</v>
       </c>
       <c r="B142" s="1">
-        <v>124.94000200000001</v>
+        <v>124.68</v>
       </c>
       <c r="C142" s="1">
-        <v>125.55999799999999</v>
+        <v>126.459999</v>
       </c>
       <c r="D142" s="1">
-        <v>122.230003</v>
+        <v>120.540001</v>
       </c>
       <c r="E142" s="1">
-        <v>125.349998</v>
+        <v>120.989998</v>
       </c>
       <c r="F142" s="2">
-        <v>111039900</v>
+        <v>148199500</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A143" s="3" t="str">
-        <v>2021-02-23</v>
+        <v>2021-02-24</v>
       </c>
       <c r="B143" s="1">
-        <v>123.760002</v>
+        <v>124.94000200000001</v>
       </c>
       <c r="C143" s="1">
-        <v>126.709999</v>
+        <v>125.55999799999999</v>
       </c>
       <c r="D143" s="1">
-        <v>118.389999</v>
+        <v>122.230003</v>
       </c>
       <c r="E143" s="1">
-        <v>125.860001</v>
+        <v>125.349998</v>
       </c>
       <c r="F143" s="2">
-        <v>158273000</v>
+        <v>111039900</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A144" s="3" t="str">
-        <v>2021-02-22</v>
+        <v>2021-02-23</v>
       </c>
       <c r="B144" s="1">
-        <v>128.009995</v>
+        <v>123.760002</v>
       </c>
       <c r="C144" s="1">
-        <v>129.720001</v>
+        <v>126.709999</v>
       </c>
       <c r="D144" s="1">
-        <v>125.599998</v>
+        <v>118.389999</v>
       </c>
       <c r="E144" s="1">
-        <v>126</v>
+        <v>125.860001</v>
       </c>
       <c r="F144" s="2">
-        <v>103916400</v>
+        <v>158273000</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A145" s="3" t="str">
-        <v>2021-02-19</v>
+        <v>2021-02-22</v>
       </c>
       <c r="B145" s="1">
-        <v>130.240005</v>
+        <v>128.009995</v>
       </c>
       <c r="C145" s="1">
-        <v>130.71000699999999</v>
+        <v>129.720001</v>
       </c>
       <c r="D145" s="1">
-        <v>128.800003</v>
+        <v>125.599998</v>
       </c>
       <c r="E145" s="1">
-        <v>129.86999499999999</v>
+        <v>126</v>
       </c>
       <c r="F145" s="2">
-        <v>87668800</v>
+        <v>103916400</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A146" s="3" t="str">
-        <v>2021-02-18</v>
+        <v>2021-02-19</v>
       </c>
       <c r="B146" s="1">
-        <v>129.199997</v>
+        <v>130.240005</v>
       </c>
       <c r="C146" s="1">
-        <v>130</v>
+        <v>130.71000699999999</v>
       </c>
       <c r="D146" s="1">
-        <v>127.410004</v>
+        <v>128.800003</v>
       </c>
       <c r="E146" s="1">
-        <v>129.71000699999999</v>
+        <v>129.86999499999999</v>
       </c>
       <c r="F146" s="2">
-        <v>96856700</v>
+        <v>87668800</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A147" s="3" t="str">
-        <v>2021-02-17</v>
+        <v>2021-02-18</v>
       </c>
       <c r="B147" s="1">
-        <v>131.25</v>
+        <v>129.199997</v>
       </c>
       <c r="C147" s="1">
-        <v>132.220001</v>
+        <v>130</v>
       </c>
       <c r="D147" s="1">
-        <v>129.470001</v>
+        <v>127.410004</v>
       </c>
       <c r="E147" s="1">
-        <v>130.83999600000001</v>
+        <v>129.71000699999999</v>
       </c>
       <c r="F147" s="2">
-        <v>97918500</v>
+        <v>96856700</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A148" s="3" t="str">
-        <v>2021-02-16</v>
+        <v>2021-02-17</v>
       </c>
       <c r="B148" s="1">
-        <v>135.490005</v>
+        <v>131.25</v>
       </c>
       <c r="C148" s="1">
-        <v>136.009995</v>
+        <v>132.220001</v>
       </c>
       <c r="D148" s="1">
-        <v>132.78999300000001</v>
+        <v>129.470001</v>
       </c>
       <c r="E148" s="1">
-        <v>133.19000199999999</v>
+        <v>130.83999600000001</v>
       </c>
       <c r="F148" s="2">
-        <v>80576300</v>
+        <v>97918500</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A149" s="3" t="str">
-        <v>2021-02-12</v>
+        <v>2021-02-16</v>
       </c>
       <c r="B149" s="1">
-        <v>134.35000600000001</v>
+        <v>135.490005</v>
       </c>
       <c r="C149" s="1">
-        <v>135.529999</v>
+        <v>136.009995</v>
       </c>
       <c r="D149" s="1">
-        <v>133.69000199999999</v>
+        <v>132.78999300000001</v>
       </c>
       <c r="E149" s="1">
-        <v>135.36999499999999</v>
+        <v>133.19000199999999</v>
       </c>
       <c r="F149" s="2">
-        <v>60145100</v>
+        <v>80576300</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A150" s="3" t="str">
-        <v>2021-02-11</v>
+        <v>2021-02-12</v>
       </c>
       <c r="B150" s="1">
-        <v>135.89999399999999</v>
+        <v>134.35000600000001</v>
       </c>
       <c r="C150" s="1">
-        <v>136.38999899999999</v>
+        <v>135.529999</v>
       </c>
       <c r="D150" s="1">
-        <v>133.770004</v>
+        <v>133.69000199999999</v>
       </c>
       <c r="E150" s="1">
-        <v>135.13000500000001</v>
+        <v>135.36999499999999</v>
       </c>
       <c r="F150" s="2">
-        <v>64280000</v>
+        <v>60145100</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A151" s="3" t="str">
-        <v>2021-02-10</v>
+        <v>2021-02-11</v>
       </c>
       <c r="B151" s="1">
-        <v>136.479996</v>
+        <v>135.89999399999999</v>
       </c>
       <c r="C151" s="1">
-        <v>136.990005</v>
+        <v>136.38999899999999</v>
       </c>
       <c r="D151" s="1">
-        <v>134.39999399999999</v>
+        <v>133.770004</v>
       </c>
       <c r="E151" s="1">
-        <v>135.38999899999999</v>
+        <v>135.13000500000001</v>
       </c>
       <c r="F151" s="2">
-        <v>73046600</v>
+        <v>64280000</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A152" s="3" t="str">
-        <v>2021-02-09</v>
+        <v>2021-02-10</v>
       </c>
       <c r="B152" s="1">
-        <v>136.61999499999999</v>
+        <v>136.479996</v>
       </c>
       <c r="C152" s="1">
-        <v>137.88000500000001</v>
+        <v>136.990005</v>
       </c>
       <c r="D152" s="1">
-        <v>135.85000600000001</v>
+        <v>134.39999399999999</v>
       </c>
       <c r="E152" s="1">
-        <v>136.009995</v>
+        <v>135.38999899999999</v>
       </c>
       <c r="F152" s="2">
-        <v>76774200</v>
+        <v>73046600</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A153" s="3" t="str">
-        <v>2021-02-08</v>
+        <v>2021-02-09</v>
       </c>
       <c r="B153" s="1">
-        <v>136.029999</v>
+        <v>136.61999499999999</v>
       </c>
       <c r="C153" s="1">
-        <v>136.96000699999999</v>
+        <v>137.88000500000001</v>
       </c>
       <c r="D153" s="1">
-        <v>134.91999799999999</v>
+        <v>135.85000600000001</v>
       </c>
       <c r="E153" s="1">
-        <v>136.91000399999999</v>
+        <v>136.009995</v>
       </c>
       <c r="F153" s="2">
-        <v>71297200</v>
+        <v>76774200</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A154" s="3" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-08</v>
       </c>
       <c r="B154" s="1">
-        <v>137.35000600000001</v>
+        <v>136.029999</v>
       </c>
       <c r="C154" s="1">
-        <v>137.41999799999999</v>
+        <v>136.96000699999999</v>
       </c>
       <c r="D154" s="1">
-        <v>135.86000100000001</v>
+        <v>134.91999799999999</v>
       </c>
       <c r="E154" s="1">
-        <v>136.759995</v>
+        <v>136.91000399999999</v>
       </c>
       <c r="F154" s="2">
-        <v>75693800</v>
+        <v>71297200</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A155" s="3" t="str">
-        <v>2021-02-04</v>
+        <v>2021-02-05</v>
       </c>
       <c r="B155" s="1">
-        <v>136.300003</v>
+        <v>137.35000600000001</v>
       </c>
       <c r="C155" s="1">
-        <v>137.39999399999999</v>
+        <v>137.41999799999999</v>
       </c>
       <c r="D155" s="1">
-        <v>134.58999600000001</v>
+        <v>135.86000100000001</v>
       </c>
       <c r="E155" s="1">
-        <v>137.38999899999999</v>
+        <v>136.759995</v>
       </c>
       <c r="F155" s="2">
-        <v>84183100</v>
+        <v>75693800</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A156" s="3" t="str">
-        <v>2021-02-03</v>
+        <v>2021-02-04</v>
       </c>
       <c r="B156" s="1">
-        <v>135.759995</v>
+        <v>136.300003</v>
       </c>
       <c r="C156" s="1">
-        <v>135.770004</v>
+        <v>137.39999399999999</v>
       </c>
       <c r="D156" s="1">
-        <v>133.61000100000001</v>
+        <v>134.58999600000001</v>
       </c>
       <c r="E156" s="1">
-        <v>133.94000199999999</v>
+        <v>137.38999899999999</v>
       </c>
       <c r="F156" s="2">
-        <v>89880900</v>
+        <v>84183100</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A157" s="3" t="str">
-        <v>2021-02-02</v>
+        <v>2021-02-03</v>
       </c>
       <c r="B157" s="1">
-        <v>135.729996</v>
+        <v>135.759995</v>
       </c>
       <c r="C157" s="1">
-        <v>136.30999800000001</v>
+        <v>135.770004</v>
       </c>
       <c r="D157" s="1">
-        <v>134.61000100000001</v>
+        <v>133.61000100000001</v>
       </c>
       <c r="E157" s="1">
-        <v>134.990005</v>
+        <v>133.94000199999999</v>
       </c>
       <c r="F157" s="2">
-        <v>83305400</v>
+        <v>89880900</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A158" s="3" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-02</v>
       </c>
       <c r="B158" s="1">
-        <v>133.75</v>
+        <v>135.729996</v>
       </c>
       <c r="C158" s="1">
-        <v>135.38000500000001</v>
+        <v>136.30999800000001</v>
       </c>
       <c r="D158" s="1">
-        <v>130.929993</v>
+        <v>134.61000100000001</v>
       </c>
       <c r="E158" s="1">
-        <v>134.13999899999999</v>
+        <v>134.990005</v>
       </c>
       <c r="F158" s="2">
-        <v>106239800</v>
+        <v>83305400</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A159" s="3" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-01</v>
       </c>
       <c r="B159" s="1">
-        <v>135.83000200000001</v>
+        <v>133.75</v>
       </c>
       <c r="C159" s="1">
-        <v>136.740005</v>
+        <v>135.38000500000001</v>
       </c>
       <c r="D159" s="1">
-        <v>130.21000699999999</v>
+        <v>130.929993</v>
       </c>
       <c r="E159" s="1">
-        <v>131.96000699999999</v>
+        <v>134.13999899999999</v>
       </c>
       <c r="F159" s="2">
-        <v>177523800</v>
+        <v>106239800</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A160" s="3" t="str">
-        <v>2021-01-28</v>
+        <v>2021-01-29</v>
       </c>
       <c r="B160" s="1">
-        <v>139.520004</v>
+        <v>135.83000200000001</v>
       </c>
       <c r="C160" s="1">
-        <v>141.990005</v>
+        <v>136.740005</v>
       </c>
       <c r="D160" s="1">
-        <v>136.699997</v>
+        <v>130.21000699999999</v>
       </c>
       <c r="E160" s="1">
-        <v>137.08999600000001</v>
+        <v>131.96000699999999</v>
       </c>
       <c r="F160" s="2">
-        <v>142621100</v>
+        <v>177523800</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A161" s="3" t="str">
-        <v>2021-01-27</v>
+        <v>2021-01-28</v>
       </c>
       <c r="B161" s="1">
-        <v>143.429993</v>
+        <v>139.520004</v>
       </c>
       <c r="C161" s="1">
-        <v>144.300003</v>
+        <v>141.990005</v>
       </c>
       <c r="D161" s="1">
-        <v>140.41000399999999</v>
+        <v>136.699997</v>
       </c>
       <c r="E161" s="1">
-        <v>142.05999800000001</v>
+        <v>137.08999600000001</v>
       </c>
       <c r="F161" s="2">
-        <v>140843800</v>
+        <v>142621100</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A162" s="3" t="str">
-        <v>2021-01-26</v>
+        <v>2021-01-27</v>
       </c>
       <c r="B162" s="1">
-        <v>143.60000600000001</v>
+        <v>143.429993</v>
       </c>
       <c r="C162" s="1">
         <v>144.300003</v>
       </c>
       <c r="D162" s="1">
-        <v>141.36999499999999</v>
+        <v>140.41000399999999</v>
       </c>
       <c r="E162" s="1">
-        <v>143.16000399999999</v>
+        <v>142.05999800000001</v>
       </c>
       <c r="F162" s="2">
-        <v>98390600</v>
+        <v>140843800</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A163" s="3" t="str">
-        <v>2021-01-25</v>
+        <v>2021-01-26</v>
       </c>
       <c r="B163" s="1">
-        <v>143.070007</v>
+        <v>143.60000600000001</v>
       </c>
       <c r="C163" s="1">
-        <v>145.08999600000001</v>
+        <v>144.300003</v>
       </c>
       <c r="D163" s="1">
-        <v>136.53999300000001</v>
+        <v>141.36999499999999</v>
       </c>
       <c r="E163" s="1">
-        <v>142.91999799999999</v>
+        <v>143.16000399999999</v>
       </c>
       <c r="F163" s="2">
-        <v>157611700</v>
+        <v>98390600</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A164" s="3" t="str">
-        <v>2021-01-22</v>
+        <v>2021-01-25</v>
       </c>
       <c r="B164" s="1">
-        <v>136.279999</v>
+        <v>143.070007</v>
       </c>
       <c r="C164" s="1">
-        <v>139.85000600000001</v>
+        <v>145.08999600000001</v>
       </c>
       <c r="D164" s="1">
-        <v>135.020004</v>
+        <v>136.53999300000001</v>
       </c>
       <c r="E164" s="1">
-        <v>139.070007</v>
+        <v>142.91999799999999</v>
       </c>
       <c r="F164" s="2">
-        <v>114459400</v>
+        <v>157611700</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A165" s="3" t="str">
-        <v>2021-01-21</v>
+        <v>2021-01-22</v>
       </c>
       <c r="B165" s="1">
-        <v>133.800003</v>
+        <v>136.279999</v>
       </c>
       <c r="C165" s="1">
-        <v>139.66999799999999</v>
+        <v>139.85000600000001</v>
       </c>
       <c r="D165" s="1">
-        <v>133.58999600000001</v>
+        <v>135.020004</v>
       </c>
       <c r="E165" s="1">
-        <v>136.86999499999999</v>
+        <v>139.070007</v>
       </c>
       <c r="F165" s="2">
-        <v>120150900</v>
+        <v>114459400</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A166" s="3" t="str">
-        <v>2021-01-20</v>
+        <v>2021-01-21</v>
       </c>
       <c r="B166" s="1">
-        <v>128.66000399999999</v>
+        <v>133.800003</v>
       </c>
       <c r="C166" s="1">
-        <v>132.490005</v>
+        <v>139.66999799999999</v>
       </c>
       <c r="D166" s="1">
-        <v>128.550003</v>
+        <v>133.58999600000001</v>
       </c>
       <c r="E166" s="1">
-        <v>132.029999</v>
+        <v>136.86999499999999</v>
       </c>
       <c r="F166" s="2">
-        <v>104319500</v>
+        <v>120150900</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A167" s="3" t="str">
-        <v>2021-01-19</v>
+        <v>2021-01-20</v>
       </c>
       <c r="B167" s="1">
-        <v>127.779999</v>
+        <v>128.66000399999999</v>
       </c>
       <c r="C167" s="1">
-        <v>128.71000699999999</v>
+        <v>132.490005</v>
       </c>
       <c r="D167" s="1">
-        <v>126.94000200000001</v>
+        <v>128.550003</v>
       </c>
       <c r="E167" s="1">
-        <v>127.83000199999999</v>
+        <v>132.029999</v>
       </c>
       <c r="F167" s="2">
-        <v>90757300</v>
+        <v>104319500</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A168" s="3" t="str">
-        <v>2021-01-15</v>
+        <v>2021-01-19</v>
       </c>
       <c r="B168" s="1">
-        <v>128.779999</v>
+        <v>127.779999</v>
       </c>
       <c r="C168" s="1">
-        <v>130.220001</v>
+        <v>128.71000699999999</v>
       </c>
       <c r="D168" s="1">
-        <v>127</v>
+        <v>126.94000200000001</v>
       </c>
       <c r="E168" s="1">
-        <v>127.139999</v>
+        <v>127.83000199999999</v>
       </c>
       <c r="F168" s="2">
-        <v>111598500</v>
+        <v>90757300</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A169" s="3" t="str">
-        <v>2021-01-14</v>
+        <v>2021-01-15</v>
       </c>
       <c r="B169" s="1">
-        <v>130.800003</v>
+        <v>128.779999</v>
       </c>
       <c r="C169" s="1">
-        <v>131</v>
+        <v>130.220001</v>
       </c>
       <c r="D169" s="1">
-        <v>128.759995</v>
+        <v>127</v>
       </c>
       <c r="E169" s="1">
-        <v>128.91000399999999</v>
+        <v>127.139999</v>
       </c>
       <c r="F169" s="2">
-        <v>90221800</v>
+        <v>111598500</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A170" s="3" t="str">
-        <v>2021-01-13</v>
+        <v>2021-01-14</v>
       </c>
       <c r="B170" s="1">
+        <v>130.800003</v>
+      </c>
+      <c r="C170" s="1">
+        <v>131</v>
+      </c>
+      <c r="D170" s="1">
         <v>128.759995</v>
       </c>
-      <c r="C170" s="1">
-        <v>131.449997</v>
-      </c>
-      <c r="D170" s="1">
-        <v>128.490005</v>
-      </c>
       <c r="E170" s="1">
-        <v>130.88999899999999</v>
+        <v>128.91000399999999</v>
       </c>
       <c r="F170" s="2">
-        <v>88636800</v>
+        <v>90221800</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A171" s="3" t="str">
-        <v>2021-01-12</v>
+        <v>2021-01-13</v>
       </c>
       <c r="B171" s="1">
-        <v>128.5</v>
+        <v>128.759995</v>
       </c>
       <c r="C171" s="1">
-        <v>129.69000199999999</v>
+        <v>131.449997</v>
       </c>
       <c r="D171" s="1">
-        <v>126.860001</v>
+        <v>128.490005</v>
       </c>
       <c r="E171" s="1">
-        <v>128.800003</v>
+        <v>130.88999899999999</v>
       </c>
       <c r="F171" s="2">
-        <v>91951100</v>
+        <v>88636800</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A172" s="3" t="str">
-        <v>2021-01-11</v>
+        <v>2021-01-12</v>
       </c>
       <c r="B172" s="1">
-        <v>129.19000199999999</v>
+        <v>128.5</v>
       </c>
       <c r="C172" s="1">
-        <v>130.16999799999999</v>
+        <v>129.69000199999999</v>
       </c>
       <c r="D172" s="1">
-        <v>128.5</v>
+        <v>126.860001</v>
       </c>
       <c r="E172" s="1">
-        <v>128.979996</v>
+        <v>128.800003</v>
       </c>
       <c r="F172" s="2">
-        <v>100384500</v>
+        <v>91951100</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A173" s="3" t="str">
-        <v>2021-01-08</v>
+        <v>2021-01-11</v>
       </c>
       <c r="B173" s="1">
-        <v>132.429993</v>
+        <v>129.19000199999999</v>
       </c>
       <c r="C173" s="1">
-        <v>132.63000500000001</v>
+        <v>130.16999799999999</v>
       </c>
       <c r="D173" s="1">
-        <v>130.229996</v>
+        <v>128.5</v>
       </c>
       <c r="E173" s="1">
-        <v>132.050003</v>
+        <v>128.979996</v>
       </c>
       <c r="F173" s="2">
-        <v>105158200</v>
+        <v>100384500</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A174" s="3" t="str">
-        <v>2021-01-07</v>
+        <v>2021-01-08</v>
       </c>
       <c r="B174" s="1">
-        <v>128.36000100000001</v>
+        <v>132.429993</v>
       </c>
       <c r="C174" s="1">
-        <v>131.63000500000001</v>
+        <v>132.63000500000001</v>
       </c>
       <c r="D174" s="1">
-        <v>127.860001</v>
+        <v>130.229996</v>
       </c>
       <c r="E174" s="1">
-        <v>130.91999799999999</v>
+        <v>132.050003</v>
       </c>
       <c r="F174" s="2">
-        <v>109578200</v>
+        <v>105158200</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A175" s="3" t="str">
-        <v>2021-01-06</v>
+        <v>2021-01-07</v>
       </c>
       <c r="B175" s="1">
-        <v>127.720001</v>
+        <v>128.36000100000001</v>
       </c>
       <c r="C175" s="1">
-        <v>131.050003</v>
+        <v>131.63000500000001</v>
       </c>
       <c r="D175" s="1">
-        <v>126.379997</v>
+        <v>127.860001</v>
       </c>
       <c r="E175" s="1">
-        <v>126.599998</v>
+        <v>130.91999799999999</v>
       </c>
       <c r="F175" s="2">
-        <v>155088000</v>
+        <v>109578200</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A176" s="3" t="str">
-        <v>2021-01-05</v>
+        <v>2021-01-06</v>
       </c>
       <c r="B176" s="1">
-        <v>128.88999899999999</v>
+        <v>127.720001</v>
       </c>
       <c r="C176" s="1">
-        <v>131.740005</v>
+        <v>131.050003</v>
       </c>
       <c r="D176" s="1">
-        <v>128.429993</v>
+        <v>126.379997</v>
       </c>
       <c r="E176" s="1">
-        <v>131.009995</v>
+        <v>126.599998</v>
       </c>
       <c r="F176" s="2">
-        <v>97664900</v>
+        <v>155088000</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A177" s="3" t="str">
-        <v>2021-01-04</v>
+        <v>2021-01-05</v>
       </c>
       <c r="B177" s="1">
-        <v>133.520004</v>
+        <v>128.88999899999999</v>
       </c>
       <c r="C177" s="1">
-        <v>133.61000100000001</v>
+        <v>131.740005</v>
       </c>
       <c r="D177" s="1">
-        <v>126.760002</v>
+        <v>128.429993</v>
       </c>
       <c r="E177" s="1">
-        <v>129.41000399999999</v>
+        <v>131.009995</v>
       </c>
       <c r="F177" s="2">
-        <v>143301900</v>
+        <v>97664900</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A178" s="3" t="str">
-        <v>2020-12-31</v>
+        <v>2021-01-04</v>
       </c>
       <c r="B178" s="1">
-        <v>134.08000200000001</v>
+        <v>133.520004</v>
       </c>
       <c r="C178" s="1">
-        <v>134.740005</v>
+        <v>133.61000100000001</v>
       </c>
       <c r="D178" s="1">
-        <v>131.720001</v>
+        <v>126.760002</v>
       </c>
       <c r="E178" s="1">
-        <v>132.69000199999999</v>
+        <v>129.41000399999999</v>
       </c>
       <c r="F178" s="2">
-        <v>99116600</v>
+        <v>143301900</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A179" s="3" t="str">
-        <v>2020-12-30</v>
+        <v>2020-12-31</v>
       </c>
       <c r="B179" s="1">
-        <v>135.58000200000001</v>
+        <v>134.08000200000001</v>
       </c>
       <c r="C179" s="1">
-        <v>135.990005</v>
+        <v>134.740005</v>
       </c>
       <c r="D179" s="1">
-        <v>133.39999399999999</v>
+        <v>131.720001</v>
       </c>
       <c r="E179" s="1">
-        <v>133.720001</v>
+        <v>132.69000199999999</v>
       </c>
       <c r="F179" s="2">
-        <v>96452100</v>
+        <v>99116600</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A180" s="3" t="str">
-        <v>2020-12-29</v>
+        <v>2020-12-30</v>
       </c>
       <c r="B180" s="1">
-        <v>138.050003</v>
+        <v>135.58000200000001</v>
       </c>
       <c r="C180" s="1">
-        <v>138.78999300000001</v>
+        <v>135.990005</v>
       </c>
       <c r="D180" s="1">
-        <v>134.33999600000001</v>
+        <v>133.39999399999999</v>
       </c>
       <c r="E180" s="1">
-        <v>134.86999499999999</v>
+        <v>133.720001</v>
       </c>
       <c r="F180" s="2">
-        <v>121047300</v>
+        <v>96452100</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A181" s="3" t="str">
-        <v>2020-12-28</v>
+        <v>2020-12-29</v>
       </c>
       <c r="B181" s="1">
-        <v>133.990005</v>
+        <v>138.050003</v>
       </c>
       <c r="C181" s="1">
-        <v>137.33999600000001</v>
+        <v>138.78999300000001</v>
       </c>
       <c r="D181" s="1">
-        <v>133.509995</v>
+        <v>134.33999600000001</v>
       </c>
       <c r="E181" s="1">
-        <v>136.69000199999999</v>
+        <v>134.86999499999999</v>
       </c>
       <c r="F181" s="2">
-        <v>124486200</v>
+        <v>121047300</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A182" s="3" t="str">
-        <v>2020-12-24</v>
+        <v>2020-12-28</v>
       </c>
       <c r="B182" s="1">
-        <v>131.320007</v>
+        <v>133.990005</v>
       </c>
       <c r="C182" s="1">
-        <v>133.46000699999999</v>
+        <v>137.33999600000001</v>
       </c>
       <c r="D182" s="1">
-        <v>131.10000600000001</v>
+        <v>133.509995</v>
       </c>
       <c r="E182" s="1">
-        <v>131.970001</v>
+        <v>136.69000199999999</v>
       </c>
       <c r="F182" s="2">
-        <v>54930100</v>
+        <v>124486200</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A183" s="3" t="str">
-        <v>2020-12-23</v>
+        <v>2020-12-24</v>
       </c>
       <c r="B183" s="1">
-        <v>132.16000399999999</v>
+        <v>131.320007</v>
       </c>
       <c r="C183" s="1">
-        <v>132.429993</v>
+        <v>133.46000699999999</v>
       </c>
       <c r="D183" s="1">
-        <v>130.779999</v>
+        <v>131.10000600000001</v>
       </c>
       <c r="E183" s="1">
-        <v>130.96000699999999</v>
+        <v>131.970001</v>
       </c>
       <c r="F183" s="2">
-        <v>88223700</v>
+        <v>54930100</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A184" s="3" t="str">
-        <v>2020-12-22</v>
+        <v>2020-12-23</v>
       </c>
       <c r="B184" s="1">
-        <v>131.61000100000001</v>
+        <v>132.16000399999999</v>
       </c>
       <c r="C184" s="1">
-        <v>134.41000399999999</v>
+        <v>132.429993</v>
       </c>
       <c r="D184" s="1">
-        <v>129.64999399999999</v>
+        <v>130.779999</v>
       </c>
       <c r="E184" s="1">
-        <v>131.88000500000001</v>
+        <v>130.96000699999999</v>
       </c>
       <c r="F184" s="2">
-        <v>168904800</v>
+        <v>88223700</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A185" s="3" t="str">
-        <v>2020-12-21</v>
+        <v>2020-12-22</v>
       </c>
       <c r="B185" s="1">
-        <v>125.019997</v>
+        <v>131.61000100000001</v>
       </c>
       <c r="C185" s="1">
-        <v>128.30999800000001</v>
+        <v>134.41000399999999</v>
       </c>
       <c r="D185" s="1">
-        <v>123.449997</v>
+        <v>129.64999399999999</v>
       </c>
       <c r="E185" s="1">
-        <v>128.229996</v>
+        <v>131.88000500000001</v>
       </c>
       <c r="F185" s="2">
-        <v>121251600</v>
+        <v>168904800</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A186" s="3" t="str">
-        <v>2020-12-18</v>
+        <v>2020-12-21</v>
       </c>
       <c r="B186" s="1">
-        <v>128.96000699999999</v>
+        <v>125.019997</v>
       </c>
       <c r="C186" s="1">
-        <v>129.10000600000001</v>
+        <v>128.30999800000001</v>
       </c>
       <c r="D186" s="1">
-        <v>126.120003</v>
+        <v>123.449997</v>
       </c>
       <c r="E186" s="1">
-        <v>126.660004</v>
+        <v>128.229996</v>
       </c>
       <c r="F186" s="2">
-        <v>192541500</v>
+        <v>121251600</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A187" s="3" t="str">
-        <v>2020-12-17</v>
+        <v>2020-12-18</v>
       </c>
       <c r="B187" s="1">
-        <v>128.89999399999999</v>
+        <v>128.96000699999999</v>
       </c>
       <c r="C187" s="1">
-        <v>129.58000200000001</v>
+        <v>129.10000600000001</v>
       </c>
       <c r="D187" s="1">
-        <v>128.03999300000001</v>
+        <v>126.120003</v>
       </c>
       <c r="E187" s="1">
-        <v>128.699997</v>
+        <v>126.660004</v>
       </c>
       <c r="F187" s="2">
-        <v>94359800</v>
+        <v>192541500</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A188" s="3" t="str">
-        <v>2020-12-16</v>
+        <v>2020-12-17</v>
       </c>
       <c r="B188" s="1">
-        <v>127.410004</v>
+        <v>128.89999399999999</v>
       </c>
       <c r="C188" s="1">
-        <v>128.36999499999999</v>
+        <v>129.58000200000001</v>
       </c>
       <c r="D188" s="1">
-        <v>126.55999799999999</v>
+        <v>128.03999300000001</v>
       </c>
       <c r="E188" s="1">
-        <v>127.80999799999999</v>
+        <v>128.699997</v>
       </c>
       <c r="F188" s="2">
-        <v>98208600</v>
+        <v>94359800</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A189" s="3" t="str">
-        <v>2020-12-15</v>
+        <v>2020-12-16</v>
       </c>
       <c r="B189" s="1">
-        <v>124.339996</v>
+        <v>127.410004</v>
       </c>
       <c r="C189" s="1">
-        <v>127.900002</v>
+        <v>128.36999499999999</v>
       </c>
       <c r="D189" s="1">
-        <v>124.129997</v>
+        <v>126.55999799999999</v>
       </c>
       <c r="E189" s="1">
-        <v>127.879997</v>
+        <v>127.80999799999999</v>
       </c>
       <c r="F189" s="2">
-        <v>157243700</v>
+        <v>98208600</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A190" s="3" t="str">
-        <v>2020-12-14</v>
+        <v>2020-12-15</v>
       </c>
       <c r="B190" s="1">
-        <v>122.599998</v>
+        <v>124.339996</v>
       </c>
       <c r="C190" s="1">
-        <v>123.349998</v>
+        <v>127.900002</v>
       </c>
       <c r="D190" s="1">
-        <v>121.540001</v>
+        <v>124.129997</v>
       </c>
       <c r="E190" s="1">
-        <v>121.779999</v>
+        <v>127.879997</v>
       </c>
       <c r="F190" s="2">
-        <v>79184500</v>
+        <v>157243700</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A191" s="3" t="str">
-        <v>2020-12-11</v>
+        <v>2020-12-14</v>
       </c>
       <c r="B191" s="1">
-        <v>122.43</v>
+        <v>122.599998</v>
       </c>
       <c r="C191" s="1">
-        <v>122.760002</v>
+        <v>123.349998</v>
       </c>
       <c r="D191" s="1">
-        <v>120.550003</v>
+        <v>121.540001</v>
       </c>
       <c r="E191" s="1">
-        <v>122.410004</v>
+        <v>121.779999</v>
       </c>
       <c r="F191" s="2">
-        <v>86939800</v>
+        <v>79184500</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A192" s="3" t="str">
-        <v>2020-12-10</v>
+        <v>2020-12-11</v>
       </c>
       <c r="B192" s="1">
-        <v>120.5</v>
+        <v>122.43</v>
       </c>
       <c r="C192" s="1">
-        <v>123.870003</v>
+        <v>122.760002</v>
       </c>
       <c r="D192" s="1">
-        <v>120.150002</v>
+        <v>120.550003</v>
       </c>
       <c r="E192" s="1">
-        <v>123.239998</v>
+        <v>122.410004</v>
       </c>
       <c r="F192" s="2">
-        <v>81312200</v>
+        <v>86939800</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A193" s="3" t="str">
-        <v>2020-12-09</v>
+        <v>2020-12-10</v>
       </c>
       <c r="B193" s="1">
-        <v>124.529999</v>
+        <v>120.5</v>
       </c>
       <c r="C193" s="1">
-        <v>125.949997</v>
+        <v>123.870003</v>
       </c>
       <c r="D193" s="1">
-        <v>121</v>
+        <v>120.150002</v>
       </c>
       <c r="E193" s="1">
-        <v>121.779999</v>
+        <v>123.239998</v>
       </c>
       <c r="F193" s="2">
-        <v>115089200</v>
+        <v>81312200</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A194" s="3" t="str">
-        <v>2020-12-08</v>
+        <v>2020-12-09</v>
       </c>
       <c r="B194" s="1">
-        <v>124.370003</v>
+        <v>124.529999</v>
       </c>
       <c r="C194" s="1">
-        <v>124.980003</v>
+        <v>125.949997</v>
       </c>
       <c r="D194" s="1">
-        <v>123.089996</v>
+        <v>121</v>
       </c>
       <c r="E194" s="1">
-        <v>124.379997</v>
+        <v>121.779999</v>
       </c>
       <c r="F194" s="2">
-        <v>82225500</v>
+        <v>115089200</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A195" s="3" t="str">
-        <v>2020-12-07</v>
+        <v>2020-12-08</v>
       </c>
       <c r="B195" s="1">
-        <v>122.30999799999999</v>
+        <v>124.370003</v>
       </c>
       <c r="C195" s="1">
-        <v>124.57</v>
+        <v>124.980003</v>
       </c>
       <c r="D195" s="1">
-        <v>122.25</v>
+        <v>123.089996</v>
       </c>
       <c r="E195" s="1">
-        <v>123.75</v>
+        <v>124.379997</v>
       </c>
       <c r="F195" s="2">
-        <v>86712000</v>
+        <v>82225500</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A196" s="3" t="str">
-        <v>2020-12-04</v>
+        <v>2020-12-07</v>
       </c>
       <c r="B196" s="1">
-        <v>122.599998</v>
+        <v>122.30999799999999</v>
       </c>
       <c r="C196" s="1">
-        <v>122.860001</v>
+        <v>124.57</v>
       </c>
       <c r="D196" s="1">
-        <v>121.519997</v>
+        <v>122.25</v>
       </c>
       <c r="E196" s="1">
-        <v>122.25</v>
+        <v>123.75</v>
       </c>
       <c r="F196" s="2">
-        <v>78260400</v>
+        <v>86712000</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A197" s="3" t="str">
-        <v>2020-12-03</v>
+        <v>2020-12-04</v>
       </c>
       <c r="B197" s="1">
-        <v>123.519997</v>
+        <v>122.599998</v>
       </c>
       <c r="C197" s="1">
-        <v>123.779999</v>
+        <v>122.860001</v>
       </c>
       <c r="D197" s="1">
-        <v>122.209999</v>
+        <v>121.519997</v>
       </c>
       <c r="E197" s="1">
-        <v>122.94000200000001</v>
+        <v>122.25</v>
       </c>
       <c r="F197" s="2">
-        <v>78967600</v>
+        <v>78260400</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A198" s="3" t="str">
-        <v>2020-12-02</v>
+        <v>2020-12-03</v>
       </c>
       <c r="B198" s="1">
-        <v>122.019997</v>
+        <v>123.519997</v>
       </c>
       <c r="C198" s="1">
-        <v>123.370003</v>
+        <v>123.779999</v>
       </c>
       <c r="D198" s="1">
-        <v>120.889999</v>
+        <v>122.209999</v>
       </c>
       <c r="E198" s="1">
-        <v>123.08000199999999</v>
+        <v>122.94000200000001</v>
       </c>
       <c r="F198" s="2">
-        <v>89004200</v>
+        <v>78967600</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A199" s="3" t="str">
-        <v>2020-12-01</v>
+        <v>2020-12-02</v>
       </c>
       <c r="B199" s="1">
-        <v>121.010002</v>
+        <v>122.019997</v>
       </c>
       <c r="C199" s="1">
-        <v>123.470001</v>
+        <v>123.370003</v>
       </c>
       <c r="D199" s="1">
-        <v>120.010002</v>
+        <v>120.889999</v>
       </c>
       <c r="E199" s="1">
-        <v>122.720001</v>
+        <v>123.08000199999999</v>
       </c>
       <c r="F199" s="2">
-        <v>127728200</v>
+        <v>89004200</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A200" s="3" t="str">
-        <v>2020-11-30</v>
+        <v>2020-12-01</v>
       </c>
       <c r="B200" s="1">
-        <v>116.970001</v>
+        <v>121.010002</v>
       </c>
       <c r="C200" s="1">
-        <v>120.970001</v>
+        <v>123.470001</v>
       </c>
       <c r="D200" s="1">
-        <v>116.80999799999999</v>
+        <v>120.010002</v>
       </c>
       <c r="E200" s="1">
-        <v>119.050003</v>
+        <v>122.720001</v>
       </c>
       <c r="F200" s="2">
-        <v>169410200</v>
+        <v>127728200</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A201" s="3" t="str">
-        <v>2020-11-27</v>
+        <v>2020-11-30</v>
       </c>
       <c r="B201" s="1">
-        <v>116.57</v>
+        <v>116.970001</v>
       </c>
       <c r="C201" s="1">
-        <v>117.489998</v>
+        <v>120.970001</v>
       </c>
       <c r="D201" s="1">
-        <v>116.220001</v>
+        <v>116.80999799999999</v>
       </c>
       <c r="E201" s="1">
-        <v>116.589996</v>
+        <v>119.050003</v>
       </c>
       <c r="F201" s="2">
-        <v>46691300</v>
+        <v>169410200</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A202" s="3" t="str">
-        <v>2020-11-25</v>
+        <v>2020-11-27</v>
       </c>
       <c r="B202" s="1">
-        <v>115.550003</v>
+        <v>116.57</v>
       </c>
       <c r="C202" s="1">
-        <v>116.75</v>
+        <v>117.489998</v>
       </c>
       <c r="D202" s="1">
-        <v>115.16999800000001</v>
+        <v>116.220001</v>
       </c>
       <c r="E202" s="1">
-        <v>116.029999</v>
+        <v>116.589996</v>
       </c>
       <c r="F202" s="2">
-        <v>76499200</v>
+        <v>46691300</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A203" s="3" t="str">
-        <v>2020-11-24</v>
+        <v>2020-11-25</v>
       </c>
       <c r="B203" s="1">
-        <v>113.910004</v>
+        <v>115.550003</v>
       </c>
       <c r="C203" s="1">
-        <v>115.849998</v>
+        <v>116.75</v>
       </c>
       <c r="D203" s="1">
-        <v>112.589996</v>
+        <v>115.16999800000001</v>
       </c>
       <c r="E203" s="1">
-        <v>115.16999800000001</v>
+        <v>116.029999</v>
       </c>
       <c r="F203" s="2">
-        <v>113874200</v>
+        <v>76499200</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A204" s="3" t="str">
-        <v>2020-11-23</v>
+        <v>2020-11-24</v>
       </c>
       <c r="B204" s="1">
-        <v>117.18</v>
+        <v>113.910004</v>
       </c>
       <c r="C204" s="1">
-        <v>117.620003</v>
+        <v>115.849998</v>
       </c>
       <c r="D204" s="1">
-        <v>113.75</v>
+        <v>112.589996</v>
       </c>
       <c r="E204" s="1">
-        <v>113.849998</v>
+        <v>115.16999800000001</v>
       </c>
       <c r="F204" s="2">
-        <v>127959300</v>
+        <v>113874200</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A205" s="3" t="str">
-        <v>2020-11-20</v>
+        <v>2020-11-23</v>
       </c>
       <c r="B205" s="1">
-        <v>118.639999</v>
+        <v>117.18</v>
       </c>
       <c r="C205" s="1">
-        <v>118.769997</v>
+        <v>117.620003</v>
       </c>
       <c r="D205" s="1">
-        <v>117.290001</v>
+        <v>113.75</v>
       </c>
       <c r="E205" s="1">
-        <v>117.339996</v>
+        <v>113.849998</v>
       </c>
       <c r="F205" s="2">
-        <v>73604300</v>
+        <v>127959300</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A206" s="3" t="str">
-        <v>2020-11-19</v>
+        <v>2020-11-20</v>
       </c>
       <c r="B206" s="1">
-        <v>117.589996</v>
+        <v>118.639999</v>
       </c>
       <c r="C206" s="1">
-        <v>119.05999799999999</v>
+        <v>118.769997</v>
       </c>
       <c r="D206" s="1">
-        <v>116.80999799999999</v>
+        <v>117.290001</v>
       </c>
       <c r="E206" s="1">
-        <v>118.639999</v>
+        <v>117.339996</v>
       </c>
       <c r="F206" s="2">
-        <v>74113000</v>
+        <v>73604300</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A207" s="3" t="str">
-        <v>2020-11-18</v>
+        <v>2020-11-19</v>
       </c>
       <c r="B207" s="1">
-        <v>118.610001</v>
+        <v>117.589996</v>
       </c>
       <c r="C207" s="1">
-        <v>119.82</v>
+        <v>119.05999799999999</v>
       </c>
       <c r="D207" s="1">
-        <v>118</v>
+        <v>116.80999799999999</v>
       </c>
       <c r="E207" s="1">
-        <v>118.029999</v>
+        <v>118.639999</v>
       </c>
       <c r="F207" s="2">
-        <v>76322100</v>
+        <v>74113000</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A208" s="3" t="str">
-        <v>2020-11-17</v>
+        <v>2020-11-18</v>
       </c>
       <c r="B208" s="1">
-        <v>119.550003</v>
+        <v>118.610001</v>
       </c>
       <c r="C208" s="1">
-        <v>120.66999800000001</v>
+        <v>119.82</v>
       </c>
       <c r="D208" s="1">
-        <v>118.959999</v>
+        <v>118</v>
       </c>
       <c r="E208" s="1">
-        <v>119.389999</v>
+        <v>118.029999</v>
       </c>
       <c r="F208" s="2">
-        <v>74271000</v>
+        <v>76322100</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A209" s="3" t="str">
-        <v>2020-11-16</v>
+        <v>2020-11-17</v>
       </c>
       <c r="B209" s="1">
-        <v>118.91999800000001</v>
+        <v>119.550003</v>
       </c>
       <c r="C209" s="1">
-        <v>120.989998</v>
+        <v>120.66999800000001</v>
       </c>
       <c r="D209" s="1">
-        <v>118.150002</v>
+        <v>118.959999</v>
       </c>
       <c r="E209" s="1">
-        <v>120.300003</v>
+        <v>119.389999</v>
       </c>
       <c r="F209" s="2">
-        <v>91183000</v>
+        <v>74271000</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A210" s="3" t="str">
-        <v>2020-11-13</v>
+        <v>2020-11-16</v>
       </c>
       <c r="B210" s="1">
-        <v>119.44000200000001</v>
+        <v>118.91999800000001</v>
       </c>
       <c r="C210" s="1">
-        <v>119.66999800000001</v>
+        <v>120.989998</v>
       </c>
       <c r="D210" s="1">
-        <v>117.870003</v>
+        <v>118.150002</v>
       </c>
       <c r="E210" s="1">
-        <v>119.260002</v>
+        <v>120.300003</v>
       </c>
       <c r="F210" s="2">
-        <v>81581900</v>
+        <v>91183000</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A211" s="3" t="str">
-        <v>2020-11-12</v>
+        <v>2020-11-13</v>
       </c>
       <c r="B211" s="1">
-        <v>119.620003</v>
+        <v>119.44000200000001</v>
       </c>
       <c r="C211" s="1">
-        <v>120.529999</v>
+        <v>119.66999800000001</v>
       </c>
       <c r="D211" s="1">
-        <v>118.57</v>
+        <v>117.870003</v>
       </c>
       <c r="E211" s="1">
-        <v>119.209999</v>
+        <v>119.260002</v>
       </c>
       <c r="F211" s="2">
-        <v>103162300</v>
+        <v>81581900</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A212" s="3" t="str">
-        <v>2020-11-11</v>
+        <v>2020-11-12</v>
       </c>
       <c r="B212" s="1">
-        <v>117.19000200000001</v>
+        <v>119.620003</v>
       </c>
       <c r="C212" s="1">
-        <v>119.629997</v>
+        <v>120.529999</v>
       </c>
       <c r="D212" s="1">
-        <v>116.44000200000001</v>
+        <v>118.57</v>
       </c>
       <c r="E212" s="1">
-        <v>119.489998</v>
+        <v>119.209999</v>
       </c>
       <c r="F212" s="2">
-        <v>112295000</v>
+        <v>103162300</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A213" s="3" t="str">
-        <v>2020-11-10</v>
+        <v>2020-11-11</v>
       </c>
       <c r="B213" s="1">
-        <v>115.550003</v>
+        <v>117.19000200000001</v>
       </c>
       <c r="C213" s="1">
-        <v>117.589996</v>
+        <v>119.629997</v>
       </c>
       <c r="D213" s="1">
-        <v>114.129997</v>
+        <v>116.44000200000001</v>
       </c>
       <c r="E213" s="1">
-        <v>115.970001</v>
+        <v>119.489998</v>
       </c>
       <c r="F213" s="2">
-        <v>138023400</v>
+        <v>112295000</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A214" s="3" t="str">
-        <v>2020-11-09</v>
+        <v>2020-11-10</v>
       </c>
       <c r="B214" s="1">
-        <v>120.5</v>
+        <v>115.550003</v>
       </c>
       <c r="C214" s="1">
-        <v>121.989998</v>
+        <v>117.589996</v>
       </c>
       <c r="D214" s="1">
-        <v>116.050003</v>
+        <v>114.129997</v>
       </c>
       <c r="E214" s="1">
-        <v>116.32</v>
+        <v>115.970001</v>
       </c>
       <c r="F214" s="2">
-        <v>154515300</v>
+        <v>138023400</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A215" s="3" t="str">
-        <v>2020-11-06</v>
+        <v>2020-11-09</v>
       </c>
       <c r="B215" s="1">
-        <v>118.32</v>
+        <v>120.5</v>
       </c>
       <c r="C215" s="1">
-        <v>119.199997</v>
+        <v>121.989998</v>
       </c>
       <c r="D215" s="1">
-        <v>116.129997</v>
+        <v>116.050003</v>
       </c>
       <c r="E215" s="1">
-        <v>118.69000200000001</v>
+        <v>116.32</v>
       </c>
       <c r="F215" s="2">
-        <v>114457900</v>
+        <v>154515300</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A216" s="3" t="str">
-        <v>2020-11-05</v>
+        <v>2020-11-06</v>
       </c>
       <c r="B216" s="1">
-        <v>117.949997</v>
+        <v>118.32</v>
       </c>
       <c r="C216" s="1">
-        <v>119.620003</v>
+        <v>119.199997</v>
       </c>
       <c r="D216" s="1">
-        <v>116.870003</v>
+        <v>116.129997</v>
       </c>
       <c r="E216" s="1">
-        <v>119.029999</v>
+        <v>118.69000200000001</v>
       </c>
       <c r="F216" s="2">
-        <v>126387100</v>
+        <v>114457900</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A217" s="3" t="str">
-        <v>2020-11-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="B217" s="1">
-        <v>114.139999</v>
+        <v>117.949997</v>
       </c>
       <c r="C217" s="1">
-        <v>115.589996</v>
+        <v>119.620003</v>
       </c>
       <c r="D217" s="1">
-        <v>112.349998</v>
+        <v>116.870003</v>
       </c>
       <c r="E217" s="1">
-        <v>114.949997</v>
+        <v>119.029999</v>
       </c>
       <c r="F217" s="2">
-        <v>138235500</v>
+        <v>126387100</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A218" s="3" t="str">
-        <v>2020-11-03</v>
+        <v>2020-11-04</v>
       </c>
       <c r="B218" s="1">
-        <v>109.660004</v>
+        <v>114.139999</v>
       </c>
       <c r="C218" s="1">
-        <v>111.489998</v>
+        <v>115.589996</v>
       </c>
       <c r="D218" s="1">
-        <v>108.730003</v>
+        <v>112.349998</v>
       </c>
       <c r="E218" s="1">
-        <v>110.44000200000001</v>
+        <v>114.949997</v>
       </c>
       <c r="F218" s="2">
-        <v>107624400</v>
+        <v>138235500</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A219" s="3" t="str">
-        <v>2020-11-02</v>
+        <v>2020-11-03</v>
       </c>
       <c r="B219" s="1">
-        <v>109.110001</v>
+        <v>109.660004</v>
       </c>
       <c r="C219" s="1">
-        <v>110.68</v>
+        <v>111.489998</v>
       </c>
       <c r="D219" s="1">
-        <v>107.32</v>
+        <v>108.730003</v>
       </c>
       <c r="E219" s="1">
-        <v>108.769997</v>
+        <v>110.44000200000001</v>
       </c>
       <c r="F219" s="2">
-        <v>122866900</v>
+        <v>107624400</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A220" s="3" t="str">
-        <v>2020-10-30</v>
+        <v>2020-11-02</v>
       </c>
       <c r="B220" s="1">
-        <v>111.05999799999999</v>
+        <v>109.110001</v>
       </c>
       <c r="C220" s="1">
-        <v>111.989998</v>
+        <v>110.68</v>
       </c>
       <c r="D220" s="1">
-        <v>107.720001</v>
+        <v>107.32</v>
       </c>
       <c r="E220" s="1">
-        <v>108.860001</v>
+        <v>108.769997</v>
       </c>
       <c r="F220" s="2">
-        <v>190272600</v>
+        <v>122866900</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A221" s="3" t="str">
-        <v>2020-10-29</v>
+        <v>2020-10-30</v>
       </c>
       <c r="B221" s="1">
-        <v>112.370003</v>
+        <v>111.05999799999999</v>
       </c>
       <c r="C221" s="1">
-        <v>116.93</v>
+        <v>111.989998</v>
       </c>
       <c r="D221" s="1">
-        <v>112.199997</v>
+        <v>107.720001</v>
       </c>
       <c r="E221" s="1">
-        <v>115.32</v>
+        <v>108.860001</v>
       </c>
       <c r="F221" s="2">
-        <v>146129200</v>
+        <v>190272600</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A222" s="3" t="str">
-        <v>2020-10-28</v>
+        <v>2020-10-29</v>
       </c>
       <c r="B222" s="1">
-        <v>115.050003</v>
+        <v>112.370003</v>
       </c>
       <c r="C222" s="1">
-        <v>115.43</v>
+        <v>116.93</v>
       </c>
       <c r="D222" s="1">
-        <v>111.099998</v>
+        <v>112.199997</v>
       </c>
       <c r="E222" s="1">
-        <v>111.199997</v>
+        <v>115.32</v>
       </c>
       <c r="F222" s="2">
-        <v>143937800</v>
+        <v>146129200</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A223" s="3" t="str">
-        <v>2020-10-27</v>
+        <v>2020-10-28</v>
       </c>
       <c r="B223" s="1">
-        <v>115.489998</v>
+        <v>115.050003</v>
       </c>
       <c r="C223" s="1">
-        <v>117.279999</v>
+        <v>115.43</v>
       </c>
       <c r="D223" s="1">
-        <v>114.540001</v>
+        <v>111.099998</v>
       </c>
       <c r="E223" s="1">
-        <v>116.599998</v>
+        <v>111.199997</v>
       </c>
       <c r="F223" s="2">
-        <v>92276800</v>
+        <v>143937800</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A224" s="3" t="str">
-        <v>2020-10-26</v>
+        <v>2020-10-27</v>
       </c>
       <c r="B224" s="1">
-        <v>114.010002</v>
+        <v>115.489998</v>
       </c>
       <c r="C224" s="1">
-        <v>116.550003</v>
+        <v>117.279999</v>
       </c>
       <c r="D224" s="1">
-        <v>112.879997</v>
+        <v>114.540001</v>
       </c>
       <c r="E224" s="1">
-        <v>115.050003</v>
+        <v>116.599998</v>
       </c>
       <c r="F224" s="2">
-        <v>111850700</v>
+        <v>92276800</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A225" s="3" t="str">
-        <v>2020-10-23</v>
+        <v>2020-10-26</v>
       </c>
       <c r="B225" s="1">
-        <v>116.389999</v>
+        <v>114.010002</v>
       </c>
       <c r="C225" s="1">
         <v>116.550003</v>
       </c>
       <c r="D225" s="1">
-        <v>114.279999</v>
+        <v>112.879997</v>
       </c>
       <c r="E225" s="1">
-        <v>115.040001</v>
+        <v>115.050003</v>
       </c>
       <c r="F225" s="2">
-        <v>82572600</v>
+        <v>111850700</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A226" s="3" t="str">
-        <v>2020-10-22</v>
+        <v>2020-10-23</v>
       </c>
       <c r="B226" s="1">
-        <v>117.449997</v>
+        <v>116.389999</v>
       </c>
       <c r="C226" s="1">
-        <v>118.040001</v>
+        <v>116.550003</v>
       </c>
       <c r="D226" s="1">
-        <v>114.589996</v>
+        <v>114.279999</v>
       </c>
       <c r="E226" s="1">
-        <v>115.75</v>
+        <v>115.040001</v>
       </c>
       <c r="F226" s="2">
-        <v>101988000</v>
+        <v>82572600</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A227" s="3" t="str">
-        <v>2020-10-21</v>
+        <v>2020-10-22</v>
       </c>
       <c r="B227" s="1">
-        <v>116.66999800000001</v>
+        <v>117.449997</v>
       </c>
       <c r="C227" s="1">
-        <v>118.709999</v>
+        <v>118.040001</v>
       </c>
       <c r="D227" s="1">
-        <v>116.449997</v>
+        <v>114.589996</v>
       </c>
       <c r="E227" s="1">
-        <v>116.870003</v>
+        <v>115.75</v>
       </c>
       <c r="F227" s="2">
-        <v>89946000</v>
+        <v>101988000</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A228" s="3" t="str">
-        <v>2020-10-20</v>
+        <v>2020-10-21</v>
       </c>
       <c r="B228" s="1">
-        <v>116.199997</v>
+        <v>116.66999800000001</v>
       </c>
       <c r="C228" s="1">
-        <v>118.980003</v>
+        <v>118.709999</v>
       </c>
       <c r="D228" s="1">
-        <v>115.629997</v>
+        <v>116.449997</v>
       </c>
       <c r="E228" s="1">
-        <v>117.510002</v>
+        <v>116.870003</v>
       </c>
       <c r="F228" s="2">
-        <v>124423700</v>
+        <v>89946000</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A229" s="3" t="str">
-        <v>2020-10-19</v>
+        <v>2020-10-20</v>
       </c>
       <c r="B229" s="1">
-        <v>119.959999</v>
+        <v>116.199997</v>
       </c>
       <c r="C229" s="1">
-        <v>120.41999800000001</v>
+        <v>118.980003</v>
       </c>
       <c r="D229" s="1">
-        <v>115.660004</v>
+        <v>115.629997</v>
       </c>
       <c r="E229" s="1">
-        <v>115.980003</v>
+        <v>117.510002</v>
       </c>
       <c r="F229" s="2">
-        <v>120639300</v>
+        <v>124423700</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A230" s="3" t="str">
-        <v>2020-10-16</v>
+        <v>2020-10-19</v>
       </c>
       <c r="B230" s="1">
-        <v>121.279999</v>
+        <v>119.959999</v>
       </c>
       <c r="C230" s="1">
-        <v>121.550003</v>
+        <v>120.41999800000001</v>
       </c>
       <c r="D230" s="1">
-        <v>118.80999799999999</v>
+        <v>115.660004</v>
       </c>
       <c r="E230" s="1">
-        <v>119.019997</v>
+        <v>115.980003</v>
       </c>
       <c r="F230" s="2">
-        <v>115393800</v>
+        <v>120639300</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A231" s="3" t="str">
-        <v>2020-10-15</v>
+        <v>2020-10-16</v>
       </c>
       <c r="B231" s="1">
-        <v>118.720001</v>
+        <v>121.279999</v>
       </c>
       <c r="C231" s="1">
-        <v>121.199997</v>
+        <v>121.550003</v>
       </c>
       <c r="D231" s="1">
-        <v>118.150002</v>
+        <v>118.80999799999999</v>
       </c>
       <c r="E231" s="1">
-        <v>120.709999</v>
+        <v>119.019997</v>
       </c>
       <c r="F231" s="2">
-        <v>112559200</v>
+        <v>115393800</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A232" s="3" t="str">
-        <v>2020-10-14</v>
+        <v>2020-10-15</v>
       </c>
       <c r="B232" s="1">
-        <v>121</v>
+        <v>118.720001</v>
       </c>
       <c r="C232" s="1">
-        <v>123.029999</v>
+        <v>121.199997</v>
       </c>
       <c r="D232" s="1">
-        <v>119.620003</v>
+        <v>118.150002</v>
       </c>
       <c r="E232" s="1">
-        <v>121.19000200000001</v>
+        <v>120.709999</v>
       </c>
       <c r="F232" s="2">
-        <v>150712000</v>
+        <v>112559200</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A233" s="3" t="str">
-        <v>2020-10-13</v>
+        <v>2020-10-14</v>
       </c>
       <c r="B233" s="1">
-        <v>125.269997</v>
+        <v>121</v>
       </c>
       <c r="C233" s="1">
-        <v>125.389999</v>
+        <v>123.029999</v>
       </c>
       <c r="D233" s="1">
-        <v>119.650002</v>
+        <v>119.620003</v>
       </c>
       <c r="E233" s="1">
-        <v>121.099998</v>
+        <v>121.19000200000001</v>
       </c>
       <c r="F233" s="2">
-        <v>262330500</v>
+        <v>150712000</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A234" s="3" t="str">
-        <v>2020-10-12</v>
+        <v>2020-10-13</v>
       </c>
       <c r="B234" s="1">
-        <v>120.05999799999999</v>
+        <v>125.269997</v>
       </c>
       <c r="C234" s="1">
-        <v>125.18</v>
+        <v>125.389999</v>
       </c>
       <c r="D234" s="1">
-        <v>119.279999</v>
+        <v>119.650002</v>
       </c>
       <c r="E234" s="1">
-        <v>124.400002</v>
+        <v>121.099998</v>
       </c>
       <c r="F234" s="2">
-        <v>240226800</v>
+        <v>262330500</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A235" s="3" t="str">
-        <v>2020-10-09</v>
+        <v>2020-10-12</v>
       </c>
       <c r="B235" s="1">
-        <v>115.279999</v>
+        <v>120.05999799999999</v>
       </c>
       <c r="C235" s="1">
-        <v>117</v>
+        <v>125.18</v>
       </c>
       <c r="D235" s="1">
-        <v>114.91999800000001</v>
+        <v>119.279999</v>
       </c>
       <c r="E235" s="1">
-        <v>116.970001</v>
+        <v>124.400002</v>
       </c>
       <c r="F235" s="2">
-        <v>100506900</v>
+        <v>240226800</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A236" s="3" t="str">
-        <v>2020-10-08</v>
+        <v>2020-10-09</v>
       </c>
       <c r="B236" s="1">
-        <v>116.25</v>
+        <v>115.279999</v>
       </c>
       <c r="C236" s="1">
-        <v>116.400002</v>
+        <v>117</v>
       </c>
       <c r="D236" s="1">
-        <v>114.589996</v>
+        <v>114.91999800000001</v>
       </c>
       <c r="E236" s="1">
-        <v>114.970001</v>
+        <v>116.970001</v>
       </c>
       <c r="F236" s="2">
-        <v>83477200</v>
+        <v>100506900</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A237" s="3" t="str">
-        <v>2020-10-07</v>
+        <v>2020-10-08</v>
       </c>
       <c r="B237" s="1">
-        <v>114.620003</v>
+        <v>116.25</v>
       </c>
       <c r="C237" s="1">
-        <v>115.550003</v>
+        <v>116.400002</v>
       </c>
       <c r="D237" s="1">
-        <v>114.129997</v>
+        <v>114.589996</v>
       </c>
       <c r="E237" s="1">
-        <v>115.08000199999999</v>
+        <v>114.970001</v>
       </c>
       <c r="F237" s="2">
-        <v>96849000</v>
+        <v>83477200</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A238" s="3" t="str">
-        <v>2020-10-06</v>
+        <v>2020-10-07</v>
       </c>
       <c r="B238" s="1">
-        <v>115.699997</v>
+        <v>114.620003</v>
       </c>
       <c r="C238" s="1">
-        <v>116.120003</v>
+        <v>115.550003</v>
       </c>
       <c r="D238" s="1">
-        <v>112.25</v>
+        <v>114.129997</v>
       </c>
       <c r="E238" s="1">
-        <v>113.160004</v>
+        <v>115.08000199999999</v>
       </c>
       <c r="F238" s="2">
-        <v>161498200</v>
+        <v>96849000</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A239" s="3" t="str">
-        <v>2020-10-05</v>
+        <v>2020-10-06</v>
       </c>
       <c r="B239" s="1">
-        <v>113.910004</v>
+        <v>115.699997</v>
       </c>
       <c r="C239" s="1">
-        <v>116.650002</v>
+        <v>116.120003</v>
       </c>
       <c r="D239" s="1">
-        <v>113.550003</v>
+        <v>112.25</v>
       </c>
       <c r="E239" s="1">
-        <v>116.5</v>
+        <v>113.160004</v>
       </c>
       <c r="F239" s="2">
-        <v>106243800</v>
+        <v>161498200</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A240" s="3" t="str">
-        <v>2020-10-02</v>
+        <v>2020-10-05</v>
       </c>
       <c r="B240" s="1">
-        <v>112.889999</v>
+        <v>113.910004</v>
       </c>
       <c r="C240" s="1">
-        <v>115.370003</v>
+        <v>116.650002</v>
       </c>
       <c r="D240" s="1">
-        <v>112.220001</v>
+        <v>113.550003</v>
       </c>
       <c r="E240" s="1">
-        <v>113.019997</v>
+        <v>116.5</v>
       </c>
       <c r="F240" s="2">
-        <v>144712000</v>
+        <v>106243800</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A241" s="3" t="str">
-        <v>2020-10-01</v>
+        <v>2020-10-02</v>
       </c>
       <c r="B241" s="1">
-        <v>117.639999</v>
+        <v>112.889999</v>
       </c>
       <c r="C241" s="1">
-        <v>117.720001</v>
+        <v>115.370003</v>
       </c>
       <c r="D241" s="1">
-        <v>115.83000199999999</v>
+        <v>112.220001</v>
       </c>
       <c r="E241" s="1">
-        <v>116.790001</v>
+        <v>113.019997</v>
       </c>
       <c r="F241" s="2">
-        <v>116120400</v>
+        <v>144712000</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A242" s="3" t="str">
-        <v>2020-09-30</v>
+        <v>2020-10-01</v>
       </c>
       <c r="B242" s="1">
-        <v>113.790001</v>
+        <v>117.639999</v>
       </c>
       <c r="C242" s="1">
-        <v>117.260002</v>
+        <v>117.720001</v>
       </c>
       <c r="D242" s="1">
-        <v>113.620003</v>
+        <v>115.83000199999999</v>
       </c>
       <c r="E242" s="1">
-        <v>115.80999799999999</v>
+        <v>116.790001</v>
       </c>
       <c r="F242" s="2">
-        <v>142675200</v>
+        <v>116120400</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A243" s="3" t="str">
-        <v>2020-09-29</v>
+        <v>2020-09-30</v>
       </c>
       <c r="B243" s="1">
-        <v>114.550003</v>
+        <v>113.790001</v>
       </c>
       <c r="C243" s="1">
-        <v>115.30999799999999</v>
+        <v>117.260002</v>
       </c>
       <c r="D243" s="1">
-        <v>113.57</v>
+        <v>113.620003</v>
       </c>
       <c r="E243" s="1">
-        <v>114.089996</v>
+        <v>115.80999799999999</v>
       </c>
       <c r="F243" s="2">
-        <v>99382200</v>
+        <v>142675200</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A244" s="3" t="str">
-        <v>2020-09-28</v>
+        <v>2020-09-29</v>
       </c>
       <c r="B244" s="1">
-        <v>115.010002</v>
+        <v>114.550003</v>
       </c>
       <c r="C244" s="1">
-        <v>115.32</v>
+        <v>115.30999799999999</v>
       </c>
       <c r="D244" s="1">
-        <v>112.779999</v>
+        <v>113.57</v>
       </c>
       <c r="E244" s="1">
-        <v>114.959999</v>
+        <v>114.089996</v>
       </c>
       <c r="F244" s="2">
-        <v>137672400</v>
+        <v>99382200</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A245" s="3" t="str">
-        <v>2020-09-25</v>
+        <v>2020-09-28</v>
       </c>
       <c r="B245" s="1">
-        <v>108.43</v>
+        <v>115.010002</v>
       </c>
       <c r="C245" s="1">
-        <v>112.44000200000001</v>
+        <v>115.32</v>
       </c>
       <c r="D245" s="1">
-        <v>107.66999800000001</v>
+        <v>112.779999</v>
       </c>
       <c r="E245" s="1">
-        <v>112.279999</v>
+        <v>114.959999</v>
       </c>
       <c r="F245" s="2">
-        <v>149981400</v>
+        <v>137672400</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A246" s="3" t="str">
-        <v>2020-09-24</v>
+        <v>2020-09-25</v>
       </c>
       <c r="B246" s="1">
-        <v>105.16999800000001</v>
+        <v>108.43</v>
       </c>
       <c r="C246" s="1">
-        <v>110.25</v>
+        <v>112.44000200000001</v>
       </c>
       <c r="D246" s="1">
-        <v>105</v>
+        <v>107.66999800000001</v>
       </c>
       <c r="E246" s="1">
-        <v>108.220001</v>
+        <v>112.279999</v>
       </c>
       <c r="F246" s="2">
-        <v>167743300</v>
+        <v>149981400</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A247" s="3" t="str">
-        <v>2020-09-23</v>
+        <v>2020-09-24</v>
       </c>
       <c r="B247" s="1">
-        <v>111.620003</v>
+        <v>105.16999800000001</v>
       </c>
       <c r="C247" s="1">
-        <v>112.110001</v>
+        <v>110.25</v>
       </c>
       <c r="D247" s="1">
-        <v>106.769997</v>
+        <v>105</v>
       </c>
       <c r="E247" s="1">
-        <v>107.120003</v>
+        <v>108.220001</v>
       </c>
       <c r="F247" s="2">
-        <v>150718700</v>
+        <v>167743300</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A248" s="3" t="str">
-        <v>2020-09-22</v>
+        <v>2020-09-23</v>
       </c>
       <c r="B248" s="1">
-        <v>112.68</v>
+        <v>111.620003</v>
       </c>
       <c r="C248" s="1">
-        <v>112.860001</v>
+        <v>112.110001</v>
       </c>
       <c r="D248" s="1">
-        <v>109.160004</v>
+        <v>106.769997</v>
       </c>
       <c r="E248" s="1">
-        <v>111.80999799999999</v>
+        <v>107.120003</v>
       </c>
       <c r="F248" s="2">
-        <v>183055400</v>
+        <v>150718700</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A249" s="3" t="str">
-        <v>2020-09-21</v>
+        <v>2020-09-22</v>
       </c>
       <c r="B249" s="1">
-        <v>104.540001</v>
+        <v>112.68</v>
       </c>
       <c r="C249" s="1">
-        <v>110.19000200000001</v>
+        <v>112.860001</v>
       </c>
       <c r="D249" s="1">
-        <v>103.099998</v>
+        <v>109.160004</v>
       </c>
       <c r="E249" s="1">
-        <v>110.08000199999999</v>
+        <v>111.80999799999999</v>
       </c>
       <c r="F249" s="2">
-        <v>195713800</v>
+        <v>183055400</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A250" s="3" t="str">
-        <v>2020-09-18</v>
+        <v>2020-09-21</v>
       </c>
       <c r="B250" s="1">
-        <v>110.400002</v>
+        <v>104.540001</v>
       </c>
       <c r="C250" s="1">
-        <v>110.879997</v>
+        <v>110.19000200000001</v>
       </c>
       <c r="D250" s="1">
-        <v>106.089996</v>
+        <v>103.099998</v>
       </c>
       <c r="E250" s="1">
-        <v>106.839996</v>
+        <v>110.08000199999999</v>
       </c>
       <c r="F250" s="2">
-        <v>287104900</v>
+        <v>195713800</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A251" s="3" t="str">
-        <v>2020-09-17</v>
+        <v>2020-09-18</v>
       </c>
       <c r="B251" s="1">
-        <v>109.720001</v>
+        <v>110.400002</v>
       </c>
       <c r="C251" s="1">
-        <v>112.199997</v>
+        <v>110.879997</v>
       </c>
       <c r="D251" s="1">
-        <v>108.709999</v>
+        <v>106.089996</v>
       </c>
       <c r="E251" s="1">
-        <v>110.339996</v>
+        <v>106.839996</v>
       </c>
       <c r="F251" s="2">
-        <v>178011000</v>
+        <v>287104900</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A252" s="3" t="str">
-        <v>2020-09-16</v>
+        <v>2020-09-17</v>
       </c>
       <c r="B252" s="1">
-        <v>115.230003</v>
+        <v>109.720001</v>
       </c>
       <c r="C252" s="1">
-        <v>116</v>
+        <v>112.199997</v>
       </c>
       <c r="D252" s="1">
-        <v>112.040001</v>
+        <v>108.709999</v>
       </c>
       <c r="E252" s="1">
-        <v>112.129997</v>
+        <v>110.339996</v>
       </c>
       <c r="F252" s="2">
-        <v>154679000</v>
+        <v>178011000</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A253" s="3" t="str">
-        <v>2020-09-15</v>
+        <v>2020-09-16</v>
       </c>
       <c r="B253" s="1">
-        <v>118.33000199999999</v>
+        <v>115.230003</v>
       </c>
       <c r="C253" s="1">
-        <v>118.83000199999999</v>
+        <v>116</v>
       </c>
       <c r="D253" s="1">
-        <v>113.610001</v>
+        <v>112.040001</v>
       </c>
       <c r="E253" s="1">
-        <v>115.540001</v>
+        <v>112.129997</v>
       </c>
       <c r="F253" s="2">
-        <v>184642000</v>
+        <v>154679000</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A254" s="3" t="str">
-        <v>2020-09-14</v>
+        <v>2020-09-15</v>
       </c>
       <c r="B254" s="1">
-        <v>114.720001</v>
+        <v>118.33000199999999</v>
       </c>
       <c r="C254" s="1">
-        <v>115.93</v>
+        <v>118.83000199999999</v>
       </c>
       <c r="D254" s="1">
-        <v>112.800003</v>
+        <v>113.610001</v>
       </c>
       <c r="E254" s="1">
-        <v>115.360001</v>
+        <v>115.540001</v>
       </c>
       <c r="F254" s="2">
-        <v>140150100</v>
+        <v>184642000</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A255" s="3" t="str">
-        <v>2020-09-11</v>
+        <v>2020-09-14</v>
       </c>
       <c r="B255" s="1">
-        <v>114.57</v>
+        <v>114.720001</v>
       </c>
       <c r="C255" s="1">
-        <v>115.230003</v>
+        <v>115.93</v>
       </c>
       <c r="D255" s="1">
-        <v>110</v>
+        <v>112.800003</v>
       </c>
       <c r="E255" s="1">
-        <v>112</v>
+        <v>115.360001</v>
       </c>
       <c r="F255" s="2">
-        <v>180860300</v>
+        <v>140150100</v>
       </c>
     </row>
   </sheetData>
